--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,24 @@
     <t>['49', '76', '90+4']</t>
   </si>
   <si>
+    <t>['61', '90+3']</t>
+  </si>
+  <si>
+    <t>['32', '33']</t>
+  </si>
+  <si>
+    <t>['39', '89']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['39', '47']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -623,9 +641,6 @@
   </si>
   <si>
     <t>['17', '58', '86']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['76', '86', '90+4']</t>
@@ -692,9 +707,6 @@
   </si>
   <si>
     <t>['4', '37', '76', '90+3']</t>
-  </si>
-  <si>
-    <t>['50']</t>
   </si>
   <si>
     <t>['7', '23', '87']</t>
@@ -1140,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1486,7 @@
         <v>1.36</v>
       </c>
       <c r="AT2">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1665,7 +1677,7 @@
         <v>2.09</v>
       </c>
       <c r="AT3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1766,7 +1778,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1853,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT4">
         <v>1.27</v>
@@ -2047,7 +2059,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2148,7 +2160,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2235,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT6">
         <v>1.09</v>
@@ -2339,7 +2351,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2429,7 +2441,7 @@
         <v>1.64</v>
       </c>
       <c r="AT7">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2530,7 +2542,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2617,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>0.45</v>
@@ -2721,7 +2733,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2808,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT9">
         <v>0.64</v>
@@ -2912,7 +2924,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3384,7 +3396,7 @@
         <v>1.73</v>
       </c>
       <c r="AT12">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3485,7 +3497,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3575,7 +3587,7 @@
         <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU13">
         <v>1.84</v>
@@ -3763,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT14">
         <v>0.55</v>
@@ -3867,7 +3879,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3954,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT15">
         <v>2.09</v>
@@ -4145,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT16">
         <v>1.73</v>
@@ -4339,7 +4351,7 @@
         <v>1.64</v>
       </c>
       <c r="AT17">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4527,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT18">
         <v>1.09</v>
@@ -4631,7 +4643,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4721,7 +4733,7 @@
         <v>2.09</v>
       </c>
       <c r="AT19">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4909,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU20">
         <v>1.58</v>
@@ -5100,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT21">
         <v>0.64</v>
@@ -5395,7 +5407,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5482,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5676,7 +5688,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.79</v>
@@ -5777,7 +5789,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5867,7 +5879,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU25">
         <v>1.99</v>
@@ -6249,7 +6261,7 @@
         <v>1.36</v>
       </c>
       <c r="AT27">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6541,7 +6553,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6628,7 +6640,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
         <v>1.73</v>
@@ -7204,7 +7216,7 @@
         <v>1.64</v>
       </c>
       <c r="AT32">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.86</v>
@@ -7305,7 +7317,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7392,7 +7404,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
         <v>0.45</v>
@@ -7496,7 +7508,7 @@
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7583,10 +7595,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -7774,10 +7786,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT35">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU35">
         <v>2.5</v>
@@ -8159,7 +8171,7 @@
         <v>2.09</v>
       </c>
       <c r="AT37">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8347,10 +8359,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT38">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU38">
         <v>1.23</v>
@@ -8451,7 +8463,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8538,10 +8550,10 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT39">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU39">
         <v>3.02</v>
@@ -8729,7 +8741,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT40">
         <v>0.64</v>
@@ -8923,7 +8935,7 @@
         <v>1.64</v>
       </c>
       <c r="AT41">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU41">
         <v>1.93</v>
@@ -9215,7 +9227,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9302,7 +9314,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT43">
         <v>1.27</v>
@@ -9406,7 +9418,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -10069,7 +10081,7 @@
         <v>2.09</v>
       </c>
       <c r="AT47">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU47">
         <v>1.31</v>
@@ -10170,7 +10182,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10639,10 +10651,10 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -10743,7 +10755,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -10833,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU51">
         <v>1.27</v>
@@ -11024,7 +11036,7 @@
         <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU52">
         <v>1.65</v>
@@ -11212,10 +11224,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT53">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11403,10 +11415,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT54">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU54">
         <v>2.13</v>
@@ -11594,10 +11606,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT55">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -11698,7 +11710,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11785,10 +11797,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT56">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU56">
         <v>1.47</v>
@@ -11889,7 +11901,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11976,7 +11988,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT57">
         <v>1.09</v>
@@ -12653,7 +12665,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12844,7 +12856,7 @@
         <v>107</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13035,7 +13047,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13417,7 +13429,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13608,7 +13620,7 @@
         <v>96</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13695,10 +13707,10 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13799,7 +13811,7 @@
         <v>81</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13886,10 +13898,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU67">
         <v>1.25</v>
@@ -13990,7 +14002,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14077,10 +14089,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU68">
         <v>1.67</v>
@@ -14268,10 +14280,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14372,7 +14384,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -14462,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU70">
         <v>1.18</v>
@@ -14650,10 +14662,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT71">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>2.03</v>
@@ -14841,10 +14853,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT72">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU72">
         <v>2.25</v>
@@ -15032,10 +15044,10 @@
         <v>0</v>
       </c>
       <c r="AS73">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT73">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU73">
         <v>1.26</v>
@@ -15709,7 +15721,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15900,7 +15912,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -15987,7 +15999,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT78">
         <v>0.55</v>
@@ -16560,10 +16572,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT81">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16751,7 +16763,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT82">
         <v>1.09</v>
@@ -16942,10 +16954,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT83">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU83">
         <v>1.72</v>
@@ -17046,7 +17058,7 @@
         <v>84</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2</v>
@@ -17133,10 +17145,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT84">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU84">
         <v>1.29</v>
@@ -17237,7 +17249,7 @@
         <v>136</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17324,10 +17336,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT85">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17428,7 +17440,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17518,7 +17530,7 @@
         <v>1.82</v>
       </c>
       <c r="AT86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU86">
         <v>2.18</v>
@@ -17706,7 +17718,7 @@
         <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT87">
         <v>1.73</v>
@@ -17810,7 +17822,7 @@
         <v>138</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18001,7 +18013,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18088,7 +18100,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT89">
         <v>2.09</v>
@@ -18383,7 +18395,7 @@
         <v>141</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18473,7 +18485,7 @@
         <v>1.73</v>
       </c>
       <c r="AT91">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18664,7 +18676,7 @@
         <v>2.09</v>
       </c>
       <c r="AT92">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -19234,10 +19246,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT95">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU95">
         <v>1.62</v>
@@ -19338,7 +19350,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>12</v>
@@ -19428,7 +19440,7 @@
         <v>1.82</v>
       </c>
       <c r="AT96">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU96">
         <v>2.1</v>
@@ -19529,7 +19541,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19616,10 +19628,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT97">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU97">
         <v>2.15</v>
@@ -19720,7 +19732,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19807,7 +19819,7 @@
         <v>1.2</v>
       </c>
       <c r="AS98">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT98">
         <v>0.55</v>
@@ -19911,7 +19923,7 @@
         <v>147</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20189,10 +20201,10 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT100">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU100">
         <v>1.59</v>
@@ -20380,10 +20392,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT101">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU101">
         <v>1.49</v>
@@ -20574,7 +20586,7 @@
         <v>1.64</v>
       </c>
       <c r="AT102">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU102">
         <v>1.47</v>
@@ -20765,7 +20777,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU103">
         <v>1.39</v>
@@ -20866,7 +20878,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20956,7 +20968,7 @@
         <v>2.09</v>
       </c>
       <c r="AT104">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.78</v>
@@ -21144,7 +21156,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT105">
         <v>1.73</v>
@@ -21248,7 +21260,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21335,7 +21347,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT106">
         <v>0.45</v>
@@ -21439,7 +21451,7 @@
         <v>151</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21529,7 +21541,7 @@
         <v>1.64</v>
       </c>
       <c r="AT107">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU107">
         <v>1.6</v>
@@ -21630,7 +21642,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21717,7 +21729,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT108">
         <v>1.27</v>
@@ -21911,7 +21923,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU109">
         <v>1.52</v>
@@ -22394,7 +22406,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22484,7 +22496,7 @@
         <v>2.09</v>
       </c>
       <c r="AT112">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU112">
         <v>1.76</v>
@@ -22672,10 +22684,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT113">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU113">
         <v>2.29</v>
@@ -22863,10 +22875,10 @@
         <v>0.4</v>
       </c>
       <c r="AS114">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU114">
         <v>1.61</v>
@@ -23054,7 +23066,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT115">
         <v>1.09</v>
@@ -23158,7 +23170,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23248,7 +23260,7 @@
         <v>1.82</v>
       </c>
       <c r="AT116">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU116">
         <v>2.07</v>
@@ -23439,7 +23451,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU117">
         <v>1.48</v>
@@ -23630,7 +23642,7 @@
         <v>1.73</v>
       </c>
       <c r="AT118">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU118">
         <v>1.59</v>
@@ -24009,7 +24021,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT120">
         <v>0.55</v>
@@ -24113,7 +24125,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24200,10 +24212,10 @@
         <v>0.33</v>
       </c>
       <c r="AS121">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT121">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU121">
         <v>2.29</v>
@@ -24391,7 +24403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT122">
         <v>1.09</v>
@@ -24495,7 +24507,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24585,7 +24597,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU123">
         <v>2.11</v>
@@ -24776,7 +24788,7 @@
         <v>2.09</v>
       </c>
       <c r="AT124">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU124">
         <v>1.54</v>
@@ -24967,7 +24979,7 @@
         <v>1.73</v>
       </c>
       <c r="AT125">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU125">
         <v>1.56</v>
@@ -25158,7 +25170,7 @@
         <v>1.64</v>
       </c>
       <c r="AT126">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU126">
         <v>1.43</v>
@@ -25259,7 +25271,7 @@
         <v>162</v>
       </c>
       <c r="P127" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25346,7 +25358,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT127">
         <v>2.09</v>
@@ -25450,7 +25462,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25537,7 +25549,7 @@
         <v>0.86</v>
       </c>
       <c r="AS128">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT128">
         <v>0.55</v>
@@ -25641,7 +25653,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25919,7 +25931,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT130">
         <v>1.27</v>
@@ -26023,7 +26035,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26110,7 +26122,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT131">
         <v>0.64</v>
@@ -26301,10 +26313,10 @@
         <v>2.13</v>
       </c>
       <c r="AS132">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT132">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU132">
         <v>1.45</v>
@@ -26405,7 +26417,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26492,7 +26504,7 @@
         <v>1.13</v>
       </c>
       <c r="AS133">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT133">
         <v>1.09</v>
@@ -26686,7 +26698,7 @@
         <v>2.09</v>
       </c>
       <c r="AT134">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU134">
         <v>1.32</v>
@@ -26877,7 +26889,7 @@
         <v>1.64</v>
       </c>
       <c r="AT135">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU135">
         <v>1.61</v>
@@ -27068,7 +27080,7 @@
         <v>1</v>
       </c>
       <c r="AT136">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27259,7 +27271,7 @@
         <v>1.64</v>
       </c>
       <c r="AT137">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU137">
         <v>1.75</v>
@@ -27450,7 +27462,7 @@
         <v>2.09</v>
       </c>
       <c r="AT138">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU138">
         <v>1.47</v>
@@ -27641,7 +27653,7 @@
         <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU139">
         <v>1.56</v>
@@ -28020,7 +28032,7 @@
         <v>0.63</v>
       </c>
       <c r="AS141">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.45</v>
@@ -28124,7 +28136,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28214,7 +28226,7 @@
         <v>1.73</v>
       </c>
       <c r="AT142">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU142">
         <v>1.51</v>
@@ -28315,7 +28327,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28593,7 +28605,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT144">
         <v>2.09</v>
@@ -28784,7 +28796,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT145">
         <v>1.73</v>
@@ -28888,7 +28900,7 @@
         <v>175</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q146">
         <v>15</v>
@@ -28978,7 +28990,7 @@
         <v>1.64</v>
       </c>
       <c r="AT146">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU146">
         <v>1.76</v>
@@ -29169,7 +29181,7 @@
         <v>2.09</v>
       </c>
       <c r="AT147">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU147">
         <v>1.39</v>
@@ -29270,7 +29282,7 @@
         <v>177</v>
       </c>
       <c r="P148" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q148">
         <v>1</v>
@@ -29357,10 +29369,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT148">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU148">
         <v>1.41</v>
@@ -29548,10 +29560,10 @@
         <v>1.89</v>
       </c>
       <c r="AS149">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT149">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU149">
         <v>2.02</v>
@@ -29739,10 +29751,10 @@
         <v>0.89</v>
       </c>
       <c r="AS150">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT150">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU150">
         <v>1.49</v>
@@ -29843,7 +29855,7 @@
         <v>179</v>
       </c>
       <c r="P151" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -29930,10 +29942,10 @@
         <v>0.11</v>
       </c>
       <c r="AS151">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT151">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU151">
         <v>1.42</v>
@@ -30034,7 +30046,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30121,7 +30133,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT152">
         <v>1.09</v>
@@ -30225,7 +30237,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30506,7 +30518,7 @@
         <v>2.09</v>
       </c>
       <c r="AT154">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30694,7 +30706,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT155">
         <v>0.45</v>
@@ -30798,7 +30810,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -30989,7 +31001,7 @@
         <v>185</v>
       </c>
       <c r="P157" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31270,7 +31282,7 @@
         <v>1.64</v>
       </c>
       <c r="AT158">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU158">
         <v>1.62</v>
@@ -31562,7 +31574,7 @@
         <v>81</v>
       </c>
       <c r="P160" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31753,7 +31765,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31840,7 +31852,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT161">
         <v>1.27</v>
@@ -31944,7 +31956,7 @@
         <v>109</v>
       </c>
       <c r="P162" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q162">
         <v>11</v>
@@ -32031,10 +32043,10 @@
         <v>0.4</v>
       </c>
       <c r="AS162">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT162">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU162">
         <v>1.96</v>
@@ -32135,7 +32147,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32222,10 +32234,10 @@
         <v>1.6</v>
       </c>
       <c r="AS163">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT163">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AU163">
         <v>1.37</v>
@@ -32326,7 +32338,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q164">
         <v>10</v>
@@ -32413,10 +32425,10 @@
         <v>0.9</v>
       </c>
       <c r="AS164">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AT164">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU164">
         <v>2.13</v>
@@ -32604,10 +32616,10 @@
         <v>0.8</v>
       </c>
       <c r="AS165">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT165">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU165">
         <v>1.51</v>
@@ -32798,7 +32810,7 @@
         <v>1.64</v>
       </c>
       <c r="AT166">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU166">
         <v>1.81</v>
@@ -32986,7 +32998,7 @@
         <v>1.2</v>
       </c>
       <c r="AS167">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="AT167">
         <v>1.09</v>
@@ -33281,7 +33293,7 @@
         <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -34132,7 +34144,7 @@
         <v>0.7</v>
       </c>
       <c r="AS173">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT173">
         <v>0.64</v>
@@ -34326,7 +34338,7 @@
         <v>2.09</v>
       </c>
       <c r="AT174">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU174">
         <v>1.44</v>
@@ -34427,7 +34439,7 @@
         <v>81</v>
       </c>
       <c r="P175" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q175">
         <v>8</v>
@@ -34618,7 +34630,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34705,10 +34717,10 @@
         <v>0.5</v>
       </c>
       <c r="AS176">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT176">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AU176">
         <v>1.4</v>
@@ -34760,6 +34772,1534 @@
       </c>
       <c r="BK176">
         <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2449581</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44996.41666666666</v>
+      </c>
+      <c r="F177">
+        <v>23</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>195</v>
+      </c>
+      <c r="P177" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>5</v>
+      </c>
+      <c r="S177">
+        <v>5</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.91</v>
+      </c>
+      <c r="V177">
+        <v>4.33</v>
+      </c>
+      <c r="W177">
+        <v>1.6</v>
+      </c>
+      <c r="X177">
+        <v>2.2</v>
+      </c>
+      <c r="Y177">
+        <v>3.56</v>
+      </c>
+      <c r="Z177">
+        <v>1.25</v>
+      </c>
+      <c r="AA177">
+        <v>10</v>
+      </c>
+      <c r="AB177">
+        <v>1.02</v>
+      </c>
+      <c r="AC177">
+        <v>2.15</v>
+      </c>
+      <c r="AD177">
+        <v>2.8</v>
+      </c>
+      <c r="AE177">
+        <v>3.5</v>
+      </c>
+      <c r="AF177">
+        <v>1.1</v>
+      </c>
+      <c r="AG177">
+        <v>6.75</v>
+      </c>
+      <c r="AH177">
+        <v>1.5</v>
+      </c>
+      <c r="AI177">
+        <v>2.45</v>
+      </c>
+      <c r="AJ177">
+        <v>2.55</v>
+      </c>
+      <c r="AK177">
+        <v>1.35</v>
+      </c>
+      <c r="AL177">
+        <v>2.1</v>
+      </c>
+      <c r="AM177">
+        <v>1.66</v>
+      </c>
+      <c r="AN177">
+        <v>1.33</v>
+      </c>
+      <c r="AO177">
+        <v>1.33</v>
+      </c>
+      <c r="AP177">
+        <v>1.4</v>
+      </c>
+      <c r="AQ177">
+        <v>0.91</v>
+      </c>
+      <c r="AR177">
+        <v>0.73</v>
+      </c>
+      <c r="AS177">
+        <v>0.92</v>
+      </c>
+      <c r="AT177">
+        <v>0.75</v>
+      </c>
+      <c r="AU177">
+        <v>1.36</v>
+      </c>
+      <c r="AV177">
+        <v>1.23</v>
+      </c>
+      <c r="AW177">
+        <v>2.59</v>
+      </c>
+      <c r="AX177">
+        <v>0</v>
+      </c>
+      <c r="AY177">
+        <v>0</v>
+      </c>
+      <c r="AZ177">
+        <v>0</v>
+      </c>
+      <c r="BA177">
+        <v>0</v>
+      </c>
+      <c r="BB177">
+        <v>0</v>
+      </c>
+      <c r="BC177">
+        <v>0</v>
+      </c>
+      <c r="BD177">
+        <v>0</v>
+      </c>
+      <c r="BE177">
+        <v>0</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>6</v>
+      </c>
+      <c r="BH177">
+        <v>5</v>
+      </c>
+      <c r="BI177">
+        <v>7</v>
+      </c>
+      <c r="BJ177">
+        <v>8</v>
+      </c>
+      <c r="BK177">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2449580</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>67</v>
+      </c>
+      <c r="H178" t="s">
+        <v>68</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>196</v>
+      </c>
+      <c r="P178" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q178">
+        <v>6</v>
+      </c>
+      <c r="R178">
+        <v>4</v>
+      </c>
+      <c r="S178">
+        <v>10</v>
+      </c>
+      <c r="T178">
+        <v>1.95</v>
+      </c>
+      <c r="U178">
+        <v>2.25</v>
+      </c>
+      <c r="V178">
+        <v>7</v>
+      </c>
+      <c r="W178">
+        <v>1.38</v>
+      </c>
+      <c r="X178">
+        <v>2.8</v>
+      </c>
+      <c r="Y178">
+        <v>2.81</v>
+      </c>
+      <c r="Z178">
+        <v>1.38</v>
+      </c>
+      <c r="AA178">
+        <v>6.8</v>
+      </c>
+      <c r="AB178">
+        <v>1.07</v>
+      </c>
+      <c r="AC178">
+        <v>1.4</v>
+      </c>
+      <c r="AD178">
+        <v>4.33</v>
+      </c>
+      <c r="AE178">
+        <v>6</v>
+      </c>
+      <c r="AF178">
+        <v>1.05</v>
+      </c>
+      <c r="AG178">
+        <v>11.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.28</v>
+      </c>
+      <c r="AI178">
+        <v>3.25</v>
+      </c>
+      <c r="AJ178">
+        <v>1.95</v>
+      </c>
+      <c r="AK178">
+        <v>1.85</v>
+      </c>
+      <c r="AL178">
+        <v>2.15</v>
+      </c>
+      <c r="AM178">
+        <v>1.62</v>
+      </c>
+      <c r="AN178">
+        <v>1.11</v>
+      </c>
+      <c r="AO178">
+        <v>1.19</v>
+      </c>
+      <c r="AP178">
+        <v>2.65</v>
+      </c>
+      <c r="AQ178">
+        <v>2.45</v>
+      </c>
+      <c r="AR178">
+        <v>0.55</v>
+      </c>
+      <c r="AS178">
+        <v>2.5</v>
+      </c>
+      <c r="AT178">
+        <v>0.5</v>
+      </c>
+      <c r="AU178">
+        <v>1.94</v>
+      </c>
+      <c r="AV178">
+        <v>1.48</v>
+      </c>
+      <c r="AW178">
+        <v>3.42</v>
+      </c>
+      <c r="AX178">
+        <v>0</v>
+      </c>
+      <c r="AY178">
+        <v>0</v>
+      </c>
+      <c r="AZ178">
+        <v>0</v>
+      </c>
+      <c r="BA178">
+        <v>0</v>
+      </c>
+      <c r="BB178">
+        <v>0</v>
+      </c>
+      <c r="BC178">
+        <v>0</v>
+      </c>
+      <c r="BD178">
+        <v>0</v>
+      </c>
+      <c r="BE178">
+        <v>0</v>
+      </c>
+      <c r="BF178">
+        <v>3</v>
+      </c>
+      <c r="BG178">
+        <v>3</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>6</v>
+      </c>
+      <c r="BJ178">
+        <v>8</v>
+      </c>
+      <c r="BK178">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2449577</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>79</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179" t="s">
+        <v>81</v>
+      </c>
+      <c r="P179" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q179">
+        <v>-1</v>
+      </c>
+      <c r="R179">
+        <v>-1</v>
+      </c>
+      <c r="S179">
+        <v>-1</v>
+      </c>
+      <c r="T179">
+        <v>1.95</v>
+      </c>
+      <c r="U179">
+        <v>2.25</v>
+      </c>
+      <c r="V179">
+        <v>6</v>
+      </c>
+      <c r="W179">
+        <v>1.38</v>
+      </c>
+      <c r="X179">
+        <v>2.71</v>
+      </c>
+      <c r="Y179">
+        <v>2.83</v>
+      </c>
+      <c r="Z179">
+        <v>1.35</v>
+      </c>
+      <c r="AA179">
+        <v>7</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>1.44</v>
+      </c>
+      <c r="AD179">
+        <v>4.2</v>
+      </c>
+      <c r="AE179">
+        <v>5.75</v>
+      </c>
+      <c r="AF179">
+        <v>1.03</v>
+      </c>
+      <c r="AG179">
+        <v>10.25</v>
+      </c>
+      <c r="AH179">
+        <v>1.34</v>
+      </c>
+      <c r="AI179">
+        <v>3.02</v>
+      </c>
+      <c r="AJ179">
+        <v>1.85</v>
+      </c>
+      <c r="AK179">
+        <v>1.95</v>
+      </c>
+      <c r="AL179">
+        <v>2.15</v>
+      </c>
+      <c r="AM179">
+        <v>1.65</v>
+      </c>
+      <c r="AN179">
+        <v>1.07</v>
+      </c>
+      <c r="AO179">
+        <v>1.2</v>
+      </c>
+      <c r="AP179">
+        <v>2.6</v>
+      </c>
+      <c r="AQ179">
+        <v>2.09</v>
+      </c>
+      <c r="AR179">
+        <v>0.82</v>
+      </c>
+      <c r="AS179">
+        <v>2</v>
+      </c>
+      <c r="AT179">
+        <v>0.83</v>
+      </c>
+      <c r="AU179">
+        <v>1.53</v>
+      </c>
+      <c r="AV179">
+        <v>1.34</v>
+      </c>
+      <c r="AW179">
+        <v>2.87</v>
+      </c>
+      <c r="AX179">
+        <v>0</v>
+      </c>
+      <c r="AY179">
+        <v>0</v>
+      </c>
+      <c r="AZ179">
+        <v>0</v>
+      </c>
+      <c r="BA179">
+        <v>0</v>
+      </c>
+      <c r="BB179">
+        <v>0</v>
+      </c>
+      <c r="BC179">
+        <v>0</v>
+      </c>
+      <c r="BD179">
+        <v>0</v>
+      </c>
+      <c r="BE179">
+        <v>0</v>
+      </c>
+      <c r="BF179">
+        <v>3</v>
+      </c>
+      <c r="BG179">
+        <v>4</v>
+      </c>
+      <c r="BH179">
+        <v>2</v>
+      </c>
+      <c r="BI179">
+        <v>6</v>
+      </c>
+      <c r="BJ179">
+        <v>5</v>
+      </c>
+      <c r="BK179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2449582</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>69</v>
+      </c>
+      <c r="H180" t="s">
+        <v>70</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>81</v>
+      </c>
+      <c r="P180" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q180">
+        <v>-1</v>
+      </c>
+      <c r="R180">
+        <v>-1</v>
+      </c>
+      <c r="S180">
+        <v>-1</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>1.95</v>
+      </c>
+      <c r="V180">
+        <v>5</v>
+      </c>
+      <c r="W180">
+        <v>1.55</v>
+      </c>
+      <c r="X180">
+        <v>2.29</v>
+      </c>
+      <c r="Y180">
+        <v>3.5</v>
+      </c>
+      <c r="Z180">
+        <v>1.24</v>
+      </c>
+      <c r="AA180">
+        <v>8.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.04</v>
+      </c>
+      <c r="AC180">
+        <v>1.65</v>
+      </c>
+      <c r="AD180">
+        <v>3.3</v>
+      </c>
+      <c r="AE180">
+        <v>4.75</v>
+      </c>
+      <c r="AF180">
+        <v>1.1</v>
+      </c>
+      <c r="AG180">
+        <v>6.75</v>
+      </c>
+      <c r="AH180">
+        <v>1.53</v>
+      </c>
+      <c r="AI180">
+        <v>2.35</v>
+      </c>
+      <c r="AJ180">
+        <v>2.4</v>
+      </c>
+      <c r="AK180">
+        <v>1.53</v>
+      </c>
+      <c r="AL180">
+        <v>2.2</v>
+      </c>
+      <c r="AM180">
+        <v>1.62</v>
+      </c>
+      <c r="AN180">
+        <v>1.3</v>
+      </c>
+      <c r="AO180">
+        <v>1.37</v>
+      </c>
+      <c r="AP180">
+        <v>1.5</v>
+      </c>
+      <c r="AQ180">
+        <v>0.82</v>
+      </c>
+      <c r="AR180">
+        <v>0.55</v>
+      </c>
+      <c r="AS180">
+        <v>0.83</v>
+      </c>
+      <c r="AT180">
+        <v>0.58</v>
+      </c>
+      <c r="AU180">
+        <v>1.35</v>
+      </c>
+      <c r="AV180">
+        <v>1.43</v>
+      </c>
+      <c r="AW180">
+        <v>2.78</v>
+      </c>
+      <c r="AX180">
+        <v>0</v>
+      </c>
+      <c r="AY180">
+        <v>0</v>
+      </c>
+      <c r="AZ180">
+        <v>0</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>0</v>
+      </c>
+      <c r="BC180">
+        <v>0</v>
+      </c>
+      <c r="BD180">
+        <v>0</v>
+      </c>
+      <c r="BE180">
+        <v>0</v>
+      </c>
+      <c r="BF180">
+        <v>-1</v>
+      </c>
+      <c r="BG180">
+        <v>-1</v>
+      </c>
+      <c r="BH180">
+        <v>-1</v>
+      </c>
+      <c r="BI180">
+        <v>-1</v>
+      </c>
+      <c r="BJ180">
+        <v>-1</v>
+      </c>
+      <c r="BK180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2665877</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>76</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>197</v>
+      </c>
+      <c r="P181" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>6</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>2.75</v>
+      </c>
+      <c r="U181">
+        <v>1.91</v>
+      </c>
+      <c r="V181">
+        <v>4.33</v>
+      </c>
+      <c r="W181">
+        <v>1.56</v>
+      </c>
+      <c r="X181">
+        <v>2.2</v>
+      </c>
+      <c r="Y181">
+        <v>3.6</v>
+      </c>
+      <c r="Z181">
+        <v>1.23</v>
+      </c>
+      <c r="AA181">
+        <v>8.4</v>
+      </c>
+      <c r="AB181">
+        <v>1.04</v>
+      </c>
+      <c r="AC181">
+        <v>2</v>
+      </c>
+      <c r="AD181">
+        <v>2.8</v>
+      </c>
+      <c r="AE181">
+        <v>3.8</v>
+      </c>
+      <c r="AF181">
+        <v>1.08</v>
+      </c>
+      <c r="AG181">
+        <v>6.3</v>
+      </c>
+      <c r="AH181">
+        <v>1.51</v>
+      </c>
+      <c r="AI181">
+        <v>2.4</v>
+      </c>
+      <c r="AJ181">
+        <v>2.6</v>
+      </c>
+      <c r="AK181">
+        <v>1.48</v>
+      </c>
+      <c r="AL181">
+        <v>2.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.58</v>
+      </c>
+      <c r="AN181">
+        <v>1.17</v>
+      </c>
+      <c r="AO181">
+        <v>1.35</v>
+      </c>
+      <c r="AP181">
+        <v>1.82</v>
+      </c>
+      <c r="AQ181">
+        <v>1.64</v>
+      </c>
+      <c r="AR181">
+        <v>0.82</v>
+      </c>
+      <c r="AS181">
+        <v>1.75</v>
+      </c>
+      <c r="AT181">
+        <v>0.75</v>
+      </c>
+      <c r="AU181">
+        <v>1.57</v>
+      </c>
+      <c r="AV181">
+        <v>1.3</v>
+      </c>
+      <c r="AW181">
+        <v>2.87</v>
+      </c>
+      <c r="AX181">
+        <v>0</v>
+      </c>
+      <c r="AY181">
+        <v>0</v>
+      </c>
+      <c r="AZ181">
+        <v>0</v>
+      </c>
+      <c r="BA181">
+        <v>0</v>
+      </c>
+      <c r="BB181">
+        <v>0</v>
+      </c>
+      <c r="BC181">
+        <v>0</v>
+      </c>
+      <c r="BD181">
+        <v>0</v>
+      </c>
+      <c r="BE181">
+        <v>0</v>
+      </c>
+      <c r="BF181">
+        <v>8</v>
+      </c>
+      <c r="BG181">
+        <v>5</v>
+      </c>
+      <c r="BH181">
+        <v>7</v>
+      </c>
+      <c r="BI181">
+        <v>9</v>
+      </c>
+      <c r="BJ181">
+        <v>15</v>
+      </c>
+      <c r="BK181">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2449579</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>71</v>
+      </c>
+      <c r="H182" t="s">
+        <v>65</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>198</v>
+      </c>
+      <c r="P182" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q182">
+        <v>11</v>
+      </c>
+      <c r="R182">
+        <v>7</v>
+      </c>
+      <c r="S182">
+        <v>18</v>
+      </c>
+      <c r="T182">
+        <v>2.4</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
+        <v>5.5</v>
+      </c>
+      <c r="W182">
+        <v>1.53</v>
+      </c>
+      <c r="X182">
+        <v>2.33</v>
+      </c>
+      <c r="Y182">
+        <v>3.24</v>
+      </c>
+      <c r="Z182">
+        <v>1.28</v>
+      </c>
+      <c r="AA182">
+        <v>7.8</v>
+      </c>
+      <c r="AB182">
+        <v>1.05</v>
+      </c>
+      <c r="AC182">
+        <v>1.73</v>
+      </c>
+      <c r="AD182">
+        <v>3.6</v>
+      </c>
+      <c r="AE182">
+        <v>4.33</v>
+      </c>
+      <c r="AF182">
+        <v>1.11</v>
+      </c>
+      <c r="AG182">
+        <v>6.45</v>
+      </c>
+      <c r="AH182">
+        <v>1.4</v>
+      </c>
+      <c r="AI182">
+        <v>2.59</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>2.4</v>
+      </c>
+      <c r="AM182">
+        <v>1.52</v>
+      </c>
+      <c r="AN182">
+        <v>1.15</v>
+      </c>
+      <c r="AO182">
+        <v>1.25</v>
+      </c>
+      <c r="AP182">
+        <v>1.95</v>
+      </c>
+      <c r="AQ182">
+        <v>2.45</v>
+      </c>
+      <c r="AR182">
+        <v>1.73</v>
+      </c>
+      <c r="AS182">
+        <v>2.5</v>
+      </c>
+      <c r="AT182">
+        <v>1.58</v>
+      </c>
+      <c r="AU182">
+        <v>2.26</v>
+      </c>
+      <c r="AV182">
+        <v>1.4</v>
+      </c>
+      <c r="AW182">
+        <v>3.66</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>7</v>
+      </c>
+      <c r="BG182">
+        <v>4</v>
+      </c>
+      <c r="BH182">
+        <v>13</v>
+      </c>
+      <c r="BI182">
+        <v>6</v>
+      </c>
+      <c r="BJ182">
+        <v>20</v>
+      </c>
+      <c r="BK182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2449578</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>80</v>
+      </c>
+      <c r="H183" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>199</v>
+      </c>
+      <c r="P183" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q183">
+        <v>6</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+      <c r="S183">
+        <v>9</v>
+      </c>
+      <c r="T183">
+        <v>4</v>
+      </c>
+      <c r="U183">
+        <v>1.95</v>
+      </c>
+      <c r="V183">
+        <v>3</v>
+      </c>
+      <c r="W183">
+        <v>1.57</v>
+      </c>
+      <c r="X183">
+        <v>2.26</v>
+      </c>
+      <c r="Y183">
+        <v>3.42</v>
+      </c>
+      <c r="Z183">
+        <v>1.27</v>
+      </c>
+      <c r="AA183">
+        <v>9.5</v>
+      </c>
+      <c r="AB183">
+        <v>1.02</v>
+      </c>
+      <c r="AC183">
+        <v>3.75</v>
+      </c>
+      <c r="AD183">
+        <v>2.9</v>
+      </c>
+      <c r="AE183">
+        <v>2.05</v>
+      </c>
+      <c r="AF183">
+        <v>1.07</v>
+      </c>
+      <c r="AG183">
+        <v>6.9</v>
+      </c>
+      <c r="AH183">
+        <v>1.44</v>
+      </c>
+      <c r="AI183">
+        <v>2.51</v>
+      </c>
+      <c r="AJ183">
+        <v>2.48</v>
+      </c>
+      <c r="AK183">
+        <v>1.48</v>
+      </c>
+      <c r="AL183">
+        <v>2.1</v>
+      </c>
+      <c r="AM183">
+        <v>1.65</v>
+      </c>
+      <c r="AN183">
+        <v>1.52</v>
+      </c>
+      <c r="AO183">
+        <v>1.38</v>
+      </c>
+      <c r="AP183">
+        <v>1.32</v>
+      </c>
+      <c r="AQ183">
+        <v>1</v>
+      </c>
+      <c r="AR183">
+        <v>0.45</v>
+      </c>
+      <c r="AS183">
+        <v>1</v>
+      </c>
+      <c r="AT183">
+        <v>0.5</v>
+      </c>
+      <c r="AU183">
+        <v>1.2</v>
+      </c>
+      <c r="AV183">
+        <v>1.14</v>
+      </c>
+      <c r="AW183">
+        <v>2.34</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>3</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>6</v>
+      </c>
+      <c r="BI183">
+        <v>8</v>
+      </c>
+      <c r="BJ183">
+        <v>9</v>
+      </c>
+      <c r="BK183">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2449576</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>74</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>2</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>3</v>
+      </c>
+      <c r="O184" t="s">
+        <v>200</v>
+      </c>
+      <c r="P184" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q184">
+        <v>7</v>
+      </c>
+      <c r="R184">
+        <v>3</v>
+      </c>
+      <c r="S184">
+        <v>10</v>
+      </c>
+      <c r="T184">
+        <v>3.25</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
+        <v>3.25</v>
+      </c>
+      <c r="W184">
+        <v>1.39</v>
+      </c>
+      <c r="X184">
+        <v>2.69</v>
+      </c>
+      <c r="Y184">
+        <v>2.83</v>
+      </c>
+      <c r="Z184">
+        <v>1.35</v>
+      </c>
+      <c r="AA184">
+        <v>6.5</v>
+      </c>
+      <c r="AB184">
+        <v>1.06</v>
+      </c>
+      <c r="AC184">
+        <v>2.63</v>
+      </c>
+      <c r="AD184">
+        <v>3</v>
+      </c>
+      <c r="AE184">
+        <v>2.6</v>
+      </c>
+      <c r="AF184">
+        <v>1.04</v>
+      </c>
+      <c r="AG184">
+        <v>10.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.29</v>
+      </c>
+      <c r="AI184">
+        <v>3.22</v>
+      </c>
+      <c r="AJ184">
+        <v>2.2</v>
+      </c>
+      <c r="AK184">
+        <v>1.65</v>
+      </c>
+      <c r="AL184">
+        <v>1.82</v>
+      </c>
+      <c r="AM184">
+        <v>1.9</v>
+      </c>
+      <c r="AN184">
+        <v>1.6</v>
+      </c>
+      <c r="AO184">
+        <v>1.32</v>
+      </c>
+      <c r="AP184">
+        <v>1.35</v>
+      </c>
+      <c r="AQ184">
+        <v>1.73</v>
+      </c>
+      <c r="AR184">
+        <v>1.7</v>
+      </c>
+      <c r="AS184">
+        <v>1.83</v>
+      </c>
+      <c r="AT184">
+        <v>1.55</v>
+      </c>
+      <c r="AU184">
+        <v>1.46</v>
+      </c>
+      <c r="AV184">
+        <v>1.89</v>
+      </c>
+      <c r="AW184">
+        <v>3.35</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>5</v>
+      </c>
+      <c r="BH184">
+        <v>14</v>
+      </c>
+      <c r="BI184">
+        <v>5</v>
+      </c>
+      <c r="BJ184">
+        <v>20</v>
+      </c>
+      <c r="BK184">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -580,10 +580,10 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['7', '20']</t>
+    <t>['43', '60', '76', '80', '87', '90+4']</t>
   </si>
   <si>
-    <t>['43', '60', '76', '80', '87', '90+4']</t>
+    <t>['7', '20']</t>
   </si>
   <si>
     <t>['26', '76']</t>
@@ -607,13 +607,13 @@
     <t>['32', '33']</t>
   </si>
   <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['39', '89']</t>
   </si>
   <si>
     <t>['50']</t>
-  </si>
-  <si>
-    <t>['70']</t>
   </si>
   <si>
     <t>['39', '47']</t>
@@ -778,10 +778,10 @@
     <t>['29', '32', '71']</t>
   </si>
   <si>
-    <t>['13', '33', '86']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['13', '33', '86']</t>
   </si>
   <si>
     <t>['67', '80']</t>
@@ -4643,7 +4643,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -17822,7 +17822,7 @@
         <v>138</v>
       </c>
       <c r="P88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -21260,7 +21260,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -31914,7 +31914,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2449565</v>
+        <v>2449564</v>
       </c>
       <c r="C162" t="s">
         <v>63</v>
@@ -31929,10 +31929,10 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H162" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -31944,91 +31944,91 @@
         <v>1</v>
       </c>
       <c r="L162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M162">
         <v>1</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O162" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="Q162">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T162">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="U162">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="V162">
         <v>7.5</v>
       </c>
       <c r="W162">
+        <v>1.45</v>
+      </c>
+      <c r="X162">
+        <v>2.3</v>
+      </c>
+      <c r="Y162">
+        <v>3.09</v>
+      </c>
+      <c r="Z162">
+        <v>1.16</v>
+      </c>
+      <c r="AA162">
+        <v>7.8</v>
+      </c>
+      <c r="AB162">
+        <v>1.05</v>
+      </c>
+      <c r="AC162">
+        <v>1.5</v>
+      </c>
+      <c r="AD162">
+        <v>3.4</v>
+      </c>
+      <c r="AE162">
+        <v>7.5</v>
+      </c>
+      <c r="AF162">
+        <v>1.06</v>
+      </c>
+      <c r="AG162">
+        <v>9.6</v>
+      </c>
+      <c r="AH162">
         <v>1.36</v>
       </c>
-      <c r="X162">
-        <v>2.47</v>
-      </c>
-      <c r="Y162">
-        <v>2.59</v>
-      </c>
-      <c r="Z162">
-        <v>1.31</v>
-      </c>
-      <c r="AA162">
-        <v>5.8</v>
-      </c>
-      <c r="AB162">
-        <v>1.1</v>
-      </c>
-      <c r="AC162">
-        <v>1.33</v>
-      </c>
-      <c r="AD162">
-        <v>4.5</v>
-      </c>
-      <c r="AE162">
-        <v>8</v>
-      </c>
-      <c r="AF162">
-        <v>1.05</v>
-      </c>
-      <c r="AG162">
-        <v>14.5</v>
-      </c>
-      <c r="AH162">
-        <v>1.22</v>
-      </c>
       <c r="AI162">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="AJ162">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AK162">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AL162">
-        <v>2.33</v>
+        <v>2.85</v>
       </c>
       <c r="AM162">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="AN162">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AO162">
         <v>1.16</v>
@@ -32037,25 +32037,25 @@
         <v>3.4</v>
       </c>
       <c r="AQ162">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AR162">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="AS162">
         <v>2.5</v>
       </c>
       <c r="AT162">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AU162">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="AV162">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AW162">
-        <v>3.11</v>
+        <v>3.44</v>
       </c>
       <c r="AX162">
         <v>0</v>
@@ -32082,22 +32082,22 @@
         <v>0</v>
       </c>
       <c r="BF162">
+        <v>17</v>
+      </c>
+      <c r="BG162">
+        <v>8</v>
+      </c>
+      <c r="BH162">
+        <v>9</v>
+      </c>
+      <c r="BI162">
         <v>5</v>
       </c>
-      <c r="BG162">
-        <v>4</v>
-      </c>
-      <c r="BH162">
-        <v>7</v>
-      </c>
-      <c r="BI162">
-        <v>2</v>
-      </c>
       <c r="BJ162">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="BK162">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:63">
@@ -32144,10 +32144,10 @@
         <v>5</v>
       </c>
       <c r="O163" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32296,7 +32296,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2449564</v>
+        <v>2449565</v>
       </c>
       <c r="C164" t="s">
         <v>63</v>
@@ -32311,10 +32311,10 @@
         <v>21</v>
       </c>
       <c r="G164" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H164" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -32326,91 +32326,91 @@
         <v>1</v>
       </c>
       <c r="L164">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M164">
         <v>1</v>
       </c>
       <c r="N164">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O164" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="P164" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="Q164">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S164">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T164">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V164">
         <v>7.5</v>
       </c>
       <c r="W164">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="X164">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="Y164">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="Z164">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AA164">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>1.33</v>
+      </c>
+      <c r="AD164">
+        <v>4.5</v>
+      </c>
+      <c r="AE164">
+        <v>8</v>
+      </c>
+      <c r="AF164">
         <v>1.05</v>
       </c>
-      <c r="AC164">
-        <v>1.5</v>
-      </c>
-      <c r="AD164">
-        <v>3.4</v>
-      </c>
-      <c r="AE164">
-        <v>7.5</v>
-      </c>
-      <c r="AF164">
-        <v>1.06</v>
-      </c>
       <c r="AG164">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AH164">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AI164">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AJ164">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AK164">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AL164">
-        <v>2.85</v>
+        <v>2.33</v>
       </c>
       <c r="AM164">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="AN164">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AO164">
         <v>1.16</v>
@@ -32419,25 +32419,25 @@
         <v>3.4</v>
       </c>
       <c r="AQ164">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AR164">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AS164">
         <v>2.5</v>
       </c>
       <c r="AT164">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AU164">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="AV164">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AW164">
-        <v>3.44</v>
+        <v>3.11</v>
       </c>
       <c r="AX164">
         <v>0</v>
@@ -32464,22 +32464,22 @@
         <v>0</v>
       </c>
       <c r="BF164">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BG164">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BH164">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI164">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ164">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="BK164">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:63">
@@ -33251,7 +33251,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2449573</v>
+        <v>2449571</v>
       </c>
       <c r="C169" t="s">
         <v>63</v>
@@ -33266,10 +33266,10 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H169" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -33284,157 +33284,157 @@
         <v>1</v>
       </c>
       <c r="M169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N169">
+        <v>1</v>
+      </c>
+      <c r="O169" t="s">
+        <v>192</v>
+      </c>
+      <c r="P169" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q169">
         <v>3</v>
       </c>
-      <c r="O169" t="s">
-        <v>86</v>
-      </c>
-      <c r="P169" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q169">
+      <c r="R169">
+        <v>3</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>3</v>
+      </c>
+      <c r="U169">
+        <v>1.91</v>
+      </c>
+      <c r="V169">
+        <v>4</v>
+      </c>
+      <c r="W169">
+        <v>1.5</v>
+      </c>
+      <c r="X169">
+        <v>2.4</v>
+      </c>
+      <c r="Y169">
+        <v>3.4</v>
+      </c>
+      <c r="Z169">
+        <v>1.27</v>
+      </c>
+      <c r="AA169">
+        <v>8</v>
+      </c>
+      <c r="AB169">
+        <v>1.04</v>
+      </c>
+      <c r="AC169">
+        <v>2.02</v>
+      </c>
+      <c r="AD169">
+        <v>3</v>
+      </c>
+      <c r="AE169">
+        <v>3.7</v>
+      </c>
+      <c r="AF169">
+        <v>1.09</v>
+      </c>
+      <c r="AG169">
+        <v>7.85</v>
+      </c>
+      <c r="AH169">
+        <v>1.41</v>
+      </c>
+      <c r="AI169">
+        <v>2.68</v>
+      </c>
+      <c r="AJ169">
+        <v>2.18</v>
+      </c>
+      <c r="AK169">
+        <v>1.48</v>
+      </c>
+      <c r="AL169">
+        <v>2.1</v>
+      </c>
+      <c r="AM169">
+        <v>1.68</v>
+      </c>
+      <c r="AN169">
+        <v>1.27</v>
+      </c>
+      <c r="AO169">
+        <v>1.36</v>
+      </c>
+      <c r="AP169">
+        <v>1.57</v>
+      </c>
+      <c r="AQ169">
+        <v>1.5</v>
+      </c>
+      <c r="AR169">
+        <v>0.6</v>
+      </c>
+      <c r="AS169">
+        <v>1.64</v>
+      </c>
+      <c r="AT169">
+        <v>0.55</v>
+      </c>
+      <c r="AU169">
+        <v>1.6</v>
+      </c>
+      <c r="AV169">
+        <v>1.32</v>
+      </c>
+      <c r="AW169">
+        <v>2.92</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
         <v>5</v>
       </c>
-      <c r="R169">
-        <v>14</v>
-      </c>
-      <c r="S169">
-        <v>19</v>
-      </c>
-      <c r="T169">
-        <v>6.5</v>
-      </c>
-      <c r="U169">
-        <v>1.95</v>
-      </c>
-      <c r="V169">
-        <v>2.25</v>
-      </c>
-      <c r="W169">
-        <v>1.52</v>
-      </c>
-      <c r="X169">
-        <v>2.19</v>
-      </c>
-      <c r="Y169">
-        <v>3.05</v>
-      </c>
-      <c r="Z169">
-        <v>1.31</v>
-      </c>
-      <c r="AA169">
-        <v>7.25</v>
-      </c>
-      <c r="AB169">
-        <v>1.06</v>
-      </c>
-      <c r="AC169">
-        <v>5.2</v>
-      </c>
-      <c r="AD169">
-        <v>3.15</v>
-      </c>
-      <c r="AE169">
-        <v>1.7</v>
-      </c>
-      <c r="AF169">
-        <v>1.06</v>
-      </c>
-      <c r="AG169">
-        <v>9.5</v>
-      </c>
-      <c r="AH169">
-        <v>1.36</v>
-      </c>
-      <c r="AI169">
-        <v>2.89</v>
-      </c>
-      <c r="AJ169">
-        <v>2.16</v>
-      </c>
-      <c r="AK169">
-        <v>1.49</v>
-      </c>
-      <c r="AL169">
-        <v>2.5</v>
-      </c>
-      <c r="AM169">
-        <v>1.48</v>
-      </c>
-      <c r="AN169">
-        <v>2.78</v>
-      </c>
-      <c r="AO169">
-        <v>1.22</v>
-      </c>
-      <c r="AP169">
-        <v>1.02</v>
-      </c>
-      <c r="AQ169">
-        <v>1.9</v>
-      </c>
-      <c r="AR169">
-        <v>1.6</v>
-      </c>
-      <c r="AS169">
-        <v>1.73</v>
-      </c>
-      <c r="AT169">
-        <v>1.73</v>
-      </c>
-      <c r="AU169">
-        <v>1.45</v>
-      </c>
-      <c r="AV169">
-        <v>1.4</v>
-      </c>
-      <c r="AW169">
-        <v>2.85</v>
-      </c>
-      <c r="AX169">
-        <v>0</v>
-      </c>
-      <c r="AY169">
-        <v>0</v>
-      </c>
-      <c r="AZ169">
-        <v>0</v>
-      </c>
-      <c r="BA169">
-        <v>0</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
-      <c r="BC169">
-        <v>0</v>
-      </c>
-      <c r="BD169">
-        <v>0</v>
-      </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
-      <c r="BF169">
+      <c r="BG169">
+        <v>4</v>
+      </c>
+      <c r="BH169">
         <v>6</v>
       </c>
-      <c r="BG169">
+      <c r="BI169">
+        <v>4</v>
+      </c>
+      <c r="BJ169">
+        <v>11</v>
+      </c>
+      <c r="BK169">
         <v>8</v>
-      </c>
-      <c r="BH169">
-        <v>4</v>
-      </c>
-      <c r="BI169">
-        <v>10</v>
-      </c>
-      <c r="BJ169">
-        <v>10</v>
-      </c>
-      <c r="BK169">
-        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:63">
@@ -33442,7 +33442,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2449572</v>
+        <v>2449570</v>
       </c>
       <c r="C170" t="s">
         <v>63</v>
@@ -33457,133 +33457,133 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H170" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O170" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="Q170">
+        <v>7</v>
+      </c>
+      <c r="R170">
+        <v>1</v>
+      </c>
+      <c r="S170">
+        <v>8</v>
+      </c>
+      <c r="T170">
+        <v>2.3</v>
+      </c>
+      <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>6</v>
       </c>
-      <c r="R170">
-        <v>3</v>
-      </c>
-      <c r="S170">
-        <v>9</v>
-      </c>
-      <c r="T170">
-        <v>4</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>2.88</v>
-      </c>
       <c r="W170">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X170">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Y170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Z170">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AA170">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AB170">
         <v>1.04</v>
       </c>
       <c r="AC170">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="AD170">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AE170">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="AF170">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG170">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="AH170">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AI170">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AJ170">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="AK170">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AL170">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="AM170">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AN170">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AO170">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP170">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="AQ170">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR170">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AS170">
+        <v>2.09</v>
+      </c>
+      <c r="AT170">
+        <v>1.09</v>
+      </c>
+      <c r="AU170">
         <v>1.36</v>
       </c>
-      <c r="AT170">
-        <v>2.09</v>
-      </c>
-      <c r="AU170">
-        <v>1.57</v>
-      </c>
       <c r="AV170">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="AW170">
-        <v>3.2</v>
+        <v>2.37</v>
       </c>
       <c r="AX170">
         <v>0</v>
@@ -33610,22 +33610,22 @@
         <v>0</v>
       </c>
       <c r="BF170">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH170">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI170">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ170">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK170">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -33633,7 +33633,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2449571</v>
+        <v>2449573</v>
       </c>
       <c r="C171" t="s">
         <v>63</v>
@@ -33648,10 +33648,10 @@
         <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -33666,157 +33666,157 @@
         <v>1</v>
       </c>
       <c r="M171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O171" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>81</v>
+        <v>256</v>
       </c>
       <c r="Q171">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R171">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S171">
+        <v>19</v>
+      </c>
+      <c r="T171">
+        <v>6.5</v>
+      </c>
+      <c r="U171">
+        <v>1.95</v>
+      </c>
+      <c r="V171">
+        <v>2.25</v>
+      </c>
+      <c r="W171">
+        <v>1.52</v>
+      </c>
+      <c r="X171">
+        <v>2.19</v>
+      </c>
+      <c r="Y171">
+        <v>3.05</v>
+      </c>
+      <c r="Z171">
+        <v>1.31</v>
+      </c>
+      <c r="AA171">
+        <v>7.25</v>
+      </c>
+      <c r="AB171">
+        <v>1.06</v>
+      </c>
+      <c r="AC171">
+        <v>5.2</v>
+      </c>
+      <c r="AD171">
+        <v>3.15</v>
+      </c>
+      <c r="AE171">
+        <v>1.7</v>
+      </c>
+      <c r="AF171">
+        <v>1.06</v>
+      </c>
+      <c r="AG171">
+        <v>9.5</v>
+      </c>
+      <c r="AH171">
+        <v>1.36</v>
+      </c>
+      <c r="AI171">
+        <v>2.89</v>
+      </c>
+      <c r="AJ171">
+        <v>2.16</v>
+      </c>
+      <c r="AK171">
+        <v>1.49</v>
+      </c>
+      <c r="AL171">
+        <v>2.5</v>
+      </c>
+      <c r="AM171">
+        <v>1.48</v>
+      </c>
+      <c r="AN171">
+        <v>2.78</v>
+      </c>
+      <c r="AO171">
+        <v>1.22</v>
+      </c>
+      <c r="AP171">
+        <v>1.02</v>
+      </c>
+      <c r="AQ171">
+        <v>1.9</v>
+      </c>
+      <c r="AR171">
+        <v>1.6</v>
+      </c>
+      <c r="AS171">
+        <v>1.73</v>
+      </c>
+      <c r="AT171">
+        <v>1.73</v>
+      </c>
+      <c r="AU171">
+        <v>1.45</v>
+      </c>
+      <c r="AV171">
+        <v>1.4</v>
+      </c>
+      <c r="AW171">
+        <v>2.85</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
         <v>6</v>
       </c>
-      <c r="T171">
-        <v>3</v>
-      </c>
-      <c r="U171">
-        <v>1.91</v>
-      </c>
-      <c r="V171">
+      <c r="BG171">
+        <v>8</v>
+      </c>
+      <c r="BH171">
         <v>4</v>
       </c>
-      <c r="W171">
-        <v>1.5</v>
-      </c>
-      <c r="X171">
-        <v>2.4</v>
-      </c>
-      <c r="Y171">
-        <v>3.4</v>
-      </c>
-      <c r="Z171">
-        <v>1.27</v>
-      </c>
-      <c r="AA171">
-        <v>8</v>
-      </c>
-      <c r="AB171">
-        <v>1.04</v>
-      </c>
-      <c r="AC171">
-        <v>2.02</v>
-      </c>
-      <c r="AD171">
-        <v>3</v>
-      </c>
-      <c r="AE171">
-        <v>3.7</v>
-      </c>
-      <c r="AF171">
-        <v>1.09</v>
-      </c>
-      <c r="AG171">
-        <v>7.85</v>
-      </c>
-      <c r="AH171">
-        <v>1.41</v>
-      </c>
-      <c r="AI171">
-        <v>2.68</v>
-      </c>
-      <c r="AJ171">
-        <v>2.18</v>
-      </c>
-      <c r="AK171">
-        <v>1.48</v>
-      </c>
-      <c r="AL171">
-        <v>2.1</v>
-      </c>
-      <c r="AM171">
-        <v>1.68</v>
-      </c>
-      <c r="AN171">
-        <v>1.27</v>
-      </c>
-      <c r="AO171">
-        <v>1.36</v>
-      </c>
-      <c r="AP171">
-        <v>1.57</v>
-      </c>
-      <c r="AQ171">
-        <v>1.5</v>
-      </c>
-      <c r="AR171">
-        <v>0.6</v>
-      </c>
-      <c r="AS171">
-        <v>1.64</v>
-      </c>
-      <c r="AT171">
-        <v>0.55</v>
-      </c>
-      <c r="AU171">
-        <v>1.6</v>
-      </c>
-      <c r="AV171">
-        <v>1.32</v>
-      </c>
-      <c r="AW171">
-        <v>2.92</v>
-      </c>
-      <c r="AX171">
-        <v>0</v>
-      </c>
-      <c r="AY171">
-        <v>0</v>
-      </c>
-      <c r="AZ171">
-        <v>0</v>
-      </c>
-      <c r="BA171">
-        <v>0</v>
-      </c>
-      <c r="BB171">
-        <v>0</v>
-      </c>
-      <c r="BC171">
-        <v>0</v>
-      </c>
-      <c r="BD171">
-        <v>0</v>
-      </c>
-      <c r="BE171">
-        <v>0</v>
-      </c>
-      <c r="BF171">
-        <v>5</v>
-      </c>
-      <c r="BG171">
-        <v>4</v>
-      </c>
-      <c r="BH171">
-        <v>6</v>
-      </c>
       <c r="BI171">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ171">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK171">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:63">
@@ -33824,7 +33824,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2449570</v>
+        <v>2449572</v>
       </c>
       <c r="C172" t="s">
         <v>63</v>
@@ -33839,175 +33839,175 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H172" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M172">
         <v>1</v>
       </c>
       <c r="N172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O172" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="P172" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="Q172">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T172">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="W172">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X172">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Y172">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Z172">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AA172">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB172">
         <v>1.04</v>
       </c>
       <c r="AC172">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="AD172">
+        <v>2.95</v>
+      </c>
+      <c r="AE172">
+        <v>2.18</v>
+      </c>
+      <c r="AF172">
+        <v>1.07</v>
+      </c>
+      <c r="AG172">
+        <v>7.75</v>
+      </c>
+      <c r="AH172">
+        <v>1.4</v>
+      </c>
+      <c r="AI172">
+        <v>2.7</v>
+      </c>
+      <c r="AJ172">
+        <v>2.26</v>
+      </c>
+      <c r="AK172">
+        <v>1.54</v>
+      </c>
+      <c r="AL172">
+        <v>1.9</v>
+      </c>
+      <c r="AM172">
+        <v>1.8</v>
+      </c>
+      <c r="AN172">
+        <v>1.6</v>
+      </c>
+      <c r="AO172">
+        <v>1.34</v>
+      </c>
+      <c r="AP172">
+        <v>1.28</v>
+      </c>
+      <c r="AQ172">
+        <v>1.5</v>
+      </c>
+      <c r="AR172">
+        <v>2</v>
+      </c>
+      <c r="AS172">
+        <v>1.36</v>
+      </c>
+      <c r="AT172">
+        <v>2.09</v>
+      </c>
+      <c r="AU172">
+        <v>1.57</v>
+      </c>
+      <c r="AV172">
+        <v>1.63</v>
+      </c>
+      <c r="AW172">
         <v>3.2</v>
       </c>
-      <c r="AE172">
-        <v>5.4</v>
-      </c>
-      <c r="AF172">
-        <v>1.1</v>
-      </c>
-      <c r="AG172">
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BD172">
+        <v>0</v>
+      </c>
+      <c r="BE172">
+        <v>0</v>
+      </c>
+      <c r="BF172">
+        <v>8</v>
+      </c>
+      <c r="BG172">
+        <v>3</v>
+      </c>
+      <c r="BH172">
+        <v>2</v>
+      </c>
+      <c r="BI172">
         <v>7</v>
       </c>
-      <c r="AH172">
-        <v>1.45</v>
-      </c>
-      <c r="AI172">
-        <v>2.43</v>
-      </c>
-      <c r="AJ172">
-        <v>2.48</v>
-      </c>
-      <c r="AK172">
-        <v>1.45</v>
-      </c>
-      <c r="AL172">
-        <v>2.45</v>
-      </c>
-      <c r="AM172">
-        <v>1.5</v>
-      </c>
-      <c r="AN172">
-        <v>1.14</v>
-      </c>
-      <c r="AO172">
-        <v>1.28</v>
-      </c>
-      <c r="AP172">
-        <v>2.1</v>
-      </c>
-      <c r="AQ172">
-        <v>2.2</v>
-      </c>
-      <c r="AR172">
-        <v>1.1</v>
-      </c>
-      <c r="AS172">
-        <v>2.09</v>
-      </c>
-      <c r="AT172">
-        <v>1.09</v>
-      </c>
-      <c r="AU172">
-        <v>1.36</v>
-      </c>
-      <c r="AV172">
-        <v>1.01</v>
-      </c>
-      <c r="AW172">
-        <v>2.37</v>
-      </c>
-      <c r="AX172">
-        <v>0</v>
-      </c>
-      <c r="AY172">
-        <v>0</v>
-      </c>
-      <c r="AZ172">
-        <v>0</v>
-      </c>
-      <c r="BA172">
-        <v>0</v>
-      </c>
-      <c r="BB172">
-        <v>0</v>
-      </c>
-      <c r="BC172">
-        <v>0</v>
-      </c>
-      <c r="BD172">
-        <v>0</v>
-      </c>
-      <c r="BE172">
-        <v>0</v>
-      </c>
-      <c r="BF172">
-        <v>6</v>
-      </c>
-      <c r="BG172">
-        <v>5</v>
-      </c>
-      <c r="BH172">
-        <v>9</v>
-      </c>
-      <c r="BI172">
-        <v>4</v>
-      </c>
       <c r="BJ172">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK172">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:63">
@@ -34015,7 +34015,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2665876</v>
+        <v>2449575</v>
       </c>
       <c r="C173" t="s">
         <v>63</v>
@@ -34030,133 +34030,133 @@
         <v>22</v>
       </c>
       <c r="G173" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H173" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O173" t="s">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="P173" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="Q173">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>9</v>
+      </c>
+      <c r="T173">
+        <v>2.38</v>
+      </c>
+      <c r="U173">
+        <v>2.2</v>
+      </c>
+      <c r="V173">
+        <v>4.33</v>
+      </c>
+      <c r="W173">
+        <v>1.35</v>
+      </c>
+      <c r="X173">
+        <v>2.9</v>
+      </c>
+      <c r="Y173">
+        <v>2.65</v>
+      </c>
+      <c r="Z173">
+        <v>1.42</v>
+      </c>
+      <c r="AA173">
+        <v>6.5</v>
+      </c>
+      <c r="AB173">
+        <v>1.08</v>
+      </c>
+      <c r="AC173">
+        <v>1.75</v>
+      </c>
+      <c r="AD173">
+        <v>3.4</v>
+      </c>
+      <c r="AE173">
         <v>4</v>
       </c>
-      <c r="S173">
-        <v>7</v>
-      </c>
-      <c r="T173">
-        <v>2.1</v>
-      </c>
-      <c r="U173">
-        <v>2.1</v>
-      </c>
-      <c r="V173">
-        <v>6.5</v>
-      </c>
-      <c r="W173">
-        <v>1.52</v>
-      </c>
-      <c r="X173">
-        <v>2.23</v>
-      </c>
-      <c r="Y173">
-        <v>3.3</v>
-      </c>
-      <c r="Z173">
-        <v>1.28</v>
-      </c>
-      <c r="AA173">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB173">
-        <v>1.03</v>
-      </c>
-      <c r="AC173">
-        <v>1.5</v>
-      </c>
-      <c r="AD173">
-        <v>3.6</v>
-      </c>
-      <c r="AE173">
-        <v>7</v>
-      </c>
       <c r="AF173">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG173">
-        <v>5.75</v>
+        <v>14</v>
       </c>
       <c r="AH173">
-        <v>1.56</v>
+        <v>1.23</v>
       </c>
       <c r="AI173">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ173">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AK173">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AL173">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AM173">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="AN173">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AO173">
+        <v>1.25</v>
+      </c>
+      <c r="AP173">
+        <v>1.87</v>
+      </c>
+      <c r="AQ173">
+        <v>2</v>
+      </c>
+      <c r="AR173">
+        <v>1.1</v>
+      </c>
+      <c r="AS173">
+        <v>1.82</v>
+      </c>
+      <c r="AT173">
         <v>1.27</v>
       </c>
-      <c r="AP173">
-        <v>1.95</v>
-      </c>
-      <c r="AQ173">
-        <v>1.5</v>
-      </c>
-      <c r="AR173">
-        <v>0.7</v>
-      </c>
-      <c r="AS173">
-        <v>1.75</v>
-      </c>
-      <c r="AT173">
-        <v>0.64</v>
-      </c>
       <c r="AU173">
-        <v>1.55</v>
+        <v>2.09</v>
       </c>
       <c r="AV173">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AW173">
-        <v>2.83</v>
+        <v>3.35</v>
       </c>
       <c r="AX173">
         <v>0</v>
@@ -34192,13 +34192,13 @@
         <v>8</v>
       </c>
       <c r="BI173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ173">
         <v>13</v>
       </c>
       <c r="BK173">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:63">
@@ -34206,7 +34206,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2449569</v>
+        <v>2665876</v>
       </c>
       <c r="C174" t="s">
         <v>63</v>
@@ -34221,133 +34221,133 @@
         <v>22</v>
       </c>
       <c r="G174" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H174" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174">
         <v>0</v>
       </c>
       <c r="K174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M174">
         <v>0</v>
       </c>
       <c r="N174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O174" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P174" t="s">
         <v>81</v>
       </c>
       <c r="Q174">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S174">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T174">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="U174">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V174">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="W174">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X174">
-        <v>2.4</v>
+        <v>2.23</v>
       </c>
       <c r="Y174">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z174">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA174">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB174">
         <v>1.03</v>
       </c>
       <c r="AC174">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="AD174">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="AE174">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AF174">
         <v>1.06</v>
       </c>
       <c r="AG174">
-        <v>7.2</v>
+        <v>5.75</v>
       </c>
       <c r="AH174">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AI174">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="AJ174">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AK174">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AL174">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AM174">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AN174">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AO174">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AP174">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AQ174">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR174">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AS174">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="AT174">
-        <v>0.58</v>
+        <v>0.64</v>
       </c>
       <c r="AU174">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AV174">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AW174">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="AX174">
         <v>0</v>
@@ -34374,22 +34374,22 @@
         <v>0</v>
       </c>
       <c r="BF174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH174">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI174">
         <v>3</v>
       </c>
       <c r="BJ174">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK174">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:63">
@@ -34397,7 +34397,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2449575</v>
+        <v>2449569</v>
       </c>
       <c r="C175" t="s">
         <v>63</v>
@@ -34412,172 +34412,172 @@
         <v>22</v>
       </c>
       <c r="G175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H175" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I175">
         <v>0</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O175" t="s">
+        <v>194</v>
+      </c>
+      <c r="P175" t="s">
         <v>81</v>
       </c>
-      <c r="P175" t="s">
-        <v>257</v>
-      </c>
       <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
         <v>8</v>
       </c>
-      <c r="R175">
-        <v>1</v>
-      </c>
-      <c r="S175">
+      <c r="T175">
+        <v>2.6</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
+        <v>4.5</v>
+      </c>
+      <c r="W175">
+        <v>1.5</v>
+      </c>
+      <c r="X175">
+        <v>2.4</v>
+      </c>
+      <c r="Y175">
+        <v>3.2</v>
+      </c>
+      <c r="Z175">
+        <v>1.3</v>
+      </c>
+      <c r="AA175">
+        <v>8.9</v>
+      </c>
+      <c r="AB175">
+        <v>1.03</v>
+      </c>
+      <c r="AC175">
+        <v>1.85</v>
+      </c>
+      <c r="AD175">
+        <v>3</v>
+      </c>
+      <c r="AE175">
+        <v>4.33</v>
+      </c>
+      <c r="AF175">
+        <v>1.06</v>
+      </c>
+      <c r="AG175">
+        <v>7.2</v>
+      </c>
+      <c r="AH175">
+        <v>1.43</v>
+      </c>
+      <c r="AI175">
+        <v>2.6</v>
+      </c>
+      <c r="AJ175">
+        <v>2.4</v>
+      </c>
+      <c r="AK175">
+        <v>1.53</v>
+      </c>
+      <c r="AL175">
+        <v>2.1</v>
+      </c>
+      <c r="AM175">
+        <v>1.65</v>
+      </c>
+      <c r="AN175">
+        <v>1.24</v>
+      </c>
+      <c r="AO175">
+        <v>1.34</v>
+      </c>
+      <c r="AP175">
+        <v>1.69</v>
+      </c>
+      <c r="AQ175">
+        <v>2</v>
+      </c>
+      <c r="AR175">
+        <v>0.6</v>
+      </c>
+      <c r="AS175">
+        <v>2.09</v>
+      </c>
+      <c r="AT175">
+        <v>0.58</v>
+      </c>
+      <c r="AU175">
+        <v>1.44</v>
+      </c>
+      <c r="AV175">
+        <v>1.5</v>
+      </c>
+      <c r="AW175">
+        <v>2.94</v>
+      </c>
+      <c r="AX175">
+        <v>0</v>
+      </c>
+      <c r="AY175">
+        <v>0</v>
+      </c>
+      <c r="AZ175">
+        <v>0</v>
+      </c>
+      <c r="BA175">
+        <v>0</v>
+      </c>
+      <c r="BB175">
+        <v>0</v>
+      </c>
+      <c r="BC175">
+        <v>0</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>6</v>
+      </c>
+      <c r="BG175">
+        <v>2</v>
+      </c>
+      <c r="BH175">
+        <v>3</v>
+      </c>
+      <c r="BI175">
+        <v>3</v>
+      </c>
+      <c r="BJ175">
         <v>9</v>
-      </c>
-      <c r="T175">
-        <v>2.38</v>
-      </c>
-      <c r="U175">
-        <v>2.2</v>
-      </c>
-      <c r="V175">
-        <v>4.33</v>
-      </c>
-      <c r="W175">
-        <v>1.35</v>
-      </c>
-      <c r="X175">
-        <v>2.9</v>
-      </c>
-      <c r="Y175">
-        <v>2.65</v>
-      </c>
-      <c r="Z175">
-        <v>1.42</v>
-      </c>
-      <c r="AA175">
-        <v>6.5</v>
-      </c>
-      <c r="AB175">
-        <v>1.08</v>
-      </c>
-      <c r="AC175">
-        <v>1.75</v>
-      </c>
-      <c r="AD175">
-        <v>3.4</v>
-      </c>
-      <c r="AE175">
-        <v>4</v>
-      </c>
-      <c r="AF175">
-        <v>1.02</v>
-      </c>
-      <c r="AG175">
-        <v>14</v>
-      </c>
-      <c r="AH175">
-        <v>1.23</v>
-      </c>
-      <c r="AI175">
-        <v>3.5</v>
-      </c>
-      <c r="AJ175">
-        <v>1.85</v>
-      </c>
-      <c r="AK175">
-        <v>1.95</v>
-      </c>
-      <c r="AL175">
-        <v>1.83</v>
-      </c>
-      <c r="AM175">
-        <v>1.91</v>
-      </c>
-      <c r="AN175">
-        <v>1.21</v>
-      </c>
-      <c r="AO175">
-        <v>1.25</v>
-      </c>
-      <c r="AP175">
-        <v>1.87</v>
-      </c>
-      <c r="AQ175">
-        <v>2</v>
-      </c>
-      <c r="AR175">
-        <v>1.1</v>
-      </c>
-      <c r="AS175">
-        <v>1.82</v>
-      </c>
-      <c r="AT175">
-        <v>1.27</v>
-      </c>
-      <c r="AU175">
-        <v>2.09</v>
-      </c>
-      <c r="AV175">
-        <v>1.26</v>
-      </c>
-      <c r="AW175">
-        <v>3.35</v>
-      </c>
-      <c r="AX175">
-        <v>0</v>
-      </c>
-      <c r="AY175">
-        <v>0</v>
-      </c>
-      <c r="AZ175">
-        <v>0</v>
-      </c>
-      <c r="BA175">
-        <v>0</v>
-      </c>
-      <c r="BB175">
-        <v>0</v>
-      </c>
-      <c r="BC175">
-        <v>0</v>
-      </c>
-      <c r="BD175">
-        <v>0</v>
-      </c>
-      <c r="BE175">
-        <v>0</v>
-      </c>
-      <c r="BF175">
-        <v>5</v>
-      </c>
-      <c r="BG175">
-        <v>3</v>
-      </c>
-      <c r="BH175">
-        <v>8</v>
-      </c>
-      <c r="BI175">
-        <v>2</v>
-      </c>
-      <c r="BJ175">
-        <v>13</v>
       </c>
       <c r="BK175">
         <v>5</v>
@@ -35161,7 +35161,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>2449577</v>
+        <v>2449578</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -35176,10 +35176,10 @@
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H179" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -35191,118 +35191,118 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="P179" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R179">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S179">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T179">
+        <v>4</v>
+      </c>
+      <c r="U179">
         <v>1.95</v>
       </c>
-      <c r="U179">
-        <v>2.25</v>
-      </c>
       <c r="V179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W179">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="X179">
-        <v>2.71</v>
+        <v>2.26</v>
       </c>
       <c r="Y179">
-        <v>2.83</v>
+        <v>3.42</v>
       </c>
       <c r="Z179">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AA179">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB179">
+        <v>1.02</v>
+      </c>
+      <c r="AC179">
+        <v>3.75</v>
+      </c>
+      <c r="AD179">
+        <v>2.9</v>
+      </c>
+      <c r="AE179">
+        <v>2.05</v>
+      </c>
+      <c r="AF179">
         <v>1.07</v>
       </c>
-      <c r="AC179">
+      <c r="AG179">
+        <v>6.9</v>
+      </c>
+      <c r="AH179">
         <v>1.44</v>
       </c>
-      <c r="AD179">
-        <v>4.2</v>
-      </c>
-      <c r="AE179">
-        <v>5.75</v>
-      </c>
-      <c r="AF179">
-        <v>1.03</v>
-      </c>
-      <c r="AG179">
-        <v>10.25</v>
-      </c>
-      <c r="AH179">
-        <v>1.34</v>
-      </c>
       <c r="AI179">
-        <v>3.02</v>
+        <v>2.51</v>
       </c>
       <c r="AJ179">
-        <v>1.85</v>
+        <v>2.48</v>
       </c>
       <c r="AK179">
-        <v>1.95</v>
+        <v>1.48</v>
       </c>
       <c r="AL179">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AM179">
         <v>1.65</v>
       </c>
       <c r="AN179">
-        <v>1.07</v>
+        <v>1.52</v>
       </c>
       <c r="AO179">
+        <v>1.38</v>
+      </c>
+      <c r="AP179">
+        <v>1.32</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>0.45</v>
+      </c>
+      <c r="AS179">
+        <v>1</v>
+      </c>
+      <c r="AT179">
+        <v>0.5</v>
+      </c>
+      <c r="AU179">
         <v>1.2</v>
       </c>
-      <c r="AP179">
-        <v>2.6</v>
-      </c>
-      <c r="AQ179">
-        <v>2.09</v>
-      </c>
-      <c r="AR179">
-        <v>0.82</v>
-      </c>
-      <c r="AS179">
-        <v>2</v>
-      </c>
-      <c r="AT179">
-        <v>0.83</v>
-      </c>
-      <c r="AU179">
-        <v>1.53</v>
-      </c>
       <c r="AV179">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="AW179">
-        <v>2.87</v>
+        <v>2.34</v>
       </c>
       <c r="AX179">
         <v>0</v>
@@ -35332,19 +35332,19 @@
         <v>3</v>
       </c>
       <c r="BG179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH179">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI179">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ179">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK179">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35543,7 +35543,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2665877</v>
+        <v>2449577</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -35558,130 +35558,130 @@
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H181" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M181">
         <v>0</v>
       </c>
       <c r="N181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O181" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="P181" t="s">
         <v>81</v>
       </c>
       <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
         <v>4</v>
       </c>
-      <c r="R181">
+      <c r="S181">
+        <v>9</v>
+      </c>
+      <c r="T181">
+        <v>1.95</v>
+      </c>
+      <c r="U181">
+        <v>2.25</v>
+      </c>
+      <c r="V181">
         <v>6</v>
       </c>
-      <c r="S181">
-        <v>10</v>
-      </c>
-      <c r="T181">
-        <v>2.75</v>
-      </c>
-      <c r="U181">
-        <v>1.91</v>
-      </c>
-      <c r="V181">
-        <v>4.33</v>
-      </c>
       <c r="W181">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="X181">
-        <v>2.2</v>
+        <v>2.71</v>
       </c>
       <c r="Y181">
-        <v>3.6</v>
+        <v>2.83</v>
       </c>
       <c r="Z181">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AA181">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AB181">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC181">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="AD181">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="AE181">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="AF181">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AG181">
-        <v>6.3</v>
+        <v>10.25</v>
       </c>
       <c r="AH181">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AI181">
-        <v>2.4</v>
+        <v>3.02</v>
       </c>
       <c r="AJ181">
+        <v>1.85</v>
+      </c>
+      <c r="AK181">
+        <v>1.95</v>
+      </c>
+      <c r="AL181">
+        <v>2.15</v>
+      </c>
+      <c r="AM181">
+        <v>1.65</v>
+      </c>
+      <c r="AN181">
+        <v>1.07</v>
+      </c>
+      <c r="AO181">
+        <v>1.2</v>
+      </c>
+      <c r="AP181">
         <v>2.6</v>
       </c>
-      <c r="AK181">
-        <v>1.48</v>
-      </c>
-      <c r="AL181">
-        <v>2.25</v>
-      </c>
-      <c r="AM181">
-        <v>1.58</v>
-      </c>
-      <c r="AN181">
-        <v>1.17</v>
-      </c>
-      <c r="AO181">
-        <v>1.35</v>
-      </c>
-      <c r="AP181">
-        <v>1.82</v>
-      </c>
       <c r="AQ181">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="AR181">
         <v>0.82</v>
       </c>
       <c r="AS181">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT181">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="AU181">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AV181">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AW181">
         <v>2.87</v>
@@ -35711,22 +35711,22 @@
         <v>0</v>
       </c>
       <c r="BF181">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG181">
+        <v>4</v>
+      </c>
+      <c r="BH181">
+        <v>2</v>
+      </c>
+      <c r="BI181">
+        <v>6</v>
+      </c>
+      <c r="BJ181">
         <v>5</v>
       </c>
-      <c r="BH181">
-        <v>7</v>
-      </c>
-      <c r="BI181">
-        <v>9</v>
-      </c>
-      <c r="BJ181">
-        <v>15</v>
-      </c>
       <c r="BK181">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:63">
@@ -35734,7 +35734,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2449579</v>
+        <v>2665877</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -35749,28 +35749,28 @@
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H182" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O182" t="s">
         <v>198</v>
@@ -35779,145 +35779,145 @@
         <v>81</v>
       </c>
       <c r="Q182">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R182">
+        <v>6</v>
+      </c>
+      <c r="S182">
+        <v>10</v>
+      </c>
+      <c r="T182">
+        <v>2.75</v>
+      </c>
+      <c r="U182">
+        <v>1.91</v>
+      </c>
+      <c r="V182">
+        <v>4.33</v>
+      </c>
+      <c r="W182">
+        <v>1.56</v>
+      </c>
+      <c r="X182">
+        <v>2.2</v>
+      </c>
+      <c r="Y182">
+        <v>3.6</v>
+      </c>
+      <c r="Z182">
+        <v>1.23</v>
+      </c>
+      <c r="AA182">
+        <v>8.4</v>
+      </c>
+      <c r="AB182">
+        <v>1.04</v>
+      </c>
+      <c r="AC182">
+        <v>2</v>
+      </c>
+      <c r="AD182">
+        <v>2.8</v>
+      </c>
+      <c r="AE182">
+        <v>3.8</v>
+      </c>
+      <c r="AF182">
+        <v>1.08</v>
+      </c>
+      <c r="AG182">
+        <v>6.3</v>
+      </c>
+      <c r="AH182">
+        <v>1.51</v>
+      </c>
+      <c r="AI182">
+        <v>2.4</v>
+      </c>
+      <c r="AJ182">
+        <v>2.6</v>
+      </c>
+      <c r="AK182">
+        <v>1.48</v>
+      </c>
+      <c r="AL182">
+        <v>2.25</v>
+      </c>
+      <c r="AM182">
+        <v>1.58</v>
+      </c>
+      <c r="AN182">
+        <v>1.17</v>
+      </c>
+      <c r="AO182">
+        <v>1.35</v>
+      </c>
+      <c r="AP182">
+        <v>1.82</v>
+      </c>
+      <c r="AQ182">
+        <v>1.64</v>
+      </c>
+      <c r="AR182">
+        <v>0.82</v>
+      </c>
+      <c r="AS182">
+        <v>1.75</v>
+      </c>
+      <c r="AT182">
+        <v>0.75</v>
+      </c>
+      <c r="AU182">
+        <v>1.57</v>
+      </c>
+      <c r="AV182">
+        <v>1.3</v>
+      </c>
+      <c r="AW182">
+        <v>2.87</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>8</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
         <v>7</v>
       </c>
-      <c r="S182">
-        <v>18</v>
-      </c>
-      <c r="T182">
-        <v>2.4</v>
-      </c>
-      <c r="U182">
-        <v>1.95</v>
-      </c>
-      <c r="V182">
-        <v>5.5</v>
-      </c>
-      <c r="W182">
-        <v>1.53</v>
-      </c>
-      <c r="X182">
-        <v>2.33</v>
-      </c>
-      <c r="Y182">
-        <v>3.24</v>
-      </c>
-      <c r="Z182">
-        <v>1.28</v>
-      </c>
-      <c r="AA182">
-        <v>7.8</v>
-      </c>
-      <c r="AB182">
-        <v>1.05</v>
-      </c>
-      <c r="AC182">
-        <v>1.73</v>
-      </c>
-      <c r="AD182">
-        <v>3.6</v>
-      </c>
-      <c r="AE182">
-        <v>4.33</v>
-      </c>
-      <c r="AF182">
-        <v>1.11</v>
-      </c>
-      <c r="AG182">
-        <v>6.45</v>
-      </c>
-      <c r="AH182">
-        <v>1.4</v>
-      </c>
-      <c r="AI182">
-        <v>2.59</v>
-      </c>
-      <c r="AJ182">
-        <v>2.5</v>
-      </c>
-      <c r="AK182">
-        <v>1.5</v>
-      </c>
-      <c r="AL182">
-        <v>2.4</v>
-      </c>
-      <c r="AM182">
-        <v>1.52</v>
-      </c>
-      <c r="AN182">
-        <v>1.15</v>
-      </c>
-      <c r="AO182">
-        <v>1.25</v>
-      </c>
-      <c r="AP182">
-        <v>1.95</v>
-      </c>
-      <c r="AQ182">
-        <v>2.45</v>
-      </c>
-      <c r="AR182">
-        <v>1.73</v>
-      </c>
-      <c r="AS182">
-        <v>2.5</v>
-      </c>
-      <c r="AT182">
-        <v>1.58</v>
-      </c>
-      <c r="AU182">
-        <v>2.26</v>
-      </c>
-      <c r="AV182">
-        <v>1.4</v>
-      </c>
-      <c r="AW182">
-        <v>3.66</v>
-      </c>
-      <c r="AX182">
-        <v>0</v>
-      </c>
-      <c r="AY182">
-        <v>0</v>
-      </c>
-      <c r="AZ182">
-        <v>0</v>
-      </c>
-      <c r="BA182">
-        <v>0</v>
-      </c>
-      <c r="BB182">
-        <v>0</v>
-      </c>
-      <c r="BC182">
-        <v>0</v>
-      </c>
-      <c r="BD182">
-        <v>0</v>
-      </c>
-      <c r="BE182">
-        <v>0</v>
-      </c>
-      <c r="BF182">
-        <v>7</v>
-      </c>
-      <c r="BG182">
-        <v>4</v>
-      </c>
-      <c r="BH182">
-        <v>13</v>
-      </c>
       <c r="BI182">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ182">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BK182">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -35925,7 +35925,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2449578</v>
+        <v>2449579</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -35940,10 +35940,10 @@
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H183" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -35958,115 +35958,115 @@
         <v>1</v>
       </c>
       <c r="M183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O183" t="s">
         <v>199</v>
       </c>
       <c r="P183" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="Q183">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R183">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S183">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T183">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="U183">
         <v>1.95</v>
       </c>
       <c r="V183">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="W183">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X183">
+        <v>2.33</v>
+      </c>
+      <c r="Y183">
+        <v>3.24</v>
+      </c>
+      <c r="Z183">
+        <v>1.28</v>
+      </c>
+      <c r="AA183">
+        <v>7.8</v>
+      </c>
+      <c r="AB183">
+        <v>1.05</v>
+      </c>
+      <c r="AC183">
+        <v>1.73</v>
+      </c>
+      <c r="AD183">
+        <v>3.6</v>
+      </c>
+      <c r="AE183">
+        <v>4.33</v>
+      </c>
+      <c r="AF183">
+        <v>1.11</v>
+      </c>
+      <c r="AG183">
+        <v>6.45</v>
+      </c>
+      <c r="AH183">
+        <v>1.4</v>
+      </c>
+      <c r="AI183">
+        <v>2.59</v>
+      </c>
+      <c r="AJ183">
+        <v>2.5</v>
+      </c>
+      <c r="AK183">
+        <v>1.5</v>
+      </c>
+      <c r="AL183">
+        <v>2.4</v>
+      </c>
+      <c r="AM183">
+        <v>1.52</v>
+      </c>
+      <c r="AN183">
+        <v>1.15</v>
+      </c>
+      <c r="AO183">
+        <v>1.25</v>
+      </c>
+      <c r="AP183">
+        <v>1.95</v>
+      </c>
+      <c r="AQ183">
+        <v>2.45</v>
+      </c>
+      <c r="AR183">
+        <v>1.73</v>
+      </c>
+      <c r="AS183">
+        <v>2.5</v>
+      </c>
+      <c r="AT183">
+        <v>1.58</v>
+      </c>
+      <c r="AU183">
         <v>2.26</v>
       </c>
-      <c r="Y183">
-        <v>3.42</v>
-      </c>
-      <c r="Z183">
-        <v>1.27</v>
-      </c>
-      <c r="AA183">
-        <v>9.5</v>
-      </c>
-      <c r="AB183">
-        <v>1.02</v>
-      </c>
-      <c r="AC183">
-        <v>3.75</v>
-      </c>
-      <c r="AD183">
-        <v>2.9</v>
-      </c>
-      <c r="AE183">
-        <v>2.05</v>
-      </c>
-      <c r="AF183">
-        <v>1.07</v>
-      </c>
-      <c r="AG183">
-        <v>6.9</v>
-      </c>
-      <c r="AH183">
-        <v>1.44</v>
-      </c>
-      <c r="AI183">
-        <v>2.51</v>
-      </c>
-      <c r="AJ183">
-        <v>2.48</v>
-      </c>
-      <c r="AK183">
-        <v>1.48</v>
-      </c>
-      <c r="AL183">
-        <v>2.1</v>
-      </c>
-      <c r="AM183">
-        <v>1.65</v>
-      </c>
-      <c r="AN183">
-        <v>1.52</v>
-      </c>
-      <c r="AO183">
-        <v>1.38</v>
-      </c>
-      <c r="AP183">
-        <v>1.32</v>
-      </c>
-      <c r="AQ183">
-        <v>1</v>
-      </c>
-      <c r="AR183">
-        <v>0.45</v>
-      </c>
-      <c r="AS183">
-        <v>1</v>
-      </c>
-      <c r="AT183">
-        <v>0.5</v>
-      </c>
-      <c r="AU183">
-        <v>1.2</v>
-      </c>
       <c r="AV183">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="AW183">
-        <v>2.34</v>
+        <v>3.66</v>
       </c>
       <c r="AX183">
         <v>0</v>
@@ -36093,22 +36093,22 @@
         <v>0</v>
       </c>
       <c r="BF183">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH183">
+        <v>13</v>
+      </c>
+      <c r="BI183">
         <v>6</v>
       </c>
-      <c r="BI183">
-        <v>8</v>
-      </c>
       <c r="BJ183">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BK183">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK185"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2324,7 +2324,7 @@
         <v>0.92</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT10" t="n">
         <v>0.45</v>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0.58</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU21" t="n">
         <v>3.02</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU31" t="n">
         <v>1.37</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU40" t="n">
         <v>0.82</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT41" t="n">
         <v>0.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.71</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT44" t="n">
         <v>2.09</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU45" t="n">
         <v>1.44</v>
@@ -9835,7 +9835,7 @@
         <v>1.36</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT48" t="n">
         <v>1.73</v>
@@ -10444,7 +10444,7 @@
         <v>1.64</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.53</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT52" t="n">
         <v>0.75</v>
@@ -12268,7 +12268,7 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT58" t="n">
         <v>0.45</v>
@@ -12474,7 +12474,7 @@
         <v>2.09</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU59" t="n">
         <v>1.32</v>
@@ -12677,7 +12677,7 @@
         <v>1.82</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU60" t="n">
         <v>2.04</v>
@@ -12877,7 +12877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT61" t="n">
         <v>1.09</v>
@@ -13283,10 +13283,10 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.69</v>
@@ -13486,10 +13486,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU64" t="n">
         <v>1.6</v>
@@ -15516,7 +15516,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT74" t="n">
         <v>1.09</v>
@@ -15922,10 +15922,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU76" t="n">
         <v>1.65</v>
@@ -16128,7 +16128,7 @@
         <v>1.36</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16331,7 +16331,7 @@
         <v>0.83</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU78" t="n">
         <v>1.27</v>
@@ -16734,7 +16734,7 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT80" t="n">
         <v>2.09</v>
@@ -17143,7 +17143,7 @@
         <v>2.5</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU82" t="n">
         <v>2.17</v>
@@ -18767,7 +18767,7 @@
         <v>1.64</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -18967,7 +18967,7 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT91" t="n">
         <v>1.5</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT92" t="n">
         <v>0.83</v>
@@ -19376,7 +19376,7 @@
         <v>2.09</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT94" t="n">
         <v>0.45</v>
@@ -20391,7 +20391,7 @@
         <v>2.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU98" t="n">
         <v>2.14</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT102" t="n">
         <v>0.5</v>
@@ -21606,7 +21606,7 @@
         <v>0.14</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT104" t="n">
         <v>0.5</v>
@@ -22421,7 +22421,7 @@
         <v>0.83</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -22824,10 +22824,10 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU110" t="n">
         <v>1.71</v>
@@ -23230,7 +23230,7 @@
         <v>2</v>
       </c>
       <c r="AS112" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.83</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.66</v>
@@ -24245,7 +24245,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT118" t="n">
         <v>1.58</v>
@@ -24857,7 +24857,7 @@
         <v>2</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25263,7 +25263,7 @@
         <v>1.75</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU122" t="n">
         <v>1.57</v>
@@ -25666,7 +25666,7 @@
         <v>1.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT124" t="n">
         <v>1.58</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5</v>
@@ -26072,7 +26072,7 @@
         <v>0.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT126" t="n">
         <v>0.75</v>
@@ -26481,7 +26481,7 @@
         <v>1.83</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU128" t="n">
         <v>1.67</v>
@@ -26887,7 +26887,7 @@
         <v>2.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU130" t="n">
         <v>2.23</v>
@@ -27090,7 +27090,7 @@
         <v>2.5</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU131" t="n">
         <v>2.1</v>
@@ -28305,7 +28305,7 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT137" t="n">
         <v>0.83</v>
@@ -28508,7 +28508,7 @@
         <v>0.63</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT138" t="n">
         <v>0.5</v>
@@ -28917,7 +28917,7 @@
         <v>1.82</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU140" t="n">
         <v>2.13</v>
@@ -29320,7 +29320,7 @@
         <v>0.25</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT142" t="n">
         <v>0.58</v>
@@ -29523,10 +29523,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU143" t="n">
         <v>1.46</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT146" t="n">
         <v>1.58</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU153" t="n">
         <v>1.25</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT154" t="n">
         <v>0.75</v>
@@ -32162,7 +32162,7 @@
         <v>1.89</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT156" t="n">
         <v>2.09</v>
@@ -32365,10 +32365,10 @@
         <v>0.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU157" t="n">
         <v>1.44</v>
@@ -32774,7 +32774,7 @@
         <v>1.36</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU159" t="n">
         <v>1.56</v>
@@ -33180,7 +33180,7 @@
         <v>1.83</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT166" t="n">
         <v>0.75</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT168" t="n">
         <v>0.45</v>
@@ -34804,7 +34804,7 @@
         <v>1.64</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU169" t="n">
         <v>1.6</v>
@@ -35007,7 +35007,7 @@
         <v>2.09</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU170" t="n">
         <v>1.36</v>
@@ -35207,7 +35207,7 @@
         <v>1.6</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AT171" t="n">
         <v>1.73</v>
@@ -35616,7 +35616,7 @@
         <v>1.82</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU173" t="n">
         <v>2.09</v>
@@ -35819,7 +35819,7 @@
         <v>1.75</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU174" t="n">
         <v>1.55</v>
@@ -36019,7 +36019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT175" t="n">
         <v>0.58</v>
@@ -38104,6 +38104,818 @@
       </c>
       <c r="BK185" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2449583</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>OFK Vršac</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Loznica</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>4</v>
+      </c>
+      <c r="S186" t="n">
+        <v>5</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V186" t="n">
+        <v>6</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2449589</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Sloboda Užice</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Trajal Krusevac</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>2</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>6</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X187" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2449588</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Radnički Novi Beograd</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Novi Sad</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>3</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5</v>
+      </c>
+      <c r="T188" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2449584</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>24</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Mačva Šabac</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Rad Beograd</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>10</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4</v>
+      </c>
+      <c r="S189" t="n">
+        <v>14</v>
+      </c>
+      <c r="T189" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X189" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,18 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['5', '36', '90+4']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['24', '34', '88', '90+2']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
@@ -803,6 +815,18 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['18', '44', '69']</t>
+  </si>
+  <si>
+    <t>['8', '85']</t>
+  </si>
+  <si>
+    <t>['56', '84']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK193"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,7 +1522,7 @@
         <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1689,7 +1713,7 @@
         <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1790,7 +1814,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1877,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT4">
         <v>1.17</v>
@@ -2071,7 +2095,7 @@
         <v>1.75</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2172,7 +2196,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2363,7 +2387,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2554,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2641,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT8">
         <v>0.5</v>
@@ -2745,7 +2769,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2936,7 +2960,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3214,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>1</v>
@@ -3408,7 +3432,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3509,7 +3533,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3599,7 +3623,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU13">
         <v>1.84</v>
@@ -3787,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT14">
         <v>0.58</v>
@@ -3891,7 +3915,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3978,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT15">
         <v>1.92</v>
@@ -4169,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT16">
         <v>1.58</v>
@@ -4363,7 +4387,7 @@
         <v>1.75</v>
       </c>
       <c r="AT17">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4551,7 +4575,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4745,7 +4769,7 @@
         <v>2.17</v>
       </c>
       <c r="AT19">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU19">
         <v>1.46</v>
@@ -4936,7 +4960,7 @@
         <v>0.83</v>
       </c>
       <c r="AT20">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU20">
         <v>1.58</v>
@@ -5124,7 +5148,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT21">
         <v>0.58</v>
@@ -5419,7 +5443,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5700,7 +5724,7 @@
         <v>1.58</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU24">
         <v>1.79</v>
@@ -5801,7 +5825,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5891,7 +5915,7 @@
         <v>1.75</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU25">
         <v>1.99</v>
@@ -6273,7 +6297,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU27">
         <v>1.71</v>
@@ -6461,7 +6485,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT28">
         <v>1.92</v>
@@ -6565,7 +6589,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6652,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT29">
         <v>1.58</v>
@@ -7228,7 +7252,7 @@
         <v>1.75</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU32">
         <v>1.86</v>
@@ -7329,7 +7353,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7416,7 +7440,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT33">
         <v>0.5</v>
@@ -7520,7 +7544,7 @@
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7610,7 +7634,7 @@
         <v>0.83</v>
       </c>
       <c r="AT34">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU34">
         <v>1.38</v>
@@ -7798,10 +7822,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU35">
         <v>2.5</v>
@@ -8183,7 +8207,7 @@
         <v>2.17</v>
       </c>
       <c r="AT37">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU37">
         <v>1.36</v>
@@ -8374,7 +8398,7 @@
         <v>0.92</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU38">
         <v>1.23</v>
@@ -8475,7 +8499,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8562,7 +8586,7 @@
         <v>2</v>
       </c>
       <c r="AS39">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT39">
         <v>1.5</v>
@@ -8753,7 +8777,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT40">
         <v>0.58</v>
@@ -8947,7 +8971,7 @@
         <v>1.58</v>
       </c>
       <c r="AT41">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU41">
         <v>1.93</v>
@@ -9135,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="AS42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT42">
         <v>0.5</v>
@@ -9239,7 +9263,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9326,7 +9350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT43">
         <v>1.17</v>
@@ -9430,7 +9454,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -10093,7 +10117,7 @@
         <v>2.17</v>
       </c>
       <c r="AT47">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU47">
         <v>1.31</v>
@@ -10194,7 +10218,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10666,7 +10690,7 @@
         <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU50">
         <v>1.41</v>
@@ -10767,7 +10791,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -10857,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU51">
         <v>1.27</v>
@@ -11048,7 +11072,7 @@
         <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU52">
         <v>1.65</v>
@@ -11239,7 +11263,7 @@
         <v>0.83</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU53">
         <v>1.35</v>
@@ -11427,10 +11451,10 @@
         <v>2</v>
       </c>
       <c r="AS54">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT54">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU54">
         <v>2.13</v>
@@ -11618,10 +11642,10 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT55">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU55">
         <v>2.15</v>
@@ -11722,7 +11746,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11809,7 +11833,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT56">
         <v>1.5</v>
@@ -11913,7 +11937,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12000,7 +12024,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12573,7 +12597,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.58</v>
@@ -12677,7 +12701,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12868,7 +12892,7 @@
         <v>107</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -13059,7 +13083,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13441,7 +13465,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13632,7 +13656,7 @@
         <v>96</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13719,7 +13743,7 @@
         <v>2</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT66">
         <v>1.5</v>
@@ -13823,7 +13847,7 @@
         <v>81</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13913,7 +13937,7 @@
         <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU67">
         <v>1.25</v>
@@ -14014,7 +14038,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14101,10 +14125,10 @@
         <v>0.5</v>
       </c>
       <c r="AS68">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT68">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU68">
         <v>1.67</v>
@@ -14292,10 +14316,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU69">
         <v>1.52</v>
@@ -14396,7 +14420,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -14486,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU70">
         <v>1.18</v>
@@ -14674,10 +14698,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU71">
         <v>2.03</v>
@@ -14865,10 +14889,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT72">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU72">
         <v>2.25</v>
@@ -15059,7 +15083,7 @@
         <v>0.92</v>
       </c>
       <c r="AT73">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU73">
         <v>1.26</v>
@@ -15733,7 +15757,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15924,7 +15948,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16584,10 +16608,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU81">
         <v>1.38</v>
@@ -16775,7 +16799,7 @@
         <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16966,10 +16990,10 @@
         <v>0</v>
       </c>
       <c r="AS83">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT83">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU83">
         <v>1.72</v>
@@ -17160,7 +17184,7 @@
         <v>0.92</v>
       </c>
       <c r="AT84">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84">
         <v>1.29</v>
@@ -17261,7 +17285,7 @@
         <v>136</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17348,10 +17372,10 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT85">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU85">
         <v>1.55</v>
@@ -17452,7 +17476,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17539,10 +17563,10 @@
         <v>0.4</v>
       </c>
       <c r="AS86">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT86">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU86">
         <v>2.18</v>
@@ -18025,7 +18049,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18688,7 +18712,7 @@
         <v>2.17</v>
       </c>
       <c r="AT92">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -19258,10 +19282,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT95">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU95">
         <v>1.62</v>
@@ -19362,7 +19386,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>12</v>
@@ -19449,10 +19473,10 @@
         <v>1.8</v>
       </c>
       <c r="AS96">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT96">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU96">
         <v>2.1</v>
@@ -19553,7 +19577,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19640,10 +19664,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT97">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU97">
         <v>2.15</v>
@@ -19744,7 +19768,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19831,7 +19855,7 @@
         <v>1.2</v>
       </c>
       <c r="AS98">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT98">
         <v>0.58</v>
@@ -19935,7 +19959,7 @@
         <v>147</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20213,10 +20237,10 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT100">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU100">
         <v>1.59</v>
@@ -20404,10 +20428,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT101">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU101">
         <v>1.49</v>
@@ -20598,7 +20622,7 @@
         <v>1.75</v>
       </c>
       <c r="AT102">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU102">
         <v>1.47</v>
@@ -20789,7 +20813,7 @@
         <v>1</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU103">
         <v>1.39</v>
@@ -20890,7 +20914,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20980,7 +21004,7 @@
         <v>2.17</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU104">
         <v>1.78</v>
@@ -21168,7 +21192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT105">
         <v>1.58</v>
@@ -21463,7 +21487,7 @@
         <v>151</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21654,7 +21678,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21935,7 +21959,7 @@
         <v>1.33</v>
       </c>
       <c r="AT109">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU109">
         <v>1.52</v>
@@ -22418,7 +22442,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22696,10 +22720,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU113">
         <v>2.29</v>
@@ -22887,10 +22911,10 @@
         <v>0.4</v>
       </c>
       <c r="AS114">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT114">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU114">
         <v>1.61</v>
@@ -23078,7 +23102,7 @@
         <v>1.5</v>
       </c>
       <c r="AS115">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT115">
         <v>1</v>
@@ -23182,7 +23206,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23269,10 +23293,10 @@
         <v>0.33</v>
       </c>
       <c r="AS116">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT116">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU116">
         <v>2.07</v>
@@ -23463,7 +23487,7 @@
         <v>1.75</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU117">
         <v>1.48</v>
@@ -23654,7 +23678,7 @@
         <v>1.83</v>
       </c>
       <c r="AT118">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU118">
         <v>1.59</v>
@@ -24033,7 +24057,7 @@
         <v>1</v>
       </c>
       <c r="AS120">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT120">
         <v>0.58</v>
@@ -24137,7 +24161,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24224,10 +24248,10 @@
         <v>0.33</v>
       </c>
       <c r="AS121">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT121">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU121">
         <v>2.29</v>
@@ -24415,7 +24439,7 @@
         <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT122">
         <v>1</v>
@@ -24519,7 +24543,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24606,10 +24630,10 @@
         <v>0.29</v>
       </c>
       <c r="AS123">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT123">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU123">
         <v>2.11</v>
@@ -24800,7 +24824,7 @@
         <v>2.17</v>
       </c>
       <c r="AT124">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU124">
         <v>1.54</v>
@@ -24991,7 +25015,7 @@
         <v>1.83</v>
       </c>
       <c r="AT125">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU125">
         <v>1.56</v>
@@ -25182,7 +25206,7 @@
         <v>1.75</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU126">
         <v>1.43</v>
@@ -25283,7 +25307,7 @@
         <v>162</v>
       </c>
       <c r="P127" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25370,7 +25394,7 @@
         <v>2</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT127">
         <v>1.92</v>
@@ -25561,7 +25585,7 @@
         <v>0.86</v>
       </c>
       <c r="AS128">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT128">
         <v>0.58</v>
@@ -25665,7 +25689,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25943,7 +25967,7 @@
         <v>1</v>
       </c>
       <c r="AS130">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT130">
         <v>1.17</v>
@@ -26047,7 +26071,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26134,7 +26158,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT131">
         <v>0.58</v>
@@ -26429,7 +26453,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26710,7 +26734,7 @@
         <v>2.17</v>
       </c>
       <c r="AT134">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU134">
         <v>1.32</v>
@@ -26901,7 +26925,7 @@
         <v>1.75</v>
       </c>
       <c r="AT135">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU135">
         <v>1.61</v>
@@ -27092,7 +27116,7 @@
         <v>1</v>
       </c>
       <c r="AT136">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU136">
         <v>1.25</v>
@@ -27283,7 +27307,7 @@
         <v>1.58</v>
       </c>
       <c r="AT137">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU137">
         <v>1.75</v>
@@ -27474,7 +27498,7 @@
         <v>2.17</v>
       </c>
       <c r="AT138">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU138">
         <v>1.47</v>
@@ -27665,7 +27689,7 @@
         <v>1.33</v>
       </c>
       <c r="AT139">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU139">
         <v>1.56</v>
@@ -27853,7 +27877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS140">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT140">
         <v>0.58</v>
@@ -28044,7 +28068,7 @@
         <v>0.63</v>
       </c>
       <c r="AS141">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT141">
         <v>0.5</v>
@@ -28148,7 +28172,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28238,7 +28262,7 @@
         <v>1.83</v>
       </c>
       <c r="AT142">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU142">
         <v>1.51</v>
@@ -28339,7 +28363,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28617,7 +28641,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT144">
         <v>1.92</v>
@@ -28808,7 +28832,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT145">
         <v>1.58</v>
@@ -28912,7 +28936,7 @@
         <v>175</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>15</v>
@@ -29002,7 +29026,7 @@
         <v>1.58</v>
       </c>
       <c r="AT146">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU146">
         <v>1.76</v>
@@ -29193,7 +29217,7 @@
         <v>2.17</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU147">
         <v>1.39</v>
@@ -29384,7 +29408,7 @@
         <v>0.92</v>
       </c>
       <c r="AT148">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU148">
         <v>1.41</v>
@@ -29572,7 +29596,7 @@
         <v>1.89</v>
       </c>
       <c r="AS149">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT149">
         <v>1.5</v>
@@ -29763,10 +29787,10 @@
         <v>0.89</v>
       </c>
       <c r="AS150">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT150">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU150">
         <v>1.49</v>
@@ -29867,7 +29891,7 @@
         <v>179</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -29957,7 +29981,7 @@
         <v>0.83</v>
       </c>
       <c r="AT151">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU151">
         <v>1.42</v>
@@ -30058,7 +30082,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30145,7 +30169,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -30249,7 +30273,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30530,7 +30554,7 @@
         <v>2.17</v>
       </c>
       <c r="AT154">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU154">
         <v>1.41</v>
@@ -30718,7 +30742,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT155">
         <v>0.5</v>
@@ -30822,7 +30846,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -31013,7 +31037,7 @@
         <v>185</v>
       </c>
       <c r="P157" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31294,7 +31318,7 @@
         <v>1.75</v>
       </c>
       <c r="AT158">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU158">
         <v>1.62</v>
@@ -31586,7 +31610,7 @@
         <v>81</v>
       </c>
       <c r="P160" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31673,7 +31697,7 @@
         <v>1.44</v>
       </c>
       <c r="AS160">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT160">
         <v>1.58</v>
@@ -31777,7 +31801,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31864,7 +31888,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT161">
         <v>1.17</v>
@@ -31968,7 +31992,7 @@
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q162">
         <v>10</v>
@@ -32055,10 +32079,10 @@
         <v>0.9</v>
       </c>
       <c r="AS162">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT162">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU162">
         <v>2.13</v>
@@ -32159,7 +32183,7 @@
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32249,7 +32273,7 @@
         <v>0.92</v>
       </c>
       <c r="AT163">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU163">
         <v>1.37</v>
@@ -32350,7 +32374,7 @@
         <v>109</v>
       </c>
       <c r="P164" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q164">
         <v>11</v>
@@ -32437,10 +32461,10 @@
         <v>0.4</v>
       </c>
       <c r="AS164">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT164">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU164">
         <v>1.96</v>
@@ -32628,10 +32652,10 @@
         <v>0.8</v>
       </c>
       <c r="AS165">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT165">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU165">
         <v>1.51</v>
@@ -32822,7 +32846,7 @@
         <v>1.58</v>
       </c>
       <c r="AT166">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU166">
         <v>1.81</v>
@@ -33010,7 +33034,7 @@
         <v>1.2</v>
       </c>
       <c r="AS167">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT167">
         <v>1</v>
@@ -33687,7 +33711,7 @@
         <v>86</v>
       </c>
       <c r="P171" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34069,7 +34093,7 @@
         <v>81</v>
       </c>
       <c r="P173" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34156,7 +34180,7 @@
         <v>1.1</v>
       </c>
       <c r="AS173">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT173">
         <v>1.17</v>
@@ -34347,7 +34371,7 @@
         <v>0.7</v>
       </c>
       <c r="AS174">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT174">
         <v>0.58</v>
@@ -34541,7 +34565,7 @@
         <v>2.17</v>
       </c>
       <c r="AT175">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU175">
         <v>1.44</v>
@@ -34642,7 +34666,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34732,7 +34756,7 @@
         <v>0.83</v>
       </c>
       <c r="AT176">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU176">
         <v>1.4</v>
@@ -34833,7 +34857,7 @@
         <v>195</v>
       </c>
       <c r="P177" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -34923,7 +34947,7 @@
         <v>0.92</v>
       </c>
       <c r="AT177">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU177">
         <v>1.36</v>
@@ -35111,10 +35135,10 @@
         <v>0.55</v>
       </c>
       <c r="AS178">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT178">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU178">
         <v>1.94</v>
@@ -35215,7 +35239,7 @@
         <v>197</v>
       </c>
       <c r="P179" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -35305,7 +35329,7 @@
         <v>1</v>
       </c>
       <c r="AT179">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU179">
         <v>1.2</v>
@@ -35496,7 +35520,7 @@
         <v>0.83</v>
       </c>
       <c r="AT180">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU180">
         <v>1.35</v>
@@ -35684,10 +35708,10 @@
         <v>0.82</v>
       </c>
       <c r="AS181">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT181">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU181">
         <v>1.53</v>
@@ -35875,10 +35899,10 @@
         <v>0.82</v>
       </c>
       <c r="AS182">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT182">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU182">
         <v>1.57</v>
@@ -36066,10 +36090,10 @@
         <v>1.73</v>
       </c>
       <c r="AS183">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AT183">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU183">
         <v>2.26</v>
@@ -36257,7 +36281,7 @@
         <v>1.7</v>
       </c>
       <c r="AS184">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT184">
         <v>1.5</v>
@@ -36361,7 +36385,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q185">
         <v>12</v>
@@ -37125,7 +37149,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37403,7 +37427,7 @@
         <v>1.09</v>
       </c>
       <c r="AS190">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT190">
         <v>1</v>
@@ -38031,6 +38055,1534 @@
       </c>
       <c r="BK193">
         <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2449596</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45007.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>25</v>
+      </c>
+      <c r="G194" t="s">
+        <v>72</v>
+      </c>
+      <c r="H194" t="s">
+        <v>69</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>206</v>
+      </c>
+      <c r="P194" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q194">
+        <v>4</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>4</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>2.05</v>
+      </c>
+      <c r="V194">
+        <v>4.5</v>
+      </c>
+      <c r="W194">
+        <v>1.47</v>
+      </c>
+      <c r="X194">
+        <v>2.5</v>
+      </c>
+      <c r="Y194">
+        <v>3.2</v>
+      </c>
+      <c r="Z194">
+        <v>1.3</v>
+      </c>
+      <c r="AA194">
+        <v>7.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.06</v>
+      </c>
+      <c r="AC194">
+        <v>1.75</v>
+      </c>
+      <c r="AD194">
+        <v>3.3</v>
+      </c>
+      <c r="AE194">
+        <v>4</v>
+      </c>
+      <c r="AF194">
+        <v>1.07</v>
+      </c>
+      <c r="AG194">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH194">
+        <v>1.39</v>
+      </c>
+      <c r="AI194">
+        <v>2.76</v>
+      </c>
+      <c r="AJ194">
+        <v>2.1</v>
+      </c>
+      <c r="AK194">
+        <v>1.7</v>
+      </c>
+      <c r="AL194">
+        <v>2</v>
+      </c>
+      <c r="AM194">
+        <v>1.72</v>
+      </c>
+      <c r="AN194">
+        <v>1.17</v>
+      </c>
+      <c r="AO194">
+        <v>1.27</v>
+      </c>
+      <c r="AP194">
+        <v>2.1</v>
+      </c>
+      <c r="AQ194">
+        <v>0.92</v>
+      </c>
+      <c r="AR194">
+        <v>1</v>
+      </c>
+      <c r="AS194">
+        <v>0.92</v>
+      </c>
+      <c r="AT194">
+        <v>1</v>
+      </c>
+      <c r="AU194">
+        <v>1.33</v>
+      </c>
+      <c r="AV194">
+        <v>1.04</v>
+      </c>
+      <c r="AW194">
+        <v>2.37</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>5</v>
+      </c>
+      <c r="BG194">
+        <v>2</v>
+      </c>
+      <c r="BH194">
+        <v>9</v>
+      </c>
+      <c r="BI194">
+        <v>2</v>
+      </c>
+      <c r="BJ194">
+        <v>14</v>
+      </c>
+      <c r="BK194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2449595</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45007.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>25</v>
+      </c>
+      <c r="G195" t="s">
+        <v>67</v>
+      </c>
+      <c r="H195" t="s">
+        <v>70</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>3</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>3</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>96</v>
+      </c>
+      <c r="P195" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q195">
+        <v>9</v>
+      </c>
+      <c r="R195">
+        <v>1</v>
+      </c>
+      <c r="S195">
+        <v>10</v>
+      </c>
+      <c r="T195">
+        <v>1.83</v>
+      </c>
+      <c r="U195">
+        <v>2.25</v>
+      </c>
+      <c r="V195">
+        <v>8</v>
+      </c>
+      <c r="W195">
+        <v>1.38</v>
+      </c>
+      <c r="X195">
+        <v>2.81</v>
+      </c>
+      <c r="Y195">
+        <v>2.77</v>
+      </c>
+      <c r="Z195">
+        <v>1.39</v>
+      </c>
+      <c r="AA195">
+        <v>6.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.08</v>
+      </c>
+      <c r="AC195">
+        <v>1.33</v>
+      </c>
+      <c r="AD195">
+        <v>4.33</v>
+      </c>
+      <c r="AE195">
+        <v>8.5</v>
+      </c>
+      <c r="AF195">
+        <v>1.05</v>
+      </c>
+      <c r="AG195">
+        <v>11.5</v>
+      </c>
+      <c r="AH195">
+        <v>1.27</v>
+      </c>
+      <c r="AI195">
+        <v>3.28</v>
+      </c>
+      <c r="AJ195">
+        <v>1.95</v>
+      </c>
+      <c r="AK195">
+        <v>1.85</v>
+      </c>
+      <c r="AL195">
+        <v>2.25</v>
+      </c>
+      <c r="AM195">
+        <v>1.54</v>
+      </c>
+      <c r="AN195">
+        <v>1.05</v>
+      </c>
+      <c r="AO195">
+        <v>1.17</v>
+      </c>
+      <c r="AP195">
+        <v>2.82</v>
+      </c>
+      <c r="AQ195">
+        <v>2.5</v>
+      </c>
+      <c r="AR195">
+        <v>0.58</v>
+      </c>
+      <c r="AS195">
+        <v>2.31</v>
+      </c>
+      <c r="AT195">
+        <v>0.77</v>
+      </c>
+      <c r="AU195">
+        <v>1.87</v>
+      </c>
+      <c r="AV195">
+        <v>1.43</v>
+      </c>
+      <c r="AW195">
+        <v>3.3</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>5</v>
+      </c>
+      <c r="BG195">
+        <v>7</v>
+      </c>
+      <c r="BH195">
+        <v>6</v>
+      </c>
+      <c r="BI195">
+        <v>3</v>
+      </c>
+      <c r="BJ195">
+        <v>11</v>
+      </c>
+      <c r="BK195">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2449591</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45007.54166666666</v>
+      </c>
+      <c r="F196">
+        <v>25</v>
+      </c>
+      <c r="G196" t="s">
+        <v>77</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>2</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196">
+        <v>5</v>
+      </c>
+      <c r="O196" t="s">
+        <v>207</v>
+      </c>
+      <c r="P196" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q196">
+        <v>9</v>
+      </c>
+      <c r="R196">
+        <v>6</v>
+      </c>
+      <c r="S196">
+        <v>15</v>
+      </c>
+      <c r="T196">
+        <v>2.3</v>
+      </c>
+      <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
+        <v>5.5</v>
+      </c>
+      <c r="W196">
+        <v>1.62</v>
+      </c>
+      <c r="X196">
+        <v>2.15</v>
+      </c>
+      <c r="Y196">
+        <v>3.94</v>
+      </c>
+      <c r="Z196">
+        <v>1.21</v>
+      </c>
+      <c r="AA196">
+        <v>10.5</v>
+      </c>
+      <c r="AB196">
+        <v>1.03</v>
+      </c>
+      <c r="AC196">
+        <v>1.67</v>
+      </c>
+      <c r="AD196">
+        <v>3.2</v>
+      </c>
+      <c r="AE196">
+        <v>5</v>
+      </c>
+      <c r="AF196">
+        <v>1.12</v>
+      </c>
+      <c r="AG196">
+        <v>6.3</v>
+      </c>
+      <c r="AH196">
+        <v>1.52</v>
+      </c>
+      <c r="AI196">
+        <v>2.36</v>
+      </c>
+      <c r="AJ196">
+        <v>2.3</v>
+      </c>
+      <c r="AK196">
+        <v>1.6</v>
+      </c>
+      <c r="AL196">
+        <v>2.14</v>
+      </c>
+      <c r="AM196">
+        <v>1.6</v>
+      </c>
+      <c r="AN196">
+        <v>1.33</v>
+      </c>
+      <c r="AO196">
+        <v>1.36</v>
+      </c>
+      <c r="AP196">
+        <v>1.48</v>
+      </c>
+      <c r="AQ196">
+        <v>1.83</v>
+      </c>
+      <c r="AR196">
+        <v>0.5</v>
+      </c>
+      <c r="AS196">
+        <v>1.92</v>
+      </c>
+      <c r="AT196">
+        <v>0.46</v>
+      </c>
+      <c r="AU196">
+        <v>1.54</v>
+      </c>
+      <c r="AV196">
+        <v>1.15</v>
+      </c>
+      <c r="AW196">
+        <v>2.69</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>10</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>8</v>
+      </c>
+      <c r="BI196">
+        <v>5</v>
+      </c>
+      <c r="BJ196">
+        <v>18</v>
+      </c>
+      <c r="BK196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2449594</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45008.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>25</v>
+      </c>
+      <c r="G197" t="s">
+        <v>71</v>
+      </c>
+      <c r="H197" t="s">
+        <v>66</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>179</v>
+      </c>
+      <c r="P197" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q197">
+        <v>6</v>
+      </c>
+      <c r="R197">
+        <v>4</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>2.1</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>7</v>
+      </c>
+      <c r="W197">
+        <v>1.6</v>
+      </c>
+      <c r="X197">
+        <v>2.2</v>
+      </c>
+      <c r="Y197">
+        <v>3.84</v>
+      </c>
+      <c r="Z197">
+        <v>1.22</v>
+      </c>
+      <c r="AA197">
+        <v>10.5</v>
+      </c>
+      <c r="AB197">
+        <v>1.02</v>
+      </c>
+      <c r="AC197">
+        <v>1.65</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>5.5</v>
+      </c>
+      <c r="AF197">
+        <v>1.08</v>
+      </c>
+      <c r="AG197">
+        <v>5.85</v>
+      </c>
+      <c r="AH197">
+        <v>1.56</v>
+      </c>
+      <c r="AI197">
+        <v>2.27</v>
+      </c>
+      <c r="AJ197">
+        <v>2.45</v>
+      </c>
+      <c r="AK197">
+        <v>1.5</v>
+      </c>
+      <c r="AL197">
+        <v>2.48</v>
+      </c>
+      <c r="AM197">
+        <v>1.45</v>
+      </c>
+      <c r="AN197">
+        <v>1.11</v>
+      </c>
+      <c r="AO197">
+        <v>1.29</v>
+      </c>
+      <c r="AP197">
+        <v>2.06</v>
+      </c>
+      <c r="AQ197">
+        <v>2.5</v>
+      </c>
+      <c r="AR197">
+        <v>0.75</v>
+      </c>
+      <c r="AS197">
+        <v>2.31</v>
+      </c>
+      <c r="AT197">
+        <v>0.92</v>
+      </c>
+      <c r="AU197">
+        <v>2.27</v>
+      </c>
+      <c r="AV197">
+        <v>1.29</v>
+      </c>
+      <c r="AW197">
+        <v>3.56</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>6</v>
+      </c>
+      <c r="BG197">
+        <v>5</v>
+      </c>
+      <c r="BH197">
+        <v>9</v>
+      </c>
+      <c r="BI197">
+        <v>8</v>
+      </c>
+      <c r="BJ197">
+        <v>15</v>
+      </c>
+      <c r="BK197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2449593</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45008.45833333334</v>
+      </c>
+      <c r="F198">
+        <v>25</v>
+      </c>
+      <c r="G198" t="s">
+        <v>80</v>
+      </c>
+      <c r="H198" t="s">
+        <v>68</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198" t="s">
+        <v>81</v>
+      </c>
+      <c r="P198" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q198">
+        <v>16</v>
+      </c>
+      <c r="R198">
+        <v>7</v>
+      </c>
+      <c r="S198">
+        <v>23</v>
+      </c>
+      <c r="T198">
+        <v>3.4</v>
+      </c>
+      <c r="U198">
+        <v>2.05</v>
+      </c>
+      <c r="V198">
+        <v>3.2</v>
+      </c>
+      <c r="W198">
+        <v>1.5</v>
+      </c>
+      <c r="X198">
+        <v>2.4</v>
+      </c>
+      <c r="Y198">
+        <v>3.3</v>
+      </c>
+      <c r="Z198">
+        <v>1.3</v>
+      </c>
+      <c r="AA198">
+        <v>7.75</v>
+      </c>
+      <c r="AB198">
+        <v>1.05</v>
+      </c>
+      <c r="AC198">
+        <v>2.8</v>
+      </c>
+      <c r="AD198">
+        <v>3</v>
+      </c>
+      <c r="AE198">
+        <v>2.45</v>
+      </c>
+      <c r="AF198">
+        <v>1.08</v>
+      </c>
+      <c r="AG198">
+        <v>8.1</v>
+      </c>
+      <c r="AH198">
+        <v>1.41</v>
+      </c>
+      <c r="AI198">
+        <v>2.71</v>
+      </c>
+      <c r="AJ198">
+        <v>2.25</v>
+      </c>
+      <c r="AK198">
+        <v>1.57</v>
+      </c>
+      <c r="AL198">
+        <v>1.85</v>
+      </c>
+      <c r="AM198">
+        <v>1.85</v>
+      </c>
+      <c r="AN198">
+        <v>1.44</v>
+      </c>
+      <c r="AO198">
+        <v>1.3</v>
+      </c>
+      <c r="AP198">
+        <v>1.35</v>
+      </c>
+      <c r="AQ198">
+        <v>1</v>
+      </c>
+      <c r="AR198">
+        <v>0.5</v>
+      </c>
+      <c r="AS198">
+        <v>1</v>
+      </c>
+      <c r="AT198">
+        <v>0.54</v>
+      </c>
+      <c r="AU198">
+        <v>1.3</v>
+      </c>
+      <c r="AV198">
+        <v>1.46</v>
+      </c>
+      <c r="AW198">
+        <v>2.76</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>5</v>
+      </c>
+      <c r="BG198">
+        <v>3</v>
+      </c>
+      <c r="BH198">
+        <v>9</v>
+      </c>
+      <c r="BI198">
+        <v>11</v>
+      </c>
+      <c r="BJ198">
+        <v>14</v>
+      </c>
+      <c r="BK198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2449592</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45008.45833333334</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>65</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>208</v>
+      </c>
+      <c r="P199" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>5</v>
+      </c>
+      <c r="S199">
+        <v>8</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
+        <v>1.91</v>
+      </c>
+      <c r="V199">
+        <v>4</v>
+      </c>
+      <c r="W199">
+        <v>1.52</v>
+      </c>
+      <c r="X199">
+        <v>2.28</v>
+      </c>
+      <c r="Y199">
+        <v>3.56</v>
+      </c>
+      <c r="Z199">
+        <v>1.25</v>
+      </c>
+      <c r="AA199">
+        <v>8.25</v>
+      </c>
+      <c r="AB199">
+        <v>1.04</v>
+      </c>
+      <c r="AC199">
+        <v>2.3</v>
+      </c>
+      <c r="AD199">
+        <v>2.9</v>
+      </c>
+      <c r="AE199">
+        <v>3.05</v>
+      </c>
+      <c r="AF199">
+        <v>1.1</v>
+      </c>
+      <c r="AG199">
+        <v>6.75</v>
+      </c>
+      <c r="AH199">
+        <v>1.5</v>
+      </c>
+      <c r="AI199">
+        <v>2.3</v>
+      </c>
+      <c r="AJ199">
+        <v>2.39</v>
+      </c>
+      <c r="AK199">
+        <v>1.51</v>
+      </c>
+      <c r="AL199">
+        <v>2.09</v>
+      </c>
+      <c r="AM199">
+        <v>1.63</v>
+      </c>
+      <c r="AN199">
+        <v>1.3</v>
+      </c>
+      <c r="AO199">
+        <v>1.33</v>
+      </c>
+      <c r="AP199">
+        <v>1.56</v>
+      </c>
+      <c r="AQ199">
+        <v>2</v>
+      </c>
+      <c r="AR199">
+        <v>1.58</v>
+      </c>
+      <c r="AS199">
+        <v>1.92</v>
+      </c>
+      <c r="AT199">
+        <v>1.54</v>
+      </c>
+      <c r="AU199">
+        <v>1.5</v>
+      </c>
+      <c r="AV199">
+        <v>1.42</v>
+      </c>
+      <c r="AW199">
+        <v>2.92</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>4</v>
+      </c>
+      <c r="BH199">
+        <v>5</v>
+      </c>
+      <c r="BI199">
+        <v>9</v>
+      </c>
+      <c r="BJ199">
+        <v>10</v>
+      </c>
+      <c r="BK199">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2449590</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45008.45833333334</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+      <c r="H200" t="s">
+        <v>73</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>4</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>6</v>
+      </c>
+      <c r="O200" t="s">
+        <v>209</v>
+      </c>
+      <c r="P200" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200">
+        <v>4</v>
+      </c>
+      <c r="S200">
+        <v>7</v>
+      </c>
+      <c r="T200">
+        <v>2.38</v>
+      </c>
+      <c r="U200">
+        <v>2.1</v>
+      </c>
+      <c r="V200">
+        <v>4.5</v>
+      </c>
+      <c r="W200">
+        <v>1.45</v>
+      </c>
+      <c r="X200">
+        <v>2.48</v>
+      </c>
+      <c r="Y200">
+        <v>3.11</v>
+      </c>
+      <c r="Z200">
+        <v>1.3</v>
+      </c>
+      <c r="AA200">
+        <v>7</v>
+      </c>
+      <c r="AB200">
+        <v>1.07</v>
+      </c>
+      <c r="AC200">
+        <v>1.75</v>
+      </c>
+      <c r="AD200">
+        <v>3.5</v>
+      </c>
+      <c r="AE200">
+        <v>4.2</v>
+      </c>
+      <c r="AF200">
+        <v>1.06</v>
+      </c>
+      <c r="AG200">
+        <v>9</v>
+      </c>
+      <c r="AH200">
+        <v>1.36</v>
+      </c>
+      <c r="AI200">
+        <v>2.85</v>
+      </c>
+      <c r="AJ200">
+        <v>1.95</v>
+      </c>
+      <c r="AK200">
+        <v>1.75</v>
+      </c>
+      <c r="AL200">
+        <v>1.85</v>
+      </c>
+      <c r="AM200">
+        <v>1.85</v>
+      </c>
+      <c r="AN200">
+        <v>1.19</v>
+      </c>
+      <c r="AO200">
+        <v>1.29</v>
+      </c>
+      <c r="AP200">
+        <v>1.9</v>
+      </c>
+      <c r="AQ200">
+        <v>1.92</v>
+      </c>
+      <c r="AR200">
+        <v>0.75</v>
+      </c>
+      <c r="AS200">
+        <v>2</v>
+      </c>
+      <c r="AT200">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU200">
+        <v>2.06</v>
+      </c>
+      <c r="AV200">
+        <v>1.35</v>
+      </c>
+      <c r="AW200">
+        <v>3.41</v>
+      </c>
+      <c r="AX200">
+        <v>0</v>
+      </c>
+      <c r="AY200">
+        <v>0</v>
+      </c>
+      <c r="AZ200">
+        <v>0</v>
+      </c>
+      <c r="BA200">
+        <v>0</v>
+      </c>
+      <c r="BB200">
+        <v>0</v>
+      </c>
+      <c r="BC200">
+        <v>0</v>
+      </c>
+      <c r="BD200">
+        <v>0</v>
+      </c>
+      <c r="BE200">
+        <v>0</v>
+      </c>
+      <c r="BF200">
+        <v>7</v>
+      </c>
+      <c r="BG200">
+        <v>5</v>
+      </c>
+      <c r="BH200">
+        <v>2</v>
+      </c>
+      <c r="BI200">
+        <v>8</v>
+      </c>
+      <c r="BJ200">
+        <v>9</v>
+      </c>
+      <c r="BK200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2665879</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45008.45833333334</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>76</v>
+      </c>
+      <c r="H201" t="s">
+        <v>79</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>155</v>
+      </c>
+      <c r="P201" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q201">
+        <v>4</v>
+      </c>
+      <c r="R201">
+        <v>3</v>
+      </c>
+      <c r="S201">
+        <v>7</v>
+      </c>
+      <c r="T201">
+        <v>2.63</v>
+      </c>
+      <c r="U201">
+        <v>1.95</v>
+      </c>
+      <c r="V201">
+        <v>4.75</v>
+      </c>
+      <c r="W201">
+        <v>1.56</v>
+      </c>
+      <c r="X201">
+        <v>2.3</v>
+      </c>
+      <c r="Y201">
+        <v>3.56</v>
+      </c>
+      <c r="Z201">
+        <v>1.25</v>
+      </c>
+      <c r="AA201">
+        <v>8.75</v>
+      </c>
+      <c r="AB201">
+        <v>1.04</v>
+      </c>
+      <c r="AC201">
+        <v>2</v>
+      </c>
+      <c r="AD201">
+        <v>3</v>
+      </c>
+      <c r="AE201">
+        <v>3.7</v>
+      </c>
+      <c r="AF201">
+        <v>1.1</v>
+      </c>
+      <c r="AG201">
+        <v>7.05</v>
+      </c>
+      <c r="AH201">
+        <v>1.52</v>
+      </c>
+      <c r="AI201">
+        <v>2.37</v>
+      </c>
+      <c r="AJ201">
+        <v>2.4</v>
+      </c>
+      <c r="AK201">
+        <v>1.5</v>
+      </c>
+      <c r="AL201">
+        <v>2.2</v>
+      </c>
+      <c r="AM201">
+        <v>1.6</v>
+      </c>
+      <c r="AN201">
+        <v>1.22</v>
+      </c>
+      <c r="AO201">
+        <v>1.3</v>
+      </c>
+      <c r="AP201">
+        <v>1.6</v>
+      </c>
+      <c r="AQ201">
+        <v>1.75</v>
+      </c>
+      <c r="AR201">
+        <v>0.83</v>
+      </c>
+      <c r="AS201">
+        <v>1.69</v>
+      </c>
+      <c r="AT201">
+        <v>0.85</v>
+      </c>
+      <c r="AU201">
+        <v>1.6</v>
+      </c>
+      <c r="AV201">
+        <v>1.35</v>
+      </c>
+      <c r="AW201">
+        <v>2.95</v>
+      </c>
+      <c r="AX201">
+        <v>0</v>
+      </c>
+      <c r="AY201">
+        <v>0</v>
+      </c>
+      <c r="AZ201">
+        <v>0</v>
+      </c>
+      <c r="BA201">
+        <v>0</v>
+      </c>
+      <c r="BB201">
+        <v>0</v>
+      </c>
+      <c r="BC201">
+        <v>0</v>
+      </c>
+      <c r="BD201">
+        <v>0</v>
+      </c>
+      <c r="BE201">
+        <v>0</v>
+      </c>
+      <c r="BF201">
+        <v>4</v>
+      </c>
+      <c r="BG201">
+        <v>5</v>
+      </c>
+      <c r="BH201">
+        <v>7</v>
+      </c>
+      <c r="BI201">
+        <v>5</v>
+      </c>
+      <c r="BJ201">
+        <v>11</v>
+      </c>
+      <c r="BK201">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,10 +580,10 @@
     <t>['79']</t>
   </si>
   <si>
-    <t>['43', '60', '76', '80', '87', '90+4']</t>
+    <t>['7', '20']</t>
   </si>
   <si>
-    <t>['7', '20']</t>
+    <t>['43', '60', '76', '80', '87', '90+4']</t>
   </si>
   <si>
     <t>['26', '76']</t>
@@ -604,16 +604,16 @@
     <t>['61', '90+3']</t>
   </si>
   <si>
-    <t>['32', '33']</t>
-  </si>
-  <si>
-    <t>['70']</t>
+    <t>['50']</t>
   </si>
   <si>
     <t>['39', '89']</t>
   </si>
   <si>
-    <t>['50']</t>
+    <t>['32', '33']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
   <si>
     <t>['39', '47']</t>
@@ -628,10 +628,10 @@
     <t>['12', '43']</t>
   </si>
   <si>
-    <t>['73', '90+2']</t>
+    <t>['48']</t>
   </si>
   <si>
-    <t>['48']</t>
+    <t>['73', '90+2']</t>
   </si>
   <si>
     <t>['55']</t>
@@ -640,10 +640,22 @@
     <t>['5', '36', '90+4']</t>
   </si>
   <si>
+    <t>['24', '34', '88', '90+2']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['24', '34', '88', '90+2']</t>
+    <t>['17', '52']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['57', '73']</t>
   </si>
   <si>
     <t>['57']</t>
@@ -799,10 +811,10 @@
     <t>['29', '32', '71']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['13', '33', '86']</t>
   </si>
   <si>
-    <t>['13', '33', '86']</t>
+    <t>['68']</t>
   </si>
   <si>
     <t>['67', '80']</t>
@@ -817,16 +829,22 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['18', '44', '69']</t>
+  </si>
+  <si>
     <t>['11']</t>
   </si>
   <si>
-    <t>['18', '44', '69']</t>
+    <t>['56', '84']</t>
   </si>
   <si>
     <t>['8', '85']</t>
   </si>
   <si>
-    <t>['56', '84']</t>
+    <t>['22', '65', '77']</t>
+  </si>
+  <si>
+    <t>['59']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT2">
         <v>0.6899999999999999</v>
@@ -1710,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT3">
         <v>0.85</v>
@@ -1814,7 +1832,7 @@
         <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1904,7 +1922,7 @@
         <v>2.31</v>
       </c>
       <c r="AT4">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2092,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT5">
         <v>0.46</v>
@@ -2196,7 +2214,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2283,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2387,7 +2405,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -2474,10 +2492,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2578,7 +2596,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -2668,7 +2686,7 @@
         <v>2.31</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2769,7 +2787,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2859,7 +2877,7 @@
         <v>0.92</v>
       </c>
       <c r="AT9">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2960,7 +2978,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3047,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT10">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3429,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT12">
         <v>0.92</v>
@@ -3533,7 +3551,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3620,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT13">
         <v>0.54</v>
@@ -3814,7 +3832,7 @@
         <v>1.69</v>
       </c>
       <c r="AT14">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3915,7 +3933,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4005,7 +4023,7 @@
         <v>1.92</v>
       </c>
       <c r="AT15">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4196,7 +4214,7 @@
         <v>1.92</v>
       </c>
       <c r="AT16">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4384,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT17">
         <v>0.77</v>
@@ -4578,7 +4596,7 @@
         <v>2.31</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU18">
         <v>2.27</v>
@@ -4679,7 +4697,7 @@
         <v>94</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4766,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT19">
         <v>1.54</v>
@@ -4957,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT20">
         <v>0.85</v>
@@ -5151,7 +5169,7 @@
         <v>2.31</v>
       </c>
       <c r="AT21">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU21">
         <v>3.02</v>
@@ -5342,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5443,7 +5461,7 @@
         <v>81</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5533,7 +5551,7 @@
         <v>0.92</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU23">
         <v>1.75</v>
@@ -5721,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT24">
         <v>0.46</v>
@@ -5825,7 +5843,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -5912,7 +5930,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT25">
         <v>0.6899999999999999</v>
@@ -6103,10 +6121,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6294,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
         <v>0.77</v>
@@ -6488,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="AT28">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU28">
         <v>1.89</v>
@@ -6589,7 +6607,7 @@
         <v>81</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>10</v>
@@ -6679,7 +6697,7 @@
         <v>1.69</v>
       </c>
       <c r="AT29">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU29">
         <v>0.93</v>
@@ -6867,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7058,10 +7076,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT31">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU31">
         <v>1.37</v>
@@ -7249,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT32">
         <v>0.92</v>
@@ -7353,7 +7371,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7443,7 +7461,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU33">
         <v>1.31</v>
@@ -7544,7 +7562,7 @@
         <v>96</v>
       </c>
       <c r="P34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7631,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT34">
         <v>1.54</v>
@@ -8016,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU36">
         <v>1.43</v>
@@ -8204,7 +8222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>0.6899999999999999</v>
@@ -8499,7 +8517,7 @@
         <v>107</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8589,7 +8607,7 @@
         <v>2.31</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU39">
         <v>3.02</v>
@@ -8780,7 +8798,7 @@
         <v>1.92</v>
       </c>
       <c r="AT40">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU40">
         <v>0.82</v>
@@ -8968,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT41">
         <v>0.54</v>
@@ -9162,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="AT42">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU42">
         <v>1.73</v>
@@ -9263,7 +9281,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9353,7 +9371,7 @@
         <v>1.69</v>
       </c>
       <c r="AT43">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU43">
         <v>1.71</v>
@@ -9454,7 +9472,7 @@
         <v>81</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>-1</v>
@@ -9541,10 +9559,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT44">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU44">
         <v>1.37</v>
@@ -9732,10 +9750,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT45">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU45">
         <v>1.44</v>
@@ -9923,10 +9941,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT46">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU46">
         <v>1.65</v>
@@ -10114,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
         <v>0.77</v>
@@ -10218,7 +10236,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10305,10 +10323,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT48">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU48">
         <v>1.59</v>
@@ -10496,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AS49">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10791,7 +10809,7 @@
         <v>114</v>
       </c>
       <c r="P51" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -11069,7 +11087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT52">
         <v>0.6899999999999999</v>
@@ -11260,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT53">
         <v>0.92</v>
@@ -11746,7 +11764,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11836,7 +11854,7 @@
         <v>1.92</v>
       </c>
       <c r="AT56">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU56">
         <v>1.47</v>
@@ -11937,7 +11955,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12027,7 +12045,7 @@
         <v>1.92</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU57">
         <v>1.65</v>
@@ -12215,10 +12233,10 @@
         <v>0.75</v>
       </c>
       <c r="AS58">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU58">
         <v>1.37</v>
@@ -12406,10 +12424,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT59">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU59">
         <v>1.32</v>
@@ -12600,7 +12618,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU60">
         <v>2.04</v>
@@ -12701,7 +12719,7 @@
         <v>81</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>5</v>
@@ -12788,10 +12806,10 @@
         <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU61">
         <v>1.72</v>
@@ -12892,7 +12910,7 @@
         <v>107</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q62">
         <v>4</v>
@@ -12979,10 +12997,10 @@
         <v>2</v>
       </c>
       <c r="AS62">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT62">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU62">
         <v>1.68</v>
@@ -13083,7 +13101,7 @@
         <v>123</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>8</v>
@@ -13170,7 +13188,7 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT63">
         <v>1</v>
@@ -13361,10 +13379,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT64">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU64">
         <v>1.6</v>
@@ -13465,7 +13483,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -13552,10 +13570,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT65">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU65">
         <v>1.6</v>
@@ -13656,7 +13674,7 @@
         <v>96</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13746,7 +13764,7 @@
         <v>1.69</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>1.74</v>
@@ -13847,7 +13865,7 @@
         <v>81</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13934,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT67">
         <v>0.6899999999999999</v>
@@ -14038,7 +14056,7 @@
         <v>126</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14420,7 +14438,7 @@
         <v>128</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>12</v>
@@ -15271,10 +15289,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU74">
         <v>1.43</v>
@@ -15462,10 +15480,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT75">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU75">
         <v>1.3</v>
@@ -15653,10 +15671,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT76">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU76">
         <v>1.65</v>
@@ -15757,7 +15775,7 @@
         <v>132</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15844,10 +15862,10 @@
         <v>0.4</v>
       </c>
       <c r="AS77">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT77">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -15948,7 +15966,7 @@
         <v>133</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>5</v>
@@ -16035,10 +16053,10 @@
         <v>0.75</v>
       </c>
       <c r="AS78">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT78">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU78">
         <v>1.27</v>
@@ -16226,10 +16244,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT79">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU79">
         <v>1.64</v>
@@ -16417,10 +16435,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT80">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU80">
         <v>1.76</v>
@@ -17285,7 +17303,7 @@
         <v>136</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>6</v>
@@ -17476,7 +17494,7 @@
         <v>137</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>8</v>
@@ -17754,10 +17772,10 @@
         <v>1.6</v>
       </c>
       <c r="AS87">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT87">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU87">
         <v>1.42</v>
@@ -17858,7 +17876,7 @@
         <v>138</v>
       </c>
       <c r="P88" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17945,10 +17963,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU88">
         <v>1.54</v>
@@ -18049,7 +18067,7 @@
         <v>139</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>3</v>
@@ -18139,7 +18157,7 @@
         <v>0.92</v>
       </c>
       <c r="AT89">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU89">
         <v>1.22</v>
@@ -18327,10 +18345,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT90">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU90">
         <v>1.67</v>
@@ -18518,10 +18536,10 @@
         <v>2.2</v>
       </c>
       <c r="AS91">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>1.68</v>
@@ -18709,7 +18727,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT92">
         <v>0.85</v>
@@ -18900,10 +18918,10 @@
         <v>0.83</v>
       </c>
       <c r="AS93">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT93">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU93">
         <v>1.3</v>
@@ -19091,10 +19109,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT94">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU94">
         <v>1.64</v>
@@ -19386,7 +19404,7 @@
         <v>144</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>12</v>
@@ -19577,7 +19595,7 @@
         <v>145</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19768,7 +19786,7 @@
         <v>146</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>9</v>
@@ -19858,7 +19876,7 @@
         <v>2.31</v>
       </c>
       <c r="AT98">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU98">
         <v>2.14</v>
@@ -19959,7 +19977,7 @@
         <v>147</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20619,7 +20637,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT102">
         <v>0.46</v>
@@ -20914,7 +20932,7 @@
         <v>149</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21001,7 +21019,7 @@
         <v>0.14</v>
       </c>
       <c r="AS104">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT104">
         <v>0.46</v>
@@ -21195,7 +21213,7 @@
         <v>2.31</v>
       </c>
       <c r="AT105">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU105">
         <v>2.16</v>
@@ -21296,7 +21314,7 @@
         <v>150</v>
       </c>
       <c r="P106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -21386,7 +21404,7 @@
         <v>0.92</v>
       </c>
       <c r="AT106">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU106">
         <v>1.25</v>
@@ -21487,7 +21505,7 @@
         <v>151</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21574,10 +21592,10 @@
         <v>1.83</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU107">
         <v>1.6</v>
@@ -21678,7 +21696,7 @@
         <v>152</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21765,10 +21783,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT108">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU108">
         <v>1.42</v>
@@ -21956,7 +21974,7 @@
         <v>0.86</v>
       </c>
       <c r="AS109">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT109">
         <v>0.85</v>
@@ -22147,10 +22165,10 @@
         <v>0.57</v>
       </c>
       <c r="AS110">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT110">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU110">
         <v>1.71</v>
@@ -22338,10 +22356,10 @@
         <v>1.29</v>
       </c>
       <c r="AS111">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT111">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111">
         <v>1.29</v>
@@ -22442,7 +22460,7 @@
         <v>81</v>
       </c>
       <c r="P112" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22529,10 +22547,10 @@
         <v>2</v>
       </c>
       <c r="AS112">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT112">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU112">
         <v>1.76</v>
@@ -23206,7 +23224,7 @@
         <v>156</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>5</v>
@@ -23484,7 +23502,7 @@
         <v>0.83</v>
       </c>
       <c r="AS117">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT117">
         <v>0.54</v>
@@ -23675,7 +23693,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT118">
         <v>1.54</v>
@@ -23869,7 +23887,7 @@
         <v>1</v>
       </c>
       <c r="AT119">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU119">
         <v>1.35</v>
@@ -24060,7 +24078,7 @@
         <v>1.92</v>
       </c>
       <c r="AT120">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU120">
         <v>1.52</v>
@@ -24161,7 +24179,7 @@
         <v>159</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24543,7 +24561,7 @@
         <v>160</v>
       </c>
       <c r="P123" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24821,7 +24839,7 @@
         <v>1.86</v>
       </c>
       <c r="AS124">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT124">
         <v>1.54</v>
@@ -25012,7 +25030,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT125">
         <v>0.54</v>
@@ -25203,7 +25221,7 @@
         <v>0.43</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT126">
         <v>0.92</v>
@@ -25307,7 +25325,7 @@
         <v>162</v>
       </c>
       <c r="P127" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25397,7 +25415,7 @@
         <v>1.92</v>
       </c>
       <c r="AT127">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU127">
         <v>1.49</v>
@@ -25498,7 +25516,7 @@
         <v>163</v>
       </c>
       <c r="P128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25588,7 +25606,7 @@
         <v>1.92</v>
       </c>
       <c r="AT128">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU128">
         <v>1.67</v>
@@ -25689,7 +25707,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25779,7 +25797,7 @@
         <v>1</v>
       </c>
       <c r="AT129">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU129">
         <v>1.25</v>
@@ -25970,7 +25988,7 @@
         <v>2.31</v>
       </c>
       <c r="AT130">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU130">
         <v>2.23</v>
@@ -26071,7 +26089,7 @@
         <v>164</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26161,7 +26179,7 @@
         <v>2.31</v>
       </c>
       <c r="AT131">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU131">
         <v>2.1</v>
@@ -26349,10 +26367,10 @@
         <v>2.13</v>
       </c>
       <c r="AS132">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU132">
         <v>1.45</v>
@@ -26453,7 +26471,7 @@
         <v>166</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -26543,7 +26561,7 @@
         <v>0.92</v>
       </c>
       <c r="AT133">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU133">
         <v>1.39</v>
@@ -26731,7 +26749,7 @@
         <v>0.13</v>
       </c>
       <c r="AS134">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT134">
         <v>0.46</v>
@@ -26922,7 +26940,7 @@
         <v>1.75</v>
       </c>
       <c r="AS135">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT135">
         <v>1.54</v>
@@ -27304,7 +27322,7 @@
         <v>0.88</v>
       </c>
       <c r="AS137">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT137">
         <v>0.85</v>
@@ -27495,7 +27513,7 @@
         <v>0.63</v>
       </c>
       <c r="AS138">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT138">
         <v>0.54</v>
@@ -27686,7 +27704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT139">
         <v>0.92</v>
@@ -27880,7 +27898,7 @@
         <v>2</v>
       </c>
       <c r="AT140">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU140">
         <v>2.13</v>
@@ -28071,7 +28089,7 @@
         <v>1.92</v>
       </c>
       <c r="AT141">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU141">
         <v>1.43</v>
@@ -28172,7 +28190,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>2</v>
@@ -28259,7 +28277,7 @@
         <v>0.25</v>
       </c>
       <c r="AS142">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT142">
         <v>0.77</v>
@@ -28363,7 +28381,7 @@
         <v>173</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28450,7 +28468,7 @@
         <v>1.25</v>
       </c>
       <c r="AS143">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28644,7 +28662,7 @@
         <v>1.69</v>
       </c>
       <c r="AT144">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU144">
         <v>1.61</v>
@@ -28835,7 +28853,7 @@
         <v>1.92</v>
       </c>
       <c r="AT145">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU145">
         <v>1.63</v>
@@ -28936,7 +28954,7 @@
         <v>175</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>15</v>
@@ -29023,7 +29041,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT146">
         <v>1.54</v>
@@ -29214,7 +29232,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT147">
         <v>0.54</v>
@@ -29599,7 +29617,7 @@
         <v>2.31</v>
       </c>
       <c r="AT149">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU149">
         <v>2.02</v>
@@ -29891,7 +29909,7 @@
         <v>179</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>5</v>
@@ -29978,7 +29996,7 @@
         <v>0.11</v>
       </c>
       <c r="AS151">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT151">
         <v>0.46</v>
@@ -30082,7 +30100,7 @@
         <v>180</v>
       </c>
       <c r="P152" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30172,7 +30190,7 @@
         <v>2.31</v>
       </c>
       <c r="AT152">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU152">
         <v>2.21</v>
@@ -30273,7 +30291,7 @@
         <v>181</v>
       </c>
       <c r="P153" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30363,7 +30381,7 @@
         <v>1</v>
       </c>
       <c r="AT153">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU153">
         <v>1.25</v>
@@ -30551,7 +30569,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT154">
         <v>0.92</v>
@@ -30745,7 +30763,7 @@
         <v>1.69</v>
       </c>
       <c r="AT155">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU155">
         <v>1.53</v>
@@ -30846,7 +30864,7 @@
         <v>184</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>2</v>
@@ -30933,10 +30951,10 @@
         <v>1.89</v>
       </c>
       <c r="AS156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT156">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AU156">
         <v>1.45</v>
@@ -31037,7 +31055,7 @@
         <v>185</v>
       </c>
       <c r="P157" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31124,10 +31142,10 @@
         <v>0.67</v>
       </c>
       <c r="AS157">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT157">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU157">
         <v>1.44</v>
@@ -31315,7 +31333,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT158">
         <v>0.77</v>
@@ -31506,7 +31524,7 @@
         <v>1.22</v>
       </c>
       <c r="AS159">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -31610,7 +31628,7 @@
         <v>81</v>
       </c>
       <c r="P160" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31700,7 +31718,7 @@
         <v>2</v>
       </c>
       <c r="AT160">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU160">
         <v>2.17</v>
@@ -31801,7 +31819,7 @@
         <v>81</v>
       </c>
       <c r="P161" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q161">
         <v>10</v>
@@ -31891,7 +31909,7 @@
         <v>1.92</v>
       </c>
       <c r="AT161">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161">
         <v>1.58</v>
@@ -31950,7 +31968,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2449564</v>
+        <v>2449566</v>
       </c>
       <c r="C162" t="s">
         <v>63</v>
@@ -31965,91 +31983,91 @@
         <v>21</v>
       </c>
       <c r="G162" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H162" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N162">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O162" t="s">
         <v>188</v>
       </c>
       <c r="P162" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q162">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S162">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T162">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V162">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="W162">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X162">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Y162">
-        <v>3.09</v>
+        <v>3.5</v>
       </c>
       <c r="Z162">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AA162">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AB162">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC162">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD162">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AE162">
-        <v>7.5</v>
+        <v>2.63</v>
       </c>
       <c r="AF162">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG162">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="AH162">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI162">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AJ162">
         <v>2.5</v>
@@ -32058,40 +32076,40 @@
         <v>1.5</v>
       </c>
       <c r="AL162">
-        <v>2.85</v>
+        <v>2.05</v>
       </c>
       <c r="AM162">
-        <v>1.4</v>
+        <v>1.68</v>
       </c>
       <c r="AN162">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="AO162">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="AP162">
-        <v>3.4</v>
+        <v>1.41</v>
       </c>
       <c r="AQ162">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AR162">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="AS162">
-        <v>2.31</v>
+        <v>0.92</v>
       </c>
       <c r="AT162">
-        <v>0.85</v>
+        <v>1.54</v>
       </c>
       <c r="AU162">
-        <v>2.13</v>
+        <v>1.37</v>
       </c>
       <c r="AV162">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="AW162">
-        <v>3.44</v>
+        <v>2.76</v>
       </c>
       <c r="AX162">
         <v>0</v>
@@ -32118,22 +32136,22 @@
         <v>0</v>
       </c>
       <c r="BF162">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BG162">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BH162">
+        <v>1</v>
+      </c>
+      <c r="BI162">
+        <v>3</v>
+      </c>
+      <c r="BJ162">
+        <v>6</v>
+      </c>
+      <c r="BK162">
         <v>9</v>
-      </c>
-      <c r="BI162">
-        <v>5</v>
-      </c>
-      <c r="BJ162">
-        <v>26</v>
-      </c>
-      <c r="BK162">
-        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:63">
@@ -32141,7 +32159,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2449566</v>
+        <v>2449564</v>
       </c>
       <c r="C163" t="s">
         <v>63</v>
@@ -32156,91 +32174,91 @@
         <v>21</v>
       </c>
       <c r="G163" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H163" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O163" t="s">
         <v>189</v>
       </c>
       <c r="P163" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q163">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T163">
+        <v>2.1</v>
+      </c>
+      <c r="U163">
+        <v>2</v>
+      </c>
+      <c r="V163">
+        <v>7.5</v>
+      </c>
+      <c r="W163">
+        <v>1.45</v>
+      </c>
+      <c r="X163">
+        <v>2.3</v>
+      </c>
+      <c r="Y163">
+        <v>3.09</v>
+      </c>
+      <c r="Z163">
+        <v>1.16</v>
+      </c>
+      <c r="AA163">
+        <v>7.8</v>
+      </c>
+      <c r="AB163">
+        <v>1.05</v>
+      </c>
+      <c r="AC163">
+        <v>1.5</v>
+      </c>
+      <c r="AD163">
         <v>3.4</v>
       </c>
-      <c r="U163">
-        <v>1.91</v>
-      </c>
-      <c r="V163">
-        <v>3.4</v>
-      </c>
-      <c r="W163">
-        <v>1.55</v>
-      </c>
-      <c r="X163">
-        <v>2.28</v>
-      </c>
-      <c r="Y163">
-        <v>3.5</v>
-      </c>
-      <c r="Z163">
-        <v>1.25</v>
-      </c>
-      <c r="AA163">
-        <v>8.25</v>
-      </c>
-      <c r="AB163">
-        <v>1.04</v>
-      </c>
-      <c r="AC163">
-        <v>2.7</v>
-      </c>
-      <c r="AD163">
-        <v>2.8</v>
-      </c>
       <c r="AE163">
-        <v>2.63</v>
+        <v>7.5</v>
       </c>
       <c r="AF163">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG163">
-        <v>6.6</v>
+        <v>9.6</v>
       </c>
       <c r="AH163">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AI163">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="AJ163">
         <v>2.5</v>
@@ -32249,40 +32267,40 @@
         <v>1.5</v>
       </c>
       <c r="AL163">
-        <v>2.05</v>
+        <v>2.85</v>
       </c>
       <c r="AM163">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="AN163">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="AO163">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="AP163">
-        <v>1.41</v>
+        <v>3.4</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="AR163">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AS163">
-        <v>0.92</v>
+        <v>2.31</v>
       </c>
       <c r="AT163">
-        <v>1.54</v>
+        <v>0.85</v>
       </c>
       <c r="AU163">
-        <v>1.37</v>
+        <v>2.13</v>
       </c>
       <c r="AV163">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="AW163">
-        <v>2.76</v>
+        <v>3.44</v>
       </c>
       <c r="AX163">
         <v>0</v>
@@ -32309,22 +32327,22 @@
         <v>0</v>
       </c>
       <c r="BF163">
+        <v>17</v>
+      </c>
+      <c r="BG163">
+        <v>8</v>
+      </c>
+      <c r="BH163">
+        <v>9</v>
+      </c>
+      <c r="BI163">
         <v>5</v>
       </c>
-      <c r="BG163">
-        <v>6</v>
-      </c>
-      <c r="BH163">
-        <v>1</v>
-      </c>
-      <c r="BI163">
-        <v>3</v>
-      </c>
       <c r="BJ163">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="BK163">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:63">
@@ -32374,7 +32392,7 @@
         <v>109</v>
       </c>
       <c r="P164" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q164">
         <v>11</v>
@@ -32843,7 +32861,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT166">
         <v>0.92</v>
@@ -33037,7 +33055,7 @@
         <v>1.92</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU167">
         <v>1.46</v>
@@ -33225,10 +33243,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT168">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU168">
         <v>1.48</v>
@@ -33287,7 +33305,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2449571</v>
+        <v>2449573</v>
       </c>
       <c r="C169" t="s">
         <v>63</v>
@@ -33302,10 +33320,10 @@
         <v>22</v>
       </c>
       <c r="G169" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H169" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -33320,157 +33338,157 @@
         <v>1</v>
       </c>
       <c r="M169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N169">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O169" t="s">
-        <v>192</v>
+        <v>86</v>
       </c>
       <c r="P169" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="Q169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R169">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S169">
+        <v>19</v>
+      </c>
+      <c r="T169">
+        <v>6.5</v>
+      </c>
+      <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
+        <v>2.25</v>
+      </c>
+      <c r="W169">
+        <v>1.52</v>
+      </c>
+      <c r="X169">
+        <v>2.19</v>
+      </c>
+      <c r="Y169">
+        <v>3.05</v>
+      </c>
+      <c r="Z169">
+        <v>1.31</v>
+      </c>
+      <c r="AA169">
+        <v>7.25</v>
+      </c>
+      <c r="AB169">
+        <v>1.06</v>
+      </c>
+      <c r="AC169">
+        <v>5.2</v>
+      </c>
+      <c r="AD169">
+        <v>3.15</v>
+      </c>
+      <c r="AE169">
+        <v>1.7</v>
+      </c>
+      <c r="AF169">
+        <v>1.06</v>
+      </c>
+      <c r="AG169">
+        <v>9.5</v>
+      </c>
+      <c r="AH169">
+        <v>1.36</v>
+      </c>
+      <c r="AI169">
+        <v>2.89</v>
+      </c>
+      <c r="AJ169">
+        <v>2.16</v>
+      </c>
+      <c r="AK169">
+        <v>1.49</v>
+      </c>
+      <c r="AL169">
+        <v>2.5</v>
+      </c>
+      <c r="AM169">
+        <v>1.48</v>
+      </c>
+      <c r="AN169">
+        <v>2.78</v>
+      </c>
+      <c r="AO169">
+        <v>1.22</v>
+      </c>
+      <c r="AP169">
+        <v>1.02</v>
+      </c>
+      <c r="AQ169">
+        <v>1.9</v>
+      </c>
+      <c r="AR169">
+        <v>1.6</v>
+      </c>
+      <c r="AS169">
+        <v>1.92</v>
+      </c>
+      <c r="AT169">
+        <v>1.46</v>
+      </c>
+      <c r="AU169">
+        <v>1.45</v>
+      </c>
+      <c r="AV169">
+        <v>1.4</v>
+      </c>
+      <c r="AW169">
+        <v>2.85</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
         <v>6</v>
       </c>
-      <c r="T169">
-        <v>3</v>
-      </c>
-      <c r="U169">
-        <v>1.91</v>
-      </c>
-      <c r="V169">
+      <c r="BG169">
+        <v>8</v>
+      </c>
+      <c r="BH169">
         <v>4</v>
       </c>
-      <c r="W169">
-        <v>1.5</v>
-      </c>
-      <c r="X169">
-        <v>2.4</v>
-      </c>
-      <c r="Y169">
-        <v>3.4</v>
-      </c>
-      <c r="Z169">
-        <v>1.27</v>
-      </c>
-      <c r="AA169">
-        <v>8</v>
-      </c>
-      <c r="AB169">
-        <v>1.04</v>
-      </c>
-      <c r="AC169">
-        <v>2.02</v>
-      </c>
-      <c r="AD169">
-        <v>3</v>
-      </c>
-      <c r="AE169">
-        <v>3.7</v>
-      </c>
-      <c r="AF169">
-        <v>1.09</v>
-      </c>
-      <c r="AG169">
-        <v>7.85</v>
-      </c>
-      <c r="AH169">
-        <v>1.41</v>
-      </c>
-      <c r="AI169">
-        <v>2.68</v>
-      </c>
-      <c r="AJ169">
-        <v>2.18</v>
-      </c>
-      <c r="AK169">
-        <v>1.48</v>
-      </c>
-      <c r="AL169">
-        <v>2.1</v>
-      </c>
-      <c r="AM169">
-        <v>1.68</v>
-      </c>
-      <c r="AN169">
-        <v>1.27</v>
-      </c>
-      <c r="AO169">
-        <v>1.36</v>
-      </c>
-      <c r="AP169">
-        <v>1.57</v>
-      </c>
-      <c r="AQ169">
-        <v>1.5</v>
-      </c>
-      <c r="AR169">
-        <v>0.6</v>
-      </c>
-      <c r="AS169">
-        <v>1.75</v>
-      </c>
-      <c r="AT169">
-        <v>0.58</v>
-      </c>
-      <c r="AU169">
-        <v>1.6</v>
-      </c>
-      <c r="AV169">
-        <v>1.32</v>
-      </c>
-      <c r="AW169">
-        <v>2.92</v>
-      </c>
-      <c r="AX169">
-        <v>0</v>
-      </c>
-      <c r="AY169">
-        <v>0</v>
-      </c>
-      <c r="AZ169">
-        <v>0</v>
-      </c>
-      <c r="BA169">
-        <v>0</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
-      <c r="BC169">
-        <v>0</v>
-      </c>
-      <c r="BD169">
-        <v>0</v>
-      </c>
-      <c r="BE169">
-        <v>0</v>
-      </c>
-      <c r="BF169">
-        <v>5</v>
-      </c>
-      <c r="BG169">
-        <v>4</v>
-      </c>
-      <c r="BH169">
-        <v>6</v>
-      </c>
       <c r="BI169">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BJ169">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BK169">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:63">
@@ -33478,7 +33496,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2449570</v>
+        <v>2449572</v>
       </c>
       <c r="C170" t="s">
         <v>63</v>
@@ -33493,175 +33511,175 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H170" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I170">
         <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170">
         <v>1</v>
       </c>
       <c r="N170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O170" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="P170" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="Q170">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T170">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="U170">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V170">
-        <v>6</v>
+        <v>2.88</v>
       </c>
       <c r="W170">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="X170">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Y170">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Z170">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AA170">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB170">
         <v>1.04</v>
       </c>
       <c r="AC170">
-        <v>1.67</v>
+        <v>3.3</v>
       </c>
       <c r="AD170">
+        <v>2.95</v>
+      </c>
+      <c r="AE170">
+        <v>2.18</v>
+      </c>
+      <c r="AF170">
+        <v>1.07</v>
+      </c>
+      <c r="AG170">
+        <v>7.75</v>
+      </c>
+      <c r="AH170">
+        <v>1.4</v>
+      </c>
+      <c r="AI170">
+        <v>2.7</v>
+      </c>
+      <c r="AJ170">
+        <v>2.26</v>
+      </c>
+      <c r="AK170">
+        <v>1.54</v>
+      </c>
+      <c r="AL170">
+        <v>1.9</v>
+      </c>
+      <c r="AM170">
+        <v>1.8</v>
+      </c>
+      <c r="AN170">
+        <v>1.6</v>
+      </c>
+      <c r="AO170">
+        <v>1.34</v>
+      </c>
+      <c r="AP170">
+        <v>1.28</v>
+      </c>
+      <c r="AQ170">
+        <v>1.5</v>
+      </c>
+      <c r="AR170">
+        <v>2</v>
+      </c>
+      <c r="AS170">
+        <v>1.46</v>
+      </c>
+      <c r="AT170">
+        <v>1.85</v>
+      </c>
+      <c r="AU170">
+        <v>1.57</v>
+      </c>
+      <c r="AV170">
+        <v>1.63</v>
+      </c>
+      <c r="AW170">
         <v>3.2</v>
       </c>
-      <c r="AE170">
-        <v>5.4</v>
-      </c>
-      <c r="AF170">
-        <v>1.1</v>
-      </c>
-      <c r="AG170">
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BD170">
+        <v>0</v>
+      </c>
+      <c r="BE170">
+        <v>0</v>
+      </c>
+      <c r="BF170">
+        <v>8</v>
+      </c>
+      <c r="BG170">
+        <v>3</v>
+      </c>
+      <c r="BH170">
+        <v>2</v>
+      </c>
+      <c r="BI170">
         <v>7</v>
       </c>
-      <c r="AH170">
-        <v>1.45</v>
-      </c>
-      <c r="AI170">
-        <v>2.43</v>
-      </c>
-      <c r="AJ170">
-        <v>2.48</v>
-      </c>
-      <c r="AK170">
-        <v>1.45</v>
-      </c>
-      <c r="AL170">
-        <v>2.45</v>
-      </c>
-      <c r="AM170">
-        <v>1.5</v>
-      </c>
-      <c r="AN170">
-        <v>1.14</v>
-      </c>
-      <c r="AO170">
-        <v>1.28</v>
-      </c>
-      <c r="AP170">
-        <v>2.1</v>
-      </c>
-      <c r="AQ170">
-        <v>2.2</v>
-      </c>
-      <c r="AR170">
-        <v>1.1</v>
-      </c>
-      <c r="AS170">
-        <v>2.17</v>
-      </c>
-      <c r="AT170">
-        <v>1</v>
-      </c>
-      <c r="AU170">
-        <v>1.36</v>
-      </c>
-      <c r="AV170">
-        <v>1.01</v>
-      </c>
-      <c r="AW170">
-        <v>2.37</v>
-      </c>
-      <c r="AX170">
-        <v>0</v>
-      </c>
-      <c r="AY170">
-        <v>0</v>
-      </c>
-      <c r="AZ170">
-        <v>0</v>
-      </c>
-      <c r="BA170">
-        <v>0</v>
-      </c>
-      <c r="BB170">
-        <v>0</v>
-      </c>
-      <c r="BC170">
-        <v>0</v>
-      </c>
-      <c r="BD170">
-        <v>0</v>
-      </c>
-      <c r="BE170">
-        <v>0</v>
-      </c>
-      <c r="BF170">
-        <v>6</v>
-      </c>
-      <c r="BG170">
-        <v>5</v>
-      </c>
-      <c r="BH170">
-        <v>9</v>
-      </c>
-      <c r="BI170">
-        <v>4</v>
-      </c>
       <c r="BJ170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK170">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:63">
@@ -33669,7 +33687,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2449573</v>
+        <v>2449571</v>
       </c>
       <c r="C171" t="s">
         <v>63</v>
@@ -33684,10 +33702,10 @@
         <v>22</v>
       </c>
       <c r="G171" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H171" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -33702,157 +33720,157 @@
         <v>1</v>
       </c>
       <c r="M171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N171">
+        <v>1</v>
+      </c>
+      <c r="O171" t="s">
+        <v>192</v>
+      </c>
+      <c r="P171" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q171">
         <v>3</v>
       </c>
-      <c r="O171" t="s">
-        <v>86</v>
-      </c>
-      <c r="P171" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q171">
+      <c r="R171">
+        <v>3</v>
+      </c>
+      <c r="S171">
+        <v>6</v>
+      </c>
+      <c r="T171">
+        <v>3</v>
+      </c>
+      <c r="U171">
+        <v>1.91</v>
+      </c>
+      <c r="V171">
+        <v>4</v>
+      </c>
+      <c r="W171">
+        <v>1.5</v>
+      </c>
+      <c r="X171">
+        <v>2.4</v>
+      </c>
+      <c r="Y171">
+        <v>3.4</v>
+      </c>
+      <c r="Z171">
+        <v>1.27</v>
+      </c>
+      <c r="AA171">
+        <v>8</v>
+      </c>
+      <c r="AB171">
+        <v>1.04</v>
+      </c>
+      <c r="AC171">
+        <v>2.02</v>
+      </c>
+      <c r="AD171">
+        <v>3</v>
+      </c>
+      <c r="AE171">
+        <v>3.7</v>
+      </c>
+      <c r="AF171">
+        <v>1.09</v>
+      </c>
+      <c r="AG171">
+        <v>7.85</v>
+      </c>
+      <c r="AH171">
+        <v>1.41</v>
+      </c>
+      <c r="AI171">
+        <v>2.68</v>
+      </c>
+      <c r="AJ171">
+        <v>2.18</v>
+      </c>
+      <c r="AK171">
+        <v>1.48</v>
+      </c>
+      <c r="AL171">
+        <v>2.1</v>
+      </c>
+      <c r="AM171">
+        <v>1.68</v>
+      </c>
+      <c r="AN171">
+        <v>1.27</v>
+      </c>
+      <c r="AO171">
+        <v>1.36</v>
+      </c>
+      <c r="AP171">
+        <v>1.57</v>
+      </c>
+      <c r="AQ171">
+        <v>1.5</v>
+      </c>
+      <c r="AR171">
+        <v>0.6</v>
+      </c>
+      <c r="AS171">
+        <v>1.85</v>
+      </c>
+      <c r="AT171">
+        <v>0.77</v>
+      </c>
+      <c r="AU171">
+        <v>1.6</v>
+      </c>
+      <c r="AV171">
+        <v>1.32</v>
+      </c>
+      <c r="AW171">
+        <v>2.92</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BD171">
+        <v>0</v>
+      </c>
+      <c r="BE171">
+        <v>0</v>
+      </c>
+      <c r="BF171">
         <v>5</v>
       </c>
-      <c r="R171">
-        <v>14</v>
-      </c>
-      <c r="S171">
-        <v>19</v>
-      </c>
-      <c r="T171">
-        <v>6.5</v>
-      </c>
-      <c r="U171">
-        <v>1.95</v>
-      </c>
-      <c r="V171">
-        <v>2.25</v>
-      </c>
-      <c r="W171">
-        <v>1.52</v>
-      </c>
-      <c r="X171">
-        <v>2.19</v>
-      </c>
-      <c r="Y171">
-        <v>3.05</v>
-      </c>
-      <c r="Z171">
-        <v>1.31</v>
-      </c>
-      <c r="AA171">
-        <v>7.25</v>
-      </c>
-      <c r="AB171">
-        <v>1.06</v>
-      </c>
-      <c r="AC171">
-        <v>5.2</v>
-      </c>
-      <c r="AD171">
-        <v>3.15</v>
-      </c>
-      <c r="AE171">
-        <v>1.7</v>
-      </c>
-      <c r="AF171">
-        <v>1.06</v>
-      </c>
-      <c r="AG171">
-        <v>9.5</v>
-      </c>
-      <c r="AH171">
-        <v>1.36</v>
-      </c>
-      <c r="AI171">
-        <v>2.89</v>
-      </c>
-      <c r="AJ171">
-        <v>2.16</v>
-      </c>
-      <c r="AK171">
-        <v>1.49</v>
-      </c>
-      <c r="AL171">
-        <v>2.5</v>
-      </c>
-      <c r="AM171">
-        <v>1.48</v>
-      </c>
-      <c r="AN171">
-        <v>2.78</v>
-      </c>
-      <c r="AO171">
-        <v>1.22</v>
-      </c>
-      <c r="AP171">
-        <v>1.02</v>
-      </c>
-      <c r="AQ171">
-        <v>1.9</v>
-      </c>
-      <c r="AR171">
-        <v>1.6</v>
-      </c>
-      <c r="AS171">
-        <v>1.83</v>
-      </c>
-      <c r="AT171">
-        <v>1.58</v>
-      </c>
-      <c r="AU171">
-        <v>1.45</v>
-      </c>
-      <c r="AV171">
-        <v>1.4</v>
-      </c>
-      <c r="AW171">
-        <v>2.85</v>
-      </c>
-      <c r="AX171">
-        <v>0</v>
-      </c>
-      <c r="AY171">
-        <v>0</v>
-      </c>
-      <c r="AZ171">
-        <v>0</v>
-      </c>
-      <c r="BA171">
-        <v>0</v>
-      </c>
-      <c r="BB171">
-        <v>0</v>
-      </c>
-      <c r="BC171">
-        <v>0</v>
-      </c>
-      <c r="BD171">
-        <v>0</v>
-      </c>
-      <c r="BE171">
-        <v>0</v>
-      </c>
-      <c r="BF171">
+      <c r="BG171">
+        <v>4</v>
+      </c>
+      <c r="BH171">
         <v>6</v>
       </c>
-      <c r="BG171">
+      <c r="BI171">
+        <v>4</v>
+      </c>
+      <c r="BJ171">
+        <v>11</v>
+      </c>
+      <c r="BK171">
         <v>8</v>
-      </c>
-      <c r="BH171">
-        <v>4</v>
-      </c>
-      <c r="BI171">
-        <v>10</v>
-      </c>
-      <c r="BJ171">
-        <v>10</v>
-      </c>
-      <c r="BK171">
-        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:63">
@@ -33860,7 +33878,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2449572</v>
+        <v>2449570</v>
       </c>
       <c r="C172" t="s">
         <v>63</v>
@@ -33875,133 +33893,133 @@
         <v>22</v>
       </c>
       <c r="G172" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H172" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I172">
         <v>0</v>
       </c>
       <c r="J172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172">
         <v>1</v>
       </c>
       <c r="N172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O172" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="P172" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="Q172">
+        <v>7</v>
+      </c>
+      <c r="R172">
+        <v>1</v>
+      </c>
+      <c r="S172">
+        <v>8</v>
+      </c>
+      <c r="T172">
+        <v>2.3</v>
+      </c>
+      <c r="U172">
+        <v>1.95</v>
+      </c>
+      <c r="V172">
         <v>6</v>
       </c>
-      <c r="R172">
-        <v>3</v>
-      </c>
-      <c r="S172">
-        <v>9</v>
-      </c>
-      <c r="T172">
-        <v>4</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
-      <c r="V172">
-        <v>2.88</v>
-      </c>
       <c r="W172">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X172">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Y172">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Z172">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AA172">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AB172">
         <v>1.04</v>
       </c>
       <c r="AC172">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="AD172">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AE172">
-        <v>2.18</v>
+        <v>5.4</v>
       </c>
       <c r="AF172">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG172">
-        <v>7.75</v>
+        <v>7</v>
       </c>
       <c r="AH172">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AI172">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="AJ172">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="AK172">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AL172">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="AM172">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AN172">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AO172">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AP172">
-        <v>1.28</v>
+        <v>2.1</v>
       </c>
       <c r="AQ172">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="AR172">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AS172">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AT172">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="AU172">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AV172">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="AW172">
-        <v>3.2</v>
+        <v>2.37</v>
       </c>
       <c r="AX172">
         <v>0</v>
@@ -34028,22 +34046,22 @@
         <v>0</v>
       </c>
       <c r="BF172">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BG172">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH172">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ172">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BK172">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:63">
@@ -34093,7 +34111,7 @@
         <v>81</v>
       </c>
       <c r="P173" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34183,7 +34201,7 @@
         <v>2</v>
       </c>
       <c r="AT173">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU173">
         <v>2.09</v>
@@ -34374,7 +34392,7 @@
         <v>1.69</v>
       </c>
       <c r="AT174">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU174">
         <v>1.55</v>
@@ -34562,7 +34580,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT175">
         <v>0.77</v>
@@ -34666,7 +34684,7 @@
         <v>84</v>
       </c>
       <c r="P176" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q176">
         <v>2</v>
@@ -34753,7 +34771,7 @@
         <v>0.5</v>
       </c>
       <c r="AS176">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AT176">
         <v>0.54</v>
@@ -34857,7 +34875,7 @@
         <v>195</v>
       </c>
       <c r="P177" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q177">
         <v>0</v>
@@ -35006,7 +35024,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2449580</v>
+        <v>2449579</v>
       </c>
       <c r="C178" t="s">
         <v>63</v>
@@ -35021,133 +35039,133 @@
         <v>23</v>
       </c>
       <c r="G178" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H178" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178">
         <v>0</v>
       </c>
       <c r="K178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O178" t="s">
         <v>196</v>
       </c>
       <c r="P178" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="Q178">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R178">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S178">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T178">
+        <v>2.4</v>
+      </c>
+      <c r="U178">
         <v>1.95</v>
       </c>
-      <c r="U178">
-        <v>2.25</v>
-      </c>
       <c r="V178">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="W178">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="X178">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="Y178">
-        <v>2.81</v>
+        <v>3.24</v>
       </c>
       <c r="Z178">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AA178">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AB178">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AC178">
+        <v>1.73</v>
+      </c>
+      <c r="AD178">
+        <v>3.6</v>
+      </c>
+      <c r="AE178">
+        <v>4.33</v>
+      </c>
+      <c r="AF178">
+        <v>1.11</v>
+      </c>
+      <c r="AG178">
+        <v>6.45</v>
+      </c>
+      <c r="AH178">
         <v>1.4</v>
       </c>
-      <c r="AD178">
-        <v>4.33</v>
-      </c>
-      <c r="AE178">
-        <v>6</v>
-      </c>
-      <c r="AF178">
-        <v>1.05</v>
-      </c>
-      <c r="AG178">
-        <v>11.5</v>
-      </c>
-      <c r="AH178">
-        <v>1.28</v>
-      </c>
       <c r="AI178">
-        <v>3.25</v>
+        <v>2.59</v>
       </c>
       <c r="AJ178">
+        <v>2.5</v>
+      </c>
+      <c r="AK178">
+        <v>1.5</v>
+      </c>
+      <c r="AL178">
+        <v>2.4</v>
+      </c>
+      <c r="AM178">
+        <v>1.52</v>
+      </c>
+      <c r="AN178">
+        <v>1.15</v>
+      </c>
+      <c r="AO178">
+        <v>1.25</v>
+      </c>
+      <c r="AP178">
         <v>1.95</v>
-      </c>
-      <c r="AK178">
-        <v>1.85</v>
-      </c>
-      <c r="AL178">
-        <v>2.15</v>
-      </c>
-      <c r="AM178">
-        <v>1.62</v>
-      </c>
-      <c r="AN178">
-        <v>1.11</v>
-      </c>
-      <c r="AO178">
-        <v>1.19</v>
-      </c>
-      <c r="AP178">
-        <v>2.65</v>
       </c>
       <c r="AQ178">
         <v>2.45</v>
       </c>
       <c r="AR178">
-        <v>0.55</v>
+        <v>1.73</v>
       </c>
       <c r="AS178">
         <v>2.31</v>
       </c>
       <c r="AT178">
-        <v>0.54</v>
+        <v>1.54</v>
       </c>
       <c r="AU178">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="AV178">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AW178">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="AX178">
         <v>0</v>
@@ -35174,22 +35192,22 @@
         <v>0</v>
       </c>
       <c r="BF178">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH178">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI178">
         <v>6</v>
       </c>
       <c r="BJ178">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BK178">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:63">
@@ -35197,7 +35215,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>2449578</v>
+        <v>2449577</v>
       </c>
       <c r="C179" t="s">
         <v>63</v>
@@ -35212,10 +35230,10 @@
         <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H179" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -35227,118 +35245,118 @@
         <v>0</v>
       </c>
       <c r="L179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O179" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="P179" t="s">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="Q179">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S179">
         <v>9</v>
       </c>
       <c r="T179">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="U179">
+        <v>2.25</v>
+      </c>
+      <c r="V179">
+        <v>6</v>
+      </c>
+      <c r="W179">
+        <v>1.38</v>
+      </c>
+      <c r="X179">
+        <v>2.71</v>
+      </c>
+      <c r="Y179">
+        <v>2.83</v>
+      </c>
+      <c r="Z179">
+        <v>1.35</v>
+      </c>
+      <c r="AA179">
+        <v>7</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>1.44</v>
+      </c>
+      <c r="AD179">
+        <v>4.2</v>
+      </c>
+      <c r="AE179">
+        <v>5.75</v>
+      </c>
+      <c r="AF179">
+        <v>1.03</v>
+      </c>
+      <c r="AG179">
+        <v>10.25</v>
+      </c>
+      <c r="AH179">
+        <v>1.34</v>
+      </c>
+      <c r="AI179">
+        <v>3.02</v>
+      </c>
+      <c r="AJ179">
+        <v>1.85</v>
+      </c>
+      <c r="AK179">
         <v>1.95</v>
       </c>
-      <c r="V179">
-        <v>3</v>
-      </c>
-      <c r="W179">
-        <v>1.57</v>
-      </c>
-      <c r="X179">
-        <v>2.26</v>
-      </c>
-      <c r="Y179">
-        <v>3.42</v>
-      </c>
-      <c r="Z179">
-        <v>1.27</v>
-      </c>
-      <c r="AA179">
-        <v>9.5</v>
-      </c>
-      <c r="AB179">
-        <v>1.02</v>
-      </c>
-      <c r="AC179">
-        <v>3.75</v>
-      </c>
-      <c r="AD179">
-        <v>2.9</v>
-      </c>
-      <c r="AE179">
-        <v>2.05</v>
-      </c>
-      <c r="AF179">
-        <v>1.07</v>
-      </c>
-      <c r="AG179">
-        <v>6.9</v>
-      </c>
-      <c r="AH179">
-        <v>1.44</v>
-      </c>
-      <c r="AI179">
-        <v>2.51</v>
-      </c>
-      <c r="AJ179">
-        <v>2.48</v>
-      </c>
-      <c r="AK179">
-        <v>1.48</v>
-      </c>
       <c r="AL179">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AM179">
         <v>1.65</v>
       </c>
       <c r="AN179">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="AO179">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AP179">
-        <v>1.32</v>
+        <v>2.6</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>2.09</v>
       </c>
       <c r="AR179">
-        <v>0.45</v>
+        <v>0.82</v>
       </c>
       <c r="AS179">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AT179">
-        <v>0.46</v>
+        <v>0.85</v>
       </c>
       <c r="AU179">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="AV179">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="AW179">
-        <v>2.34</v>
+        <v>2.87</v>
       </c>
       <c r="AX179">
         <v>0</v>
@@ -35368,19 +35386,19 @@
         <v>3</v>
       </c>
       <c r="BG179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH179">
+        <v>2</v>
+      </c>
+      <c r="BI179">
         <v>6</v>
       </c>
-      <c r="BI179">
-        <v>8</v>
-      </c>
       <c r="BJ179">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BK179">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:63">
@@ -35388,7 +35406,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>2449582</v>
+        <v>2665877</v>
       </c>
       <c r="C180" t="s">
         <v>63</v>
@@ -35403,133 +35421,133 @@
         <v>23</v>
       </c>
       <c r="G180" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H180" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180">
         <v>0</v>
       </c>
       <c r="K180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M180">
         <v>0</v>
       </c>
       <c r="N180">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O180" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="P180" t="s">
         <v>81</v>
       </c>
       <c r="Q180">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R180">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S180">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V180">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W180">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X180">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="Y180">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z180">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AA180">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB180">
         <v>1.04</v>
       </c>
       <c r="AC180">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AD180">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AE180">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="AF180">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG180">
-        <v>6.75</v>
+        <v>6.3</v>
       </c>
       <c r="AH180">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AI180">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AJ180">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AK180">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="AL180">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AM180">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AN180">
+        <v>1.17</v>
+      </c>
+      <c r="AO180">
+        <v>1.35</v>
+      </c>
+      <c r="AP180">
+        <v>1.82</v>
+      </c>
+      <c r="AQ180">
+        <v>1.64</v>
+      </c>
+      <c r="AR180">
+        <v>0.82</v>
+      </c>
+      <c r="AS180">
+        <v>1.69</v>
+      </c>
+      <c r="AT180">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU180">
+        <v>1.57</v>
+      </c>
+      <c r="AV180">
         <v>1.3</v>
       </c>
-      <c r="AO180">
-        <v>1.37</v>
-      </c>
-      <c r="AP180">
-        <v>1.5</v>
-      </c>
-      <c r="AQ180">
-        <v>0.82</v>
-      </c>
-      <c r="AR180">
-        <v>0.55</v>
-      </c>
-      <c r="AS180">
-        <v>0.83</v>
-      </c>
-      <c r="AT180">
-        <v>0.77</v>
-      </c>
-      <c r="AU180">
-        <v>1.35</v>
-      </c>
-      <c r="AV180">
-        <v>1.43</v>
-      </c>
       <c r="AW180">
-        <v>2.78</v>
+        <v>2.87</v>
       </c>
       <c r="AX180">
         <v>0</v>
@@ -35556,22 +35574,22 @@
         <v>0</v>
       </c>
       <c r="BF180">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG180">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH180">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI180">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ180">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK180">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:63">
@@ -35579,7 +35597,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2449577</v>
+        <v>2449580</v>
       </c>
       <c r="C181" t="s">
         <v>63</v>
@@ -35594,43 +35612,43 @@
         <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H181" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>0</v>
       </c>
       <c r="K181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N181">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O181" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="P181" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="Q181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R181">
         <v>4</v>
       </c>
       <c r="S181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T181">
         <v>1.95</v>
@@ -35639,88 +35657,88 @@
         <v>2.25</v>
       </c>
       <c r="V181">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W181">
         <v>1.38</v>
       </c>
       <c r="X181">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="Y181">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="Z181">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AA181">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB181">
         <v>1.07</v>
       </c>
       <c r="AC181">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AD181">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="AE181">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="AF181">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG181">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH181">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AI181">
-        <v>3.02</v>
+        <v>3.25</v>
       </c>
       <c r="AJ181">
+        <v>1.95</v>
+      </c>
+      <c r="AK181">
         <v>1.85</v>
-      </c>
-      <c r="AK181">
-        <v>1.95</v>
       </c>
       <c r="AL181">
         <v>2.15</v>
       </c>
       <c r="AM181">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AN181">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="AO181">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AP181">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AQ181">
-        <v>2.09</v>
+        <v>2.45</v>
       </c>
       <c r="AR181">
-        <v>0.82</v>
+        <v>0.55</v>
       </c>
       <c r="AS181">
-        <v>1.92</v>
+        <v>2.31</v>
       </c>
       <c r="AT181">
-        <v>0.85</v>
+        <v>0.54</v>
       </c>
       <c r="AU181">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AV181">
-        <v>1.34</v>
+        <v>1.48</v>
       </c>
       <c r="AW181">
-        <v>2.87</v>
+        <v>3.42</v>
       </c>
       <c r="AX181">
         <v>0</v>
@@ -35750,19 +35768,19 @@
         <v>3</v>
       </c>
       <c r="BG181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH181">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI181">
         <v>6</v>
       </c>
       <c r="BJ181">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK181">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:63">
@@ -35770,7 +35788,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2665877</v>
+        <v>2449582</v>
       </c>
       <c r="C182" t="s">
         <v>63</v>
@@ -35785,133 +35803,133 @@
         <v>23</v>
       </c>
       <c r="G182" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H182" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182">
         <v>0</v>
       </c>
       <c r="K182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M182">
         <v>0</v>
       </c>
       <c r="N182">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O182" t="s">
-        <v>198</v>
+        <v>81</v>
       </c>
       <c r="P182" t="s">
         <v>81</v>
       </c>
       <c r="Q182">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="R182">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="S182">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="T182">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U182">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V182">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W182">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="Y182">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z182">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AA182">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AB182">
         <v>1.04</v>
       </c>
       <c r="AC182">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AD182">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AE182">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="AF182">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AG182">
-        <v>6.3</v>
+        <v>6.75</v>
       </c>
       <c r="AH182">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AI182">
+        <v>2.35</v>
+      </c>
+      <c r="AJ182">
         <v>2.4</v>
       </c>
-      <c r="AJ182">
-        <v>2.6</v>
-      </c>
       <c r="AK182">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AL182">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AM182">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AN182">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AO182">
+        <v>1.37</v>
+      </c>
+      <c r="AP182">
+        <v>1.5</v>
+      </c>
+      <c r="AQ182">
+        <v>0.82</v>
+      </c>
+      <c r="AR182">
+        <v>0.55</v>
+      </c>
+      <c r="AS182">
+        <v>0.85</v>
+      </c>
+      <c r="AT182">
+        <v>0.77</v>
+      </c>
+      <c r="AU182">
         <v>1.35</v>
       </c>
-      <c r="AP182">
-        <v>1.82</v>
-      </c>
-      <c r="AQ182">
-        <v>1.64</v>
-      </c>
-      <c r="AR182">
-        <v>0.82</v>
-      </c>
-      <c r="AS182">
-        <v>1.69</v>
-      </c>
-      <c r="AT182">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AU182">
-        <v>1.57</v>
-      </c>
       <c r="AV182">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AW182">
-        <v>2.87</v>
+        <v>2.78</v>
       </c>
       <c r="AX182">
         <v>0</v>
@@ -35938,22 +35956,22 @@
         <v>0</v>
       </c>
       <c r="BF182">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BG182">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH182">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BI182">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BJ182">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BK182">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183" spans="1:63">
@@ -35961,7 +35979,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2449579</v>
+        <v>2449578</v>
       </c>
       <c r="C183" t="s">
         <v>63</v>
@@ -35976,10 +35994,10 @@
         <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -35994,115 +36012,115 @@
         <v>1</v>
       </c>
       <c r="M183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O183" t="s">
         <v>199</v>
       </c>
       <c r="P183" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="Q183">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S183">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="T183">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="U183">
         <v>1.95</v>
       </c>
       <c r="V183">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="W183">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X183">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="Y183">
-        <v>3.24</v>
+        <v>3.42</v>
       </c>
       <c r="Z183">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AA183">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="AB183">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AC183">
-        <v>1.73</v>
+        <v>3.75</v>
       </c>
       <c r="AD183">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AE183">
-        <v>4.33</v>
+        <v>2.05</v>
       </c>
       <c r="AF183">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AG183">
-        <v>6.45</v>
+        <v>6.9</v>
       </c>
       <c r="AH183">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AI183">
-        <v>2.59</v>
+        <v>2.51</v>
       </c>
       <c r="AJ183">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AK183">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AL183">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AM183">
+        <v>1.65</v>
+      </c>
+      <c r="AN183">
         <v>1.52</v>
       </c>
-      <c r="AN183">
-        <v>1.15</v>
-      </c>
       <c r="AO183">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP183">
-        <v>1.95</v>
+        <v>1.32</v>
       </c>
       <c r="AQ183">
-        <v>2.45</v>
+        <v>1</v>
       </c>
       <c r="AR183">
-        <v>1.73</v>
+        <v>0.45</v>
       </c>
       <c r="AS183">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="AT183">
-        <v>1.54</v>
+        <v>0.46</v>
       </c>
       <c r="AU183">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="AV183">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="AW183">
-        <v>3.66</v>
+        <v>2.34</v>
       </c>
       <c r="AX183">
         <v>0</v>
@@ -36129,22 +36147,22 @@
         <v>0</v>
       </c>
       <c r="BF183">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH183">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI183">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ183">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BK183">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:63">
@@ -36284,7 +36302,7 @@
         <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU184">
         <v>1.46</v>
@@ -36385,7 +36403,7 @@
         <v>184</v>
       </c>
       <c r="P185" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q185">
         <v>12</v>
@@ -36475,7 +36493,7 @@
         <v>1</v>
       </c>
       <c r="AT185">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU185">
         <v>1.21</v>
@@ -36663,7 +36681,7 @@
         <v>1.09</v>
       </c>
       <c r="AS186">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT186">
         <v>1</v>
@@ -36854,10 +36872,10 @@
         <v>0.64</v>
       </c>
       <c r="AS187">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT187">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU187">
         <v>1.48</v>
@@ -37045,10 +37063,10 @@
         <v>1.27</v>
       </c>
       <c r="AS188">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AT188">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU188">
         <v>1.45</v>
@@ -37149,7 +37167,7 @@
         <v>201</v>
       </c>
       <c r="P189" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q189">
         <v>10</v>
@@ -37236,10 +37254,10 @@
         <v>0.55</v>
       </c>
       <c r="AS189">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT189">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU189">
         <v>1.76</v>
@@ -37430,7 +37448,7 @@
         <v>2</v>
       </c>
       <c r="AT190">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU190">
         <v>2.09</v>
@@ -37489,7 +37507,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>2449585</v>
+        <v>2449587</v>
       </c>
       <c r="C191" t="s">
         <v>63</v>
@@ -37504,64 +37522,64 @@
         <v>24</v>
       </c>
       <c r="G191" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H191" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191">
         <v>1</v>
       </c>
       <c r="K191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M191">
         <v>1</v>
       </c>
       <c r="N191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O191" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="P191" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="Q191">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R191">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S191">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T191">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V191">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="W191">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="X191">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Y191">
-        <v>3.4</v>
+        <v>2.97</v>
       </c>
       <c r="Z191">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AA191">
         <v>8</v>
@@ -37570,67 +37588,67 @@
         <v>1.05</v>
       </c>
       <c r="AC191">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AD191">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE191">
-        <v>1.9</v>
+        <v>6.5</v>
       </c>
       <c r="AF191">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AG191">
-        <v>7.7</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AH191">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AI191">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="AJ191">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="AK191">
+        <v>1.61</v>
+      </c>
+      <c r="AL191">
+        <v>2.45</v>
+      </c>
+      <c r="AM191">
         <v>1.5</v>
       </c>
-      <c r="AL191">
-        <v>2.2</v>
-      </c>
-      <c r="AM191">
-        <v>1.62</v>
-      </c>
       <c r="AN191">
-        <v>1.95</v>
+        <v>1.12</v>
       </c>
       <c r="AO191">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AP191">
-        <v>1.16</v>
+        <v>2.5</v>
       </c>
       <c r="AQ191">
-        <v>2.09</v>
+        <v>1.36</v>
       </c>
       <c r="AR191">
-        <v>2.09</v>
+        <v>0.45</v>
       </c>
       <c r="AS191">
-        <v>2.17</v>
+        <v>1.46</v>
       </c>
       <c r="AT191">
-        <v>1.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU191">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="AV191">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="AW191">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AX191">
         <v>0</v>
@@ -37660,19 +37678,19 @@
         <v>5</v>
       </c>
       <c r="BG191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH191">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI191">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ191">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK191">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:63">
@@ -37719,7 +37737,7 @@
         <v>1</v>
       </c>
       <c r="O192" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P192" t="s">
         <v>81</v>
@@ -37809,10 +37827,10 @@
         <v>1.73</v>
       </c>
       <c r="AS192">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT192">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU192">
         <v>1.58</v>
@@ -37871,7 +37889,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2449587</v>
+        <v>2449585</v>
       </c>
       <c r="C193" t="s">
         <v>63</v>
@@ -37886,64 +37904,64 @@
         <v>24</v>
       </c>
       <c r="G193" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H193" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>1</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M193">
         <v>1</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O193" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="Q193">
+        <v>2</v>
+      </c>
+      <c r="R193">
+        <v>5</v>
+      </c>
+      <c r="S193">
         <v>7</v>
       </c>
-      <c r="R193">
-        <v>4</v>
-      </c>
-      <c r="S193">
-        <v>11</v>
-      </c>
       <c r="T193">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="U193">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="W193">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="X193">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Y193">
-        <v>2.97</v>
+        <v>3.4</v>
       </c>
       <c r="Z193">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AA193">
         <v>8</v>
@@ -37952,67 +37970,67 @@
         <v>1.05</v>
       </c>
       <c r="AC193">
+        <v>4</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>1.9</v>
+      </c>
+      <c r="AF193">
+        <v>1.09</v>
+      </c>
+      <c r="AG193">
+        <v>7.7</v>
+      </c>
+      <c r="AH193">
+        <v>1.44</v>
+      </c>
+      <c r="AI193">
+        <v>2.59</v>
+      </c>
+      <c r="AJ193">
+        <v>2.4</v>
+      </c>
+      <c r="AK193">
         <v>1.5</v>
       </c>
-      <c r="AD193">
-        <v>3.6</v>
-      </c>
-      <c r="AE193">
-        <v>6.5</v>
-      </c>
-      <c r="AF193">
-        <v>1.06</v>
-      </c>
-      <c r="AG193">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="AH193">
-        <v>1.45</v>
-      </c>
-      <c r="AI193">
-        <v>2.57</v>
-      </c>
-      <c r="AJ193">
-        <v>2.15</v>
-      </c>
-      <c r="AK193">
+      <c r="AL193">
+        <v>2.2</v>
+      </c>
+      <c r="AM193">
+        <v>1.62</v>
+      </c>
+      <c r="AN193">
+        <v>1.95</v>
+      </c>
+      <c r="AO193">
+        <v>1.3</v>
+      </c>
+      <c r="AP193">
+        <v>1.16</v>
+      </c>
+      <c r="AQ193">
+        <v>2.09</v>
+      </c>
+      <c r="AR193">
+        <v>2.09</v>
+      </c>
+      <c r="AS193">
+        <v>2</v>
+      </c>
+      <c r="AT193">
+        <v>1.85</v>
+      </c>
+      <c r="AU193">
+        <v>1.41</v>
+      </c>
+      <c r="AV193">
         <v>1.61</v>
       </c>
-      <c r="AL193">
-        <v>2.45</v>
-      </c>
-      <c r="AM193">
-        <v>1.5</v>
-      </c>
-      <c r="AN193">
-        <v>1.12</v>
-      </c>
-      <c r="AO193">
-        <v>1.24</v>
-      </c>
-      <c r="AP193">
-        <v>2.5</v>
-      </c>
-      <c r="AQ193">
-        <v>1.36</v>
-      </c>
-      <c r="AR193">
-        <v>0.45</v>
-      </c>
-      <c r="AS193">
-        <v>1.33</v>
-      </c>
-      <c r="AT193">
-        <v>0.5</v>
-      </c>
-      <c r="AU193">
-        <v>1.58</v>
-      </c>
-      <c r="AV193">
-        <v>1.22</v>
-      </c>
       <c r="AW193">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AX193">
         <v>0</v>
@@ -38042,19 +38060,19 @@
         <v>5</v>
       </c>
       <c r="BG193">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH193">
+        <v>3</v>
+      </c>
+      <c r="BI193">
+        <v>4</v>
+      </c>
+      <c r="BJ193">
         <v>8</v>
       </c>
-      <c r="BI193">
-        <v>6</v>
-      </c>
-      <c r="BJ193">
-        <v>13</v>
-      </c>
       <c r="BK193">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:63">
@@ -38062,7 +38080,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2449596</v>
+        <v>2449595</v>
       </c>
       <c r="C194" t="s">
         <v>63</v>
@@ -38077,133 +38095,133 @@
         <v>25</v>
       </c>
       <c r="G194" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H194" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L194">
         <v>1</v>
       </c>
       <c r="M194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O194" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="P194" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q194">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S194">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T194">
+        <v>1.83</v>
+      </c>
+      <c r="U194">
+        <v>2.25</v>
+      </c>
+      <c r="V194">
+        <v>8</v>
+      </c>
+      <c r="W194">
+        <v>1.38</v>
+      </c>
+      <c r="X194">
+        <v>2.81</v>
+      </c>
+      <c r="Y194">
+        <v>2.77</v>
+      </c>
+      <c r="Z194">
+        <v>1.39</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.08</v>
+      </c>
+      <c r="AC194">
+        <v>1.33</v>
+      </c>
+      <c r="AD194">
+        <v>4.33</v>
+      </c>
+      <c r="AE194">
+        <v>8.5</v>
+      </c>
+      <c r="AF194">
+        <v>1.05</v>
+      </c>
+      <c r="AG194">
+        <v>11.5</v>
+      </c>
+      <c r="AH194">
+        <v>1.27</v>
+      </c>
+      <c r="AI194">
+        <v>3.28</v>
+      </c>
+      <c r="AJ194">
+        <v>1.95</v>
+      </c>
+      <c r="AK194">
+        <v>1.85</v>
+      </c>
+      <c r="AL194">
+        <v>2.25</v>
+      </c>
+      <c r="AM194">
+        <v>1.54</v>
+      </c>
+      <c r="AN194">
+        <v>1.05</v>
+      </c>
+      <c r="AO194">
+        <v>1.17</v>
+      </c>
+      <c r="AP194">
+        <v>2.82</v>
+      </c>
+      <c r="AQ194">
         <v>2.5</v>
       </c>
-      <c r="U194">
-        <v>2.05</v>
-      </c>
-      <c r="V194">
-        <v>4.5</v>
-      </c>
-      <c r="W194">
-        <v>1.47</v>
-      </c>
-      <c r="X194">
-        <v>2.5</v>
-      </c>
-      <c r="Y194">
-        <v>3.2</v>
-      </c>
-      <c r="Z194">
-        <v>1.3</v>
-      </c>
-      <c r="AA194">
-        <v>7.5</v>
-      </c>
-      <c r="AB194">
-        <v>1.06</v>
-      </c>
-      <c r="AC194">
-        <v>1.75</v>
-      </c>
-      <c r="AD194">
+      <c r="AR194">
+        <v>0.58</v>
+      </c>
+      <c r="AS194">
+        <v>2.31</v>
+      </c>
+      <c r="AT194">
+        <v>0.77</v>
+      </c>
+      <c r="AU194">
+        <v>1.87</v>
+      </c>
+      <c r="AV194">
+        <v>1.43</v>
+      </c>
+      <c r="AW194">
         <v>3.3</v>
-      </c>
-      <c r="AE194">
-        <v>4</v>
-      </c>
-      <c r="AF194">
-        <v>1.07</v>
-      </c>
-      <c r="AG194">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH194">
-        <v>1.39</v>
-      </c>
-      <c r="AI194">
-        <v>2.76</v>
-      </c>
-      <c r="AJ194">
-        <v>2.1</v>
-      </c>
-      <c r="AK194">
-        <v>1.7</v>
-      </c>
-      <c r="AL194">
-        <v>2</v>
-      </c>
-      <c r="AM194">
-        <v>1.72</v>
-      </c>
-      <c r="AN194">
-        <v>1.17</v>
-      </c>
-      <c r="AO194">
-        <v>1.27</v>
-      </c>
-      <c r="AP194">
-        <v>2.1</v>
-      </c>
-      <c r="AQ194">
-        <v>0.92</v>
-      </c>
-      <c r="AR194">
-        <v>1</v>
-      </c>
-      <c r="AS194">
-        <v>0.92</v>
-      </c>
-      <c r="AT194">
-        <v>1</v>
-      </c>
-      <c r="AU194">
-        <v>1.33</v>
-      </c>
-      <c r="AV194">
-        <v>1.04</v>
-      </c>
-      <c r="AW194">
-        <v>2.37</v>
       </c>
       <c r="AX194">
         <v>0</v>
@@ -38233,19 +38251,19 @@
         <v>5</v>
       </c>
       <c r="BG194">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BH194">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ194">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK194">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:63">
@@ -38253,7 +38271,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2449595</v>
+        <v>2449596</v>
       </c>
       <c r="C195" t="s">
         <v>63</v>
@@ -38268,133 +38286,133 @@
         <v>25</v>
       </c>
       <c r="G195" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H195" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L195">
         <v>1</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195" t="s">
+        <v>206</v>
+      </c>
+      <c r="P195" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q195">
         <v>4</v>
       </c>
-      <c r="O195" t="s">
-        <v>96</v>
-      </c>
-      <c r="P195" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q195">
-        <v>9</v>
-      </c>
       <c r="R195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S195">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T195">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V195">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="W195">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X195">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
-        <v>2.77</v>
+        <v>3.2</v>
       </c>
       <c r="Z195">
+        <v>1.3</v>
+      </c>
+      <c r="AA195">
+        <v>7.5</v>
+      </c>
+      <c r="AB195">
+        <v>1.06</v>
+      </c>
+      <c r="AC195">
+        <v>1.75</v>
+      </c>
+      <c r="AD195">
+        <v>3.3</v>
+      </c>
+      <c r="AE195">
+        <v>4</v>
+      </c>
+      <c r="AF195">
+        <v>1.07</v>
+      </c>
+      <c r="AG195">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH195">
         <v>1.39</v>
       </c>
-      <c r="AA195">
-        <v>6.5</v>
-      </c>
-      <c r="AB195">
-        <v>1.08</v>
-      </c>
-      <c r="AC195">
+      <c r="AI195">
+        <v>2.76</v>
+      </c>
+      <c r="AJ195">
+        <v>2.1</v>
+      </c>
+      <c r="AK195">
+        <v>1.7</v>
+      </c>
+      <c r="AL195">
+        <v>2</v>
+      </c>
+      <c r="AM195">
+        <v>1.72</v>
+      </c>
+      <c r="AN195">
+        <v>1.17</v>
+      </c>
+      <c r="AO195">
+        <v>1.27</v>
+      </c>
+      <c r="AP195">
+        <v>2.1</v>
+      </c>
+      <c r="AQ195">
+        <v>0.92</v>
+      </c>
+      <c r="AR195">
+        <v>1</v>
+      </c>
+      <c r="AS195">
+        <v>0.92</v>
+      </c>
+      <c r="AT195">
+        <v>1</v>
+      </c>
+      <c r="AU195">
         <v>1.33</v>
       </c>
-      <c r="AD195">
-        <v>4.33</v>
-      </c>
-      <c r="AE195">
-        <v>8.5</v>
-      </c>
-      <c r="AF195">
-        <v>1.05</v>
-      </c>
-      <c r="AG195">
-        <v>11.5</v>
-      </c>
-      <c r="AH195">
-        <v>1.27</v>
-      </c>
-      <c r="AI195">
-        <v>3.28</v>
-      </c>
-      <c r="AJ195">
-        <v>1.95</v>
-      </c>
-      <c r="AK195">
-        <v>1.85</v>
-      </c>
-      <c r="AL195">
-        <v>2.25</v>
-      </c>
-      <c r="AM195">
-        <v>1.54</v>
-      </c>
-      <c r="AN195">
-        <v>1.05</v>
-      </c>
-      <c r="AO195">
-        <v>1.17</v>
-      </c>
-      <c r="AP195">
-        <v>2.82</v>
-      </c>
-      <c r="AQ195">
-        <v>2.5</v>
-      </c>
-      <c r="AR195">
-        <v>0.58</v>
-      </c>
-      <c r="AS195">
-        <v>2.31</v>
-      </c>
-      <c r="AT195">
-        <v>0.77</v>
-      </c>
-      <c r="AU195">
-        <v>1.87</v>
-      </c>
       <c r="AV195">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="AW195">
-        <v>3.3</v>
+        <v>2.37</v>
       </c>
       <c r="AX195">
         <v>0</v>
@@ -38424,19 +38442,19 @@
         <v>5</v>
       </c>
       <c r="BG195">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH195">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ195">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BK195">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:63">
@@ -38635,7 +38653,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>2449594</v>
+        <v>2449590</v>
       </c>
       <c r="C197" t="s">
         <v>63</v>
@@ -38650,133 +38668,133 @@
         <v>25</v>
       </c>
       <c r="G197" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H197" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K197">
         <v>2</v>
       </c>
       <c r="L197">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M197">
         <v>2</v>
       </c>
       <c r="N197">
+        <v>6</v>
+      </c>
+      <c r="O197" t="s">
+        <v>208</v>
+      </c>
+      <c r="P197" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q197">
         <v>3</v>
-      </c>
-      <c r="O197" t="s">
-        <v>179</v>
-      </c>
-      <c r="P197" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q197">
-        <v>6</v>
       </c>
       <c r="R197">
         <v>4</v>
       </c>
       <c r="S197">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T197">
+        <v>2.38</v>
+      </c>
+      <c r="U197">
         <v>2.1</v>
       </c>
-      <c r="U197">
-        <v>2</v>
-      </c>
       <c r="V197">
+        <v>4.5</v>
+      </c>
+      <c r="W197">
+        <v>1.45</v>
+      </c>
+      <c r="X197">
+        <v>2.48</v>
+      </c>
+      <c r="Y197">
+        <v>3.11</v>
+      </c>
+      <c r="Z197">
+        <v>1.3</v>
+      </c>
+      <c r="AA197">
         <v>7</v>
       </c>
-      <c r="W197">
-        <v>1.6</v>
-      </c>
-      <c r="X197">
-        <v>2.2</v>
-      </c>
-      <c r="Y197">
-        <v>3.84</v>
-      </c>
-      <c r="Z197">
-        <v>1.22</v>
-      </c>
-      <c r="AA197">
-        <v>10.5</v>
-      </c>
       <c r="AB197">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="AC197">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AD197">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE197">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="AF197">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AG197">
-        <v>5.85</v>
+        <v>9</v>
       </c>
       <c r="AH197">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="AI197">
-        <v>2.27</v>
+        <v>2.85</v>
       </c>
       <c r="AJ197">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="AK197">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AL197">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="AM197">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="AN197">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AO197">
         <v>1.29</v>
       </c>
       <c r="AP197">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="AQ197">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="AR197">
         <v>0.75</v>
       </c>
       <c r="AS197">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="AT197">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU197">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="AV197">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AW197">
-        <v>3.56</v>
+        <v>3.41</v>
       </c>
       <c r="AX197">
         <v>0</v>
@@ -38803,19 +38821,19 @@
         <v>0</v>
       </c>
       <c r="BF197">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG197">
         <v>5</v>
       </c>
       <c r="BH197">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI197">
         <v>8</v>
       </c>
       <c r="BJ197">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK197">
         <v>13</v>
@@ -38826,7 +38844,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2449593</v>
+        <v>2449592</v>
       </c>
       <c r="C198" t="s">
         <v>63</v>
@@ -38841,133 +38859,133 @@
         <v>25</v>
       </c>
       <c r="G198" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H198" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J198">
         <v>0</v>
       </c>
       <c r="K198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O198" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="P198" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="Q198">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R198">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S198">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="T198">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="V198">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="W198">
+        <v>1.52</v>
+      </c>
+      <c r="X198">
+        <v>2.28</v>
+      </c>
+      <c r="Y198">
+        <v>3.56</v>
+      </c>
+      <c r="Z198">
+        <v>1.25</v>
+      </c>
+      <c r="AA198">
+        <v>8.25</v>
+      </c>
+      <c r="AB198">
+        <v>1.04</v>
+      </c>
+      <c r="AC198">
+        <v>2.3</v>
+      </c>
+      <c r="AD198">
+        <v>2.9</v>
+      </c>
+      <c r="AE198">
+        <v>3.05</v>
+      </c>
+      <c r="AF198">
+        <v>1.1</v>
+      </c>
+      <c r="AG198">
+        <v>6.75</v>
+      </c>
+      <c r="AH198">
         <v>1.5</v>
       </c>
-      <c r="X198">
-        <v>2.4</v>
-      </c>
-      <c r="Y198">
-        <v>3.3</v>
-      </c>
-      <c r="Z198">
+      <c r="AI198">
+        <v>2.3</v>
+      </c>
+      <c r="AJ198">
+        <v>2.39</v>
+      </c>
+      <c r="AK198">
+        <v>1.51</v>
+      </c>
+      <c r="AL198">
+        <v>2.09</v>
+      </c>
+      <c r="AM198">
+        <v>1.63</v>
+      </c>
+      <c r="AN198">
         <v>1.3</v>
       </c>
-      <c r="AA198">
-        <v>7.75</v>
-      </c>
-      <c r="AB198">
-        <v>1.05</v>
-      </c>
-      <c r="AC198">
-        <v>2.8</v>
-      </c>
-      <c r="AD198">
-        <v>3</v>
-      </c>
-      <c r="AE198">
-        <v>2.45</v>
-      </c>
-      <c r="AF198">
-        <v>1.08</v>
-      </c>
-      <c r="AG198">
-        <v>8.1</v>
-      </c>
-      <c r="AH198">
-        <v>1.41</v>
-      </c>
-      <c r="AI198">
-        <v>2.71</v>
-      </c>
-      <c r="AJ198">
-        <v>2.25</v>
-      </c>
-      <c r="AK198">
-        <v>1.57</v>
-      </c>
-      <c r="AL198">
-        <v>1.85</v>
-      </c>
-      <c r="AM198">
-        <v>1.85</v>
-      </c>
-      <c r="AN198">
-        <v>1.44</v>
-      </c>
       <c r="AO198">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AP198">
-        <v>1.35</v>
+        <v>1.56</v>
       </c>
       <c r="AQ198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR198">
-        <v>0.5</v>
+        <v>1.58</v>
       </c>
       <c r="AS198">
-        <v>1</v>
+        <v>1.92</v>
       </c>
       <c r="AT198">
-        <v>0.54</v>
+        <v>1.54</v>
       </c>
       <c r="AU198">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AV198">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AW198">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="AX198">
         <v>0</v>
@@ -38997,19 +39015,19 @@
         <v>5</v>
       </c>
       <c r="BG198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH198">
+        <v>5</v>
+      </c>
+      <c r="BI198">
         <v>9</v>
       </c>
-      <c r="BI198">
-        <v>11</v>
-      </c>
       <c r="BJ198">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BK198">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:63">
@@ -39017,7 +39035,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>2449592</v>
+        <v>2449593</v>
       </c>
       <c r="C199" t="s">
         <v>63</v>
@@ -39032,133 +39050,133 @@
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H199" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199">
         <v>0</v>
       </c>
       <c r="K199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O199" t="s">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="P199" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="Q199">
+        <v>16</v>
+      </c>
+      <c r="R199">
+        <v>7</v>
+      </c>
+      <c r="S199">
+        <v>23</v>
+      </c>
+      <c r="T199">
+        <v>3.4</v>
+      </c>
+      <c r="U199">
+        <v>2.05</v>
+      </c>
+      <c r="V199">
+        <v>3.2</v>
+      </c>
+      <c r="W199">
+        <v>1.5</v>
+      </c>
+      <c r="X199">
+        <v>2.4</v>
+      </c>
+      <c r="Y199">
+        <v>3.3</v>
+      </c>
+      <c r="Z199">
+        <v>1.3</v>
+      </c>
+      <c r="AA199">
+        <v>7.75</v>
+      </c>
+      <c r="AB199">
+        <v>1.05</v>
+      </c>
+      <c r="AC199">
+        <v>2.8</v>
+      </c>
+      <c r="AD199">
         <v>3</v>
       </c>
-      <c r="R199">
-        <v>5</v>
-      </c>
-      <c r="S199">
-        <v>8</v>
-      </c>
-      <c r="T199">
-        <v>3</v>
-      </c>
-      <c r="U199">
-        <v>1.91</v>
-      </c>
-      <c r="V199">
-        <v>4</v>
-      </c>
-      <c r="W199">
-        <v>1.52</v>
-      </c>
-      <c r="X199">
-        <v>2.28</v>
-      </c>
-      <c r="Y199">
-        <v>3.56</v>
-      </c>
-      <c r="Z199">
-        <v>1.25</v>
-      </c>
-      <c r="AA199">
-        <v>8.25</v>
-      </c>
-      <c r="AB199">
-        <v>1.04</v>
-      </c>
-      <c r="AC199">
-        <v>2.3</v>
-      </c>
-      <c r="AD199">
-        <v>2.9</v>
-      </c>
       <c r="AE199">
-        <v>3.05</v>
+        <v>2.45</v>
       </c>
       <c r="AF199">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AG199">
-        <v>6.75</v>
+        <v>8.1</v>
       </c>
       <c r="AH199">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AI199">
-        <v>2.3</v>
+        <v>2.71</v>
       </c>
       <c r="AJ199">
-        <v>2.39</v>
+        <v>2.25</v>
       </c>
       <c r="AK199">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="AL199">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="AM199">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AN199">
+        <v>1.44</v>
+      </c>
+      <c r="AO199">
         <v>1.3</v>
       </c>
-      <c r="AO199">
-        <v>1.33</v>
-      </c>
       <c r="AP199">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AQ199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR199">
-        <v>1.58</v>
+        <v>0.5</v>
       </c>
       <c r="AS199">
-        <v>1.92</v>
+        <v>1</v>
       </c>
       <c r="AT199">
-        <v>1.54</v>
+        <v>0.54</v>
       </c>
       <c r="AU199">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AV199">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AW199">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="AX199">
         <v>0</v>
@@ -39188,19 +39206,19 @@
         <v>5</v>
       </c>
       <c r="BG199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH199">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BI199">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ199">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BK199">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:63">
@@ -39208,7 +39226,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>2449590</v>
+        <v>2449594</v>
       </c>
       <c r="C200" t="s">
         <v>63</v>
@@ -39223,133 +39241,133 @@
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H200" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200">
         <v>2</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M200">
         <v>2</v>
       </c>
       <c r="N200">
+        <v>3</v>
+      </c>
+      <c r="O200" t="s">
+        <v>179</v>
+      </c>
+      <c r="P200" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q200">
         <v>6</v>
-      </c>
-      <c r="O200" t="s">
-        <v>209</v>
-      </c>
-      <c r="P200" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q200">
-        <v>3</v>
       </c>
       <c r="R200">
         <v>4</v>
       </c>
       <c r="S200">
+        <v>10</v>
+      </c>
+      <c r="T200">
+        <v>2.1</v>
+      </c>
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
         <v>7</v>
       </c>
-      <c r="T200">
-        <v>2.38</v>
-      </c>
-      <c r="U200">
-        <v>2.1</v>
-      </c>
-      <c r="V200">
-        <v>4.5</v>
-      </c>
       <c r="W200">
+        <v>1.6</v>
+      </c>
+      <c r="X200">
+        <v>2.2</v>
+      </c>
+      <c r="Y200">
+        <v>3.84</v>
+      </c>
+      <c r="Z200">
+        <v>1.22</v>
+      </c>
+      <c r="AA200">
+        <v>10.5</v>
+      </c>
+      <c r="AB200">
+        <v>1.02</v>
+      </c>
+      <c r="AC200">
+        <v>1.65</v>
+      </c>
+      <c r="AD200">
+        <v>3.2</v>
+      </c>
+      <c r="AE200">
+        <v>5.5</v>
+      </c>
+      <c r="AF200">
+        <v>1.08</v>
+      </c>
+      <c r="AG200">
+        <v>5.85</v>
+      </c>
+      <c r="AH200">
+        <v>1.56</v>
+      </c>
+      <c r="AI200">
+        <v>2.27</v>
+      </c>
+      <c r="AJ200">
+        <v>2.45</v>
+      </c>
+      <c r="AK200">
+        <v>1.5</v>
+      </c>
+      <c r="AL200">
+        <v>2.48</v>
+      </c>
+      <c r="AM200">
         <v>1.45</v>
       </c>
-      <c r="X200">
-        <v>2.48</v>
-      </c>
-      <c r="Y200">
-        <v>3.11</v>
-      </c>
-      <c r="Z200">
-        <v>1.3</v>
-      </c>
-      <c r="AA200">
-        <v>7</v>
-      </c>
-      <c r="AB200">
-        <v>1.07</v>
-      </c>
-      <c r="AC200">
-        <v>1.75</v>
-      </c>
-      <c r="AD200">
-        <v>3.5</v>
-      </c>
-      <c r="AE200">
-        <v>4.2</v>
-      </c>
-      <c r="AF200">
-        <v>1.06</v>
-      </c>
-      <c r="AG200">
-        <v>9</v>
-      </c>
-      <c r="AH200">
-        <v>1.36</v>
-      </c>
-      <c r="AI200">
-        <v>2.85</v>
-      </c>
-      <c r="AJ200">
-        <v>1.95</v>
-      </c>
-      <c r="AK200">
-        <v>1.75</v>
-      </c>
-      <c r="AL200">
-        <v>1.85</v>
-      </c>
-      <c r="AM200">
-        <v>1.85</v>
-      </c>
       <c r="AN200">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AO200">
         <v>1.29</v>
       </c>
       <c r="AP200">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
-        <v>1.92</v>
+        <v>2.5</v>
       </c>
       <c r="AR200">
         <v>0.75</v>
       </c>
       <c r="AS200">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="AT200">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AU200">
-        <v>2.06</v>
+        <v>2.27</v>
       </c>
       <c r="AV200">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AW200">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="AX200">
         <v>0</v>
@@ -39376,19 +39394,19 @@
         <v>0</v>
       </c>
       <c r="BF200">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG200">
         <v>5</v>
       </c>
       <c r="BH200">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI200">
         <v>8</v>
       </c>
       <c r="BJ200">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK200">
         <v>13</v>
@@ -39583,6 +39601,1534 @@
       </c>
       <c r="BK201">
         <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2665880</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F202">
+        <v>26</v>
+      </c>
+      <c r="G202" t="s">
+        <v>75</v>
+      </c>
+      <c r="H202" t="s">
+        <v>76</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202" t="s">
+        <v>210</v>
+      </c>
+      <c r="P202" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>5</v>
+      </c>
+      <c r="S202">
+        <v>10</v>
+      </c>
+      <c r="T202">
+        <v>2.88</v>
+      </c>
+      <c r="U202">
+        <v>1.91</v>
+      </c>
+      <c r="V202">
+        <v>4.33</v>
+      </c>
+      <c r="W202">
+        <v>1.52</v>
+      </c>
+      <c r="X202">
+        <v>2.17</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>0</v>
+      </c>
+      <c r="AC202">
+        <v>2.1</v>
+      </c>
+      <c r="AD202">
+        <v>2.9</v>
+      </c>
+      <c r="AE202">
+        <v>3.6</v>
+      </c>
+      <c r="AF202">
+        <v>1.06</v>
+      </c>
+      <c r="AG202">
+        <v>6.5</v>
+      </c>
+      <c r="AH202">
+        <v>1.51</v>
+      </c>
+      <c r="AI202">
+        <v>2.4</v>
+      </c>
+      <c r="AJ202">
+        <v>2.6</v>
+      </c>
+      <c r="AK202">
+        <v>1.48</v>
+      </c>
+      <c r="AL202">
+        <v>2.05</v>
+      </c>
+      <c r="AM202">
+        <v>1.66</v>
+      </c>
+      <c r="AN202">
+        <v>1.33</v>
+      </c>
+      <c r="AO202">
+        <v>1.3</v>
+      </c>
+      <c r="AP202">
+        <v>1.35</v>
+      </c>
+      <c r="AQ202">
+        <v>1.83</v>
+      </c>
+      <c r="AR202">
+        <v>1</v>
+      </c>
+      <c r="AS202">
+        <v>1.92</v>
+      </c>
+      <c r="AT202">
+        <v>0.92</v>
+      </c>
+      <c r="AU202">
+        <v>1.4</v>
+      </c>
+      <c r="AV202">
+        <v>1.31</v>
+      </c>
+      <c r="AW202">
+        <v>2.71</v>
+      </c>
+      <c r="AX202">
+        <v>0</v>
+      </c>
+      <c r="AY202">
+        <v>0</v>
+      </c>
+      <c r="AZ202">
+        <v>0</v>
+      </c>
+      <c r="BA202">
+        <v>0</v>
+      </c>
+      <c r="BB202">
+        <v>0</v>
+      </c>
+      <c r="BC202">
+        <v>0</v>
+      </c>
+      <c r="BD202">
+        <v>0</v>
+      </c>
+      <c r="BE202">
+        <v>0</v>
+      </c>
+      <c r="BF202">
+        <v>7</v>
+      </c>
+      <c r="BG202">
+        <v>5</v>
+      </c>
+      <c r="BH202">
+        <v>3</v>
+      </c>
+      <c r="BI202">
+        <v>10</v>
+      </c>
+      <c r="BJ202">
+        <v>10</v>
+      </c>
+      <c r="BK202">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2449597</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F203">
+        <v>26</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>72</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>81</v>
+      </c>
+      <c r="P203" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q203">
+        <v>-1</v>
+      </c>
+      <c r="R203">
+        <v>-1</v>
+      </c>
+      <c r="S203">
+        <v>-1</v>
+      </c>
+      <c r="T203">
+        <v>2.6</v>
+      </c>
+      <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
+        <v>4.33</v>
+      </c>
+      <c r="W203">
+        <v>1.43</v>
+      </c>
+      <c r="X203">
+        <v>2.37</v>
+      </c>
+      <c r="Y203">
+        <v>3.11</v>
+      </c>
+      <c r="Z203">
+        <v>1.3</v>
+      </c>
+      <c r="AA203">
+        <v>7.5</v>
+      </c>
+      <c r="AB203">
+        <v>1.05</v>
+      </c>
+      <c r="AC203">
+        <v>1.85</v>
+      </c>
+      <c r="AD203">
+        <v>3.3</v>
+      </c>
+      <c r="AE203">
+        <v>3.6</v>
+      </c>
+      <c r="AF203">
+        <v>1.02</v>
+      </c>
+      <c r="AG203">
+        <v>8</v>
+      </c>
+      <c r="AH203">
+        <v>1.33</v>
+      </c>
+      <c r="AI203">
+        <v>2.8</v>
+      </c>
+      <c r="AJ203">
+        <v>2.2</v>
+      </c>
+      <c r="AK203">
+        <v>1.65</v>
+      </c>
+      <c r="AL203">
+        <v>1.9</v>
+      </c>
+      <c r="AM203">
+        <v>1.76</v>
+      </c>
+      <c r="AN203">
+        <v>1.19</v>
+      </c>
+      <c r="AO203">
+        <v>1.25</v>
+      </c>
+      <c r="AP203">
+        <v>1.74</v>
+      </c>
+      <c r="AQ203">
+        <v>2.17</v>
+      </c>
+      <c r="AR203">
+        <v>0.58</v>
+      </c>
+      <c r="AS203">
+        <v>2</v>
+      </c>
+      <c r="AT203">
+        <v>0.77</v>
+      </c>
+      <c r="AU203">
+        <v>1.39</v>
+      </c>
+      <c r="AV203">
+        <v>1.29</v>
+      </c>
+      <c r="AW203">
+        <v>2.68</v>
+      </c>
+      <c r="AX203">
+        <v>0</v>
+      </c>
+      <c r="AY203">
+        <v>0</v>
+      </c>
+      <c r="AZ203">
+        <v>0</v>
+      </c>
+      <c r="BA203">
+        <v>0</v>
+      </c>
+      <c r="BB203">
+        <v>0</v>
+      </c>
+      <c r="BC203">
+        <v>0</v>
+      </c>
+      <c r="BD203">
+        <v>0</v>
+      </c>
+      <c r="BE203">
+        <v>0</v>
+      </c>
+      <c r="BF203">
+        <v>-1</v>
+      </c>
+      <c r="BG203">
+        <v>-1</v>
+      </c>
+      <c r="BH203">
+        <v>-1</v>
+      </c>
+      <c r="BI203">
+        <v>-1</v>
+      </c>
+      <c r="BJ203">
+        <v>-1</v>
+      </c>
+      <c r="BK203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2449600</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F204">
+        <v>26</v>
+      </c>
+      <c r="G204" t="s">
+        <v>66</v>
+      </c>
+      <c r="H204" t="s">
+        <v>80</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>3</v>
+      </c>
+      <c r="N204">
+        <v>4</v>
+      </c>
+      <c r="O204" t="s">
+        <v>211</v>
+      </c>
+      <c r="P204" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>5</v>
+      </c>
+      <c r="S204">
+        <v>10</v>
+      </c>
+      <c r="T204">
+        <v>2.1</v>
+      </c>
+      <c r="U204">
+        <v>2.1</v>
+      </c>
+      <c r="V204">
+        <v>6</v>
+      </c>
+      <c r="W204">
+        <v>1.39</v>
+      </c>
+      <c r="X204">
+        <v>2.52</v>
+      </c>
+      <c r="Y204">
+        <v>2.97</v>
+      </c>
+      <c r="Z204">
+        <v>1.32</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>0</v>
+      </c>
+      <c r="AC204">
+        <v>1.5</v>
+      </c>
+      <c r="AD204">
+        <v>3.5</v>
+      </c>
+      <c r="AE204">
+        <v>6</v>
+      </c>
+      <c r="AF204">
+        <v>1.07</v>
+      </c>
+      <c r="AG204">
+        <v>7.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.28</v>
+      </c>
+      <c r="AI204">
+        <v>3.1</v>
+      </c>
+      <c r="AJ204">
+        <v>2.1</v>
+      </c>
+      <c r="AK204">
+        <v>1.7</v>
+      </c>
+      <c r="AL204">
+        <v>2.1</v>
+      </c>
+      <c r="AM204">
+        <v>1.67</v>
+      </c>
+      <c r="AN204">
+        <v>1.07</v>
+      </c>
+      <c r="AO204">
+        <v>1.13</v>
+      </c>
+      <c r="AP204">
+        <v>2.35</v>
+      </c>
+      <c r="AQ204">
+        <v>2.17</v>
+      </c>
+      <c r="AR204">
+        <v>0.5</v>
+      </c>
+      <c r="AS204">
+        <v>2</v>
+      </c>
+      <c r="AT204">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU204">
+        <v>1.4</v>
+      </c>
+      <c r="AV204">
+        <v>1.27</v>
+      </c>
+      <c r="AW204">
+        <v>2.67</v>
+      </c>
+      <c r="AX204">
+        <v>0</v>
+      </c>
+      <c r="AY204">
+        <v>0</v>
+      </c>
+      <c r="AZ204">
+        <v>0</v>
+      </c>
+      <c r="BA204">
+        <v>0</v>
+      </c>
+      <c r="BB204">
+        <v>0</v>
+      </c>
+      <c r="BC204">
+        <v>0</v>
+      </c>
+      <c r="BD204">
+        <v>0</v>
+      </c>
+      <c r="BE204">
+        <v>0</v>
+      </c>
+      <c r="BF204">
+        <v>3</v>
+      </c>
+      <c r="BG204">
+        <v>6</v>
+      </c>
+      <c r="BH204">
+        <v>4</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>7</v>
+      </c>
+      <c r="BK204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2449601</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>26</v>
+      </c>
+      <c r="G205" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" t="s">
+        <v>78</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>86</v>
+      </c>
+      <c r="P205" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q205">
+        <v>3</v>
+      </c>
+      <c r="R205">
+        <v>3</v>
+      </c>
+      <c r="S205">
+        <v>6</v>
+      </c>
+      <c r="T205">
+        <v>2.75</v>
+      </c>
+      <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
+        <v>4</v>
+      </c>
+      <c r="W205">
+        <v>1.51</v>
+      </c>
+      <c r="X205">
+        <v>2.3</v>
+      </c>
+      <c r="Y205">
+        <v>3.34</v>
+      </c>
+      <c r="Z205">
+        <v>1.28</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+      <c r="AB205">
+        <v>0</v>
+      </c>
+      <c r="AC205">
+        <v>2.05</v>
+      </c>
+      <c r="AD205">
+        <v>3</v>
+      </c>
+      <c r="AE205">
+        <v>3.6</v>
+      </c>
+      <c r="AF205">
+        <v>1.05</v>
+      </c>
+      <c r="AG205">
+        <v>6.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.42</v>
+      </c>
+      <c r="AI205">
+        <v>2.55</v>
+      </c>
+      <c r="AJ205">
+        <v>2.4</v>
+      </c>
+      <c r="AK205">
+        <v>1.53</v>
+      </c>
+      <c r="AL205">
+        <v>1.98</v>
+      </c>
+      <c r="AM205">
+        <v>1.7</v>
+      </c>
+      <c r="AN205">
+        <v>1.28</v>
+      </c>
+      <c r="AO205">
+        <v>1.31</v>
+      </c>
+      <c r="AP205">
+        <v>1.62</v>
+      </c>
+      <c r="AQ205">
+        <v>1.75</v>
+      </c>
+      <c r="AR205">
+        <v>1.17</v>
+      </c>
+      <c r="AS205">
+        <v>1.85</v>
+      </c>
+      <c r="AT205">
+        <v>1.08</v>
+      </c>
+      <c r="AU205">
+        <v>1.58</v>
+      </c>
+      <c r="AV205">
+        <v>1.2</v>
+      </c>
+      <c r="AW205">
+        <v>2.78</v>
+      </c>
+      <c r="AX205">
+        <v>0</v>
+      </c>
+      <c r="AY205">
+        <v>0</v>
+      </c>
+      <c r="AZ205">
+        <v>0</v>
+      </c>
+      <c r="BA205">
+        <v>0</v>
+      </c>
+      <c r="BB205">
+        <v>0</v>
+      </c>
+      <c r="BC205">
+        <v>0</v>
+      </c>
+      <c r="BD205">
+        <v>0</v>
+      </c>
+      <c r="BE205">
+        <v>0</v>
+      </c>
+      <c r="BF205">
+        <v>4</v>
+      </c>
+      <c r="BG205">
+        <v>2</v>
+      </c>
+      <c r="BH205">
+        <v>6</v>
+      </c>
+      <c r="BI205">
+        <v>2</v>
+      </c>
+      <c r="BJ205">
+        <v>10</v>
+      </c>
+      <c r="BK205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2449602</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F206">
+        <v>26</v>
+      </c>
+      <c r="G206" t="s">
+        <v>65</v>
+      </c>
+      <c r="H206" t="s">
+        <v>77</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>1</v>
+      </c>
+      <c r="O206" t="s">
+        <v>212</v>
+      </c>
+      <c r="P206" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q206">
+        <v>6</v>
+      </c>
+      <c r="R206">
+        <v>6</v>
+      </c>
+      <c r="S206">
+        <v>12</v>
+      </c>
+      <c r="T206">
+        <v>2.4</v>
+      </c>
+      <c r="U206">
+        <v>1.91</v>
+      </c>
+      <c r="V206">
+        <v>6</v>
+      </c>
+      <c r="W206">
+        <v>1.64</v>
+      </c>
+      <c r="X206">
+        <v>2.15</v>
+      </c>
+      <c r="Y206">
+        <v>3.74</v>
+      </c>
+      <c r="Z206">
+        <v>1.23</v>
+      </c>
+      <c r="AA206">
+        <v>9</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>1.67</v>
+      </c>
+      <c r="AD206">
+        <v>3.2</v>
+      </c>
+      <c r="AE206">
+        <v>5.5</v>
+      </c>
+      <c r="AF206">
+        <v>1.12</v>
+      </c>
+      <c r="AG206">
+        <v>5.75</v>
+      </c>
+      <c r="AH206">
+        <v>1.5</v>
+      </c>
+      <c r="AI206">
+        <v>2.3</v>
+      </c>
+      <c r="AJ206">
+        <v>2.6</v>
+      </c>
+      <c r="AK206">
+        <v>1.48</v>
+      </c>
+      <c r="AL206">
+        <v>2.35</v>
+      </c>
+      <c r="AM206">
+        <v>1.53</v>
+      </c>
+      <c r="AN206">
+        <v>1.12</v>
+      </c>
+      <c r="AO206">
+        <v>1.3</v>
+      </c>
+      <c r="AP206">
+        <v>1.8</v>
+      </c>
+      <c r="AQ206">
+        <v>1.33</v>
+      </c>
+      <c r="AR206">
+        <v>0.58</v>
+      </c>
+      <c r="AS206">
+        <v>1.46</v>
+      </c>
+      <c r="AT206">
+        <v>0.54</v>
+      </c>
+      <c r="AU206">
+        <v>1.61</v>
+      </c>
+      <c r="AV206">
+        <v>1.21</v>
+      </c>
+      <c r="AW206">
+        <v>2.82</v>
+      </c>
+      <c r="AX206">
+        <v>0</v>
+      </c>
+      <c r="AY206">
+        <v>0</v>
+      </c>
+      <c r="AZ206">
+        <v>0</v>
+      </c>
+      <c r="BA206">
+        <v>0</v>
+      </c>
+      <c r="BB206">
+        <v>0</v>
+      </c>
+      <c r="BC206">
+        <v>0</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>0</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>2</v>
+      </c>
+      <c r="BH206">
+        <v>8</v>
+      </c>
+      <c r="BI206">
+        <v>3</v>
+      </c>
+      <c r="BJ206">
+        <v>12</v>
+      </c>
+      <c r="BK206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2449598</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45012.45833333334</v>
+      </c>
+      <c r="F207">
+        <v>26</v>
+      </c>
+      <c r="G207" t="s">
+        <v>69</v>
+      </c>
+      <c r="H207" t="s">
+        <v>67</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>154</v>
+      </c>
+      <c r="P207" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q207">
+        <v>-1</v>
+      </c>
+      <c r="R207">
+        <v>-1</v>
+      </c>
+      <c r="S207">
+        <v>-1</v>
+      </c>
+      <c r="T207">
+        <v>7</v>
+      </c>
+      <c r="U207">
+        <v>2.05</v>
+      </c>
+      <c r="V207">
+        <v>2.1</v>
+      </c>
+      <c r="W207">
+        <v>1.43</v>
+      </c>
+      <c r="X207">
+        <v>2.42</v>
+      </c>
+      <c r="Y207">
+        <v>3.22</v>
+      </c>
+      <c r="Z207">
+        <v>1.3</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>0</v>
+      </c>
+      <c r="AC207">
+        <v>7</v>
+      </c>
+      <c r="AD207">
+        <v>3.6</v>
+      </c>
+      <c r="AE207">
+        <v>1.5</v>
+      </c>
+      <c r="AF207">
+        <v>1.03</v>
+      </c>
+      <c r="AG207">
+        <v>8</v>
+      </c>
+      <c r="AH207">
+        <v>1.34</v>
+      </c>
+      <c r="AI207">
+        <v>2.8</v>
+      </c>
+      <c r="AJ207">
+        <v>2.25</v>
+      </c>
+      <c r="AK207">
+        <v>1.62</v>
+      </c>
+      <c r="AL207">
+        <v>2.15</v>
+      </c>
+      <c r="AM207">
+        <v>1.62</v>
+      </c>
+      <c r="AN207">
+        <v>2.1</v>
+      </c>
+      <c r="AO207">
+        <v>1.23</v>
+      </c>
+      <c r="AP207">
+        <v>1.11</v>
+      </c>
+      <c r="AQ207">
+        <v>0.83</v>
+      </c>
+      <c r="AR207">
+        <v>1.92</v>
+      </c>
+      <c r="AS207">
+        <v>0.85</v>
+      </c>
+      <c r="AT207">
+        <v>1.85</v>
+      </c>
+      <c r="AU207">
+        <v>1.35</v>
+      </c>
+      <c r="AV207">
+        <v>1.59</v>
+      </c>
+      <c r="AW207">
+        <v>2.94</v>
+      </c>
+      <c r="AX207">
+        <v>0</v>
+      </c>
+      <c r="AY207">
+        <v>0</v>
+      </c>
+      <c r="AZ207">
+        <v>0</v>
+      </c>
+      <c r="BA207">
+        <v>0</v>
+      </c>
+      <c r="BB207">
+        <v>0</v>
+      </c>
+      <c r="BC207">
+        <v>0</v>
+      </c>
+      <c r="BD207">
+        <v>0</v>
+      </c>
+      <c r="BE207">
+        <v>0</v>
+      </c>
+      <c r="BF207">
+        <v>-1</v>
+      </c>
+      <c r="BG207">
+        <v>-1</v>
+      </c>
+      <c r="BH207">
+        <v>-1</v>
+      </c>
+      <c r="BI207">
+        <v>-1</v>
+      </c>
+      <c r="BJ207">
+        <v>-1</v>
+      </c>
+      <c r="BK207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2449599</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45012.5</v>
+      </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
+      <c r="G208" t="s">
+        <v>70</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>2</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>2</v>
+      </c>
+      <c r="O208" t="s">
+        <v>213</v>
+      </c>
+      <c r="P208" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>-1</v>
+      </c>
+      <c r="S208">
+        <v>-1</v>
+      </c>
+      <c r="T208">
+        <v>4</v>
+      </c>
+      <c r="U208">
+        <v>1.91</v>
+      </c>
+      <c r="V208">
+        <v>3</v>
+      </c>
+      <c r="W208">
+        <v>1.64</v>
+      </c>
+      <c r="X208">
+        <v>2.15</v>
+      </c>
+      <c r="Y208">
+        <v>4.1</v>
+      </c>
+      <c r="Z208">
+        <v>1.18</v>
+      </c>
+      <c r="AA208">
+        <v>9.5</v>
+      </c>
+      <c r="AB208">
+        <v>1.03</v>
+      </c>
+      <c r="AC208">
+        <v>3.6</v>
+      </c>
+      <c r="AD208">
+        <v>2.75</v>
+      </c>
+      <c r="AE208">
+        <v>2.1</v>
+      </c>
+      <c r="AF208">
+        <v>1.1</v>
+      </c>
+      <c r="AG208">
+        <v>5.8</v>
+      </c>
+      <c r="AH208">
+        <v>1.61</v>
+      </c>
+      <c r="AI208">
+        <v>2.15</v>
+      </c>
+      <c r="AJ208">
+        <v>2.47</v>
+      </c>
+      <c r="AK208">
+        <v>1.48</v>
+      </c>
+      <c r="AL208">
+        <v>2.1</v>
+      </c>
+      <c r="AM208">
+        <v>1.66</v>
+      </c>
+      <c r="AN208">
+        <v>1.63</v>
+      </c>
+      <c r="AO208">
+        <v>1.33</v>
+      </c>
+      <c r="AP208">
+        <v>1.22</v>
+      </c>
+      <c r="AQ208">
+        <v>1.58</v>
+      </c>
+      <c r="AR208">
+        <v>1.58</v>
+      </c>
+      <c r="AS208">
+        <v>1.69</v>
+      </c>
+      <c r="AT208">
+        <v>1.46</v>
+      </c>
+      <c r="AU208">
+        <v>1.79</v>
+      </c>
+      <c r="AV208">
+        <v>1.48</v>
+      </c>
+      <c r="AW208">
+        <v>3.27</v>
+      </c>
+      <c r="AX208">
+        <v>0</v>
+      </c>
+      <c r="AY208">
+        <v>0</v>
+      </c>
+      <c r="AZ208">
+        <v>0</v>
+      </c>
+      <c r="BA208">
+        <v>0</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>0</v>
+      </c>
+      <c r="BD208">
+        <v>0</v>
+      </c>
+      <c r="BE208">
+        <v>0</v>
+      </c>
+      <c r="BF208">
+        <v>-1</v>
+      </c>
+      <c r="BG208">
+        <v>-1</v>
+      </c>
+      <c r="BH208">
+        <v>-1</v>
+      </c>
+      <c r="BI208">
+        <v>-1</v>
+      </c>
+      <c r="BJ208">
+        <v>-1</v>
+      </c>
+      <c r="BK208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2449603</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45012.5</v>
+      </c>
+      <c r="F209">
+        <v>26</v>
+      </c>
+      <c r="G209" t="s">
+        <v>79</v>
+      </c>
+      <c r="H209" t="s">
+        <v>74</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>2</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>102</v>
+      </c>
+      <c r="P209" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>7</v>
+      </c>
+      <c r="S209">
+        <v>11</v>
+      </c>
+      <c r="T209">
+        <v>3.2</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>3.25</v>
+      </c>
+      <c r="W209">
+        <v>1.43</v>
+      </c>
+      <c r="X209">
+        <v>2.65</v>
+      </c>
+      <c r="Y209">
+        <v>2.91</v>
+      </c>
+      <c r="Z209">
+        <v>1.34</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>1.07</v>
+      </c>
+      <c r="AC209">
+        <v>2.63</v>
+      </c>
+      <c r="AD209">
+        <v>3.1</v>
+      </c>
+      <c r="AE209">
+        <v>2.7</v>
+      </c>
+      <c r="AF209">
+        <v>1.07</v>
+      </c>
+      <c r="AG209">
+        <v>10.5</v>
+      </c>
+      <c r="AH209">
+        <v>1.32</v>
+      </c>
+      <c r="AI209">
+        <v>3.05</v>
+      </c>
+      <c r="AJ209">
+        <v>2.1</v>
+      </c>
+      <c r="AK209">
+        <v>1.7</v>
+      </c>
+      <c r="AL209">
+        <v>1.8</v>
+      </c>
+      <c r="AM209">
+        <v>1.9</v>
+      </c>
+      <c r="AN209">
+        <v>1.72</v>
+      </c>
+      <c r="AO209">
+        <v>1.25</v>
+      </c>
+      <c r="AP209">
+        <v>1.2</v>
+      </c>
+      <c r="AQ209">
+        <v>1.75</v>
+      </c>
+      <c r="AR209">
+        <v>1.5</v>
+      </c>
+      <c r="AS209">
+        <v>1.85</v>
+      </c>
+      <c r="AT209">
+        <v>1.38</v>
+      </c>
+      <c r="AU209">
+        <v>1.48</v>
+      </c>
+      <c r="AV209">
+        <v>1.86</v>
+      </c>
+      <c r="AW209">
+        <v>3.34</v>
+      </c>
+      <c r="AX209">
+        <v>0</v>
+      </c>
+      <c r="AY209">
+        <v>0</v>
+      </c>
+      <c r="AZ209">
+        <v>0</v>
+      </c>
+      <c r="BA209">
+        <v>0</v>
+      </c>
+      <c r="BB209">
+        <v>0</v>
+      </c>
+      <c r="BC209">
+        <v>0</v>
+      </c>
+      <c r="BD209">
+        <v>0</v>
+      </c>
+      <c r="BE209">
+        <v>0</v>
+      </c>
+      <c r="BF209">
+        <v>8</v>
+      </c>
+      <c r="BG209">
+        <v>5</v>
+      </c>
+      <c r="BH209">
+        <v>6</v>
+      </c>
+      <c r="BI209">
+        <v>6</v>
+      </c>
+      <c r="BJ209">
+        <v>14</v>
+      </c>
+      <c r="BK209">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT4" t="n">
         <v>1.08</v>
@@ -1512,7 +1512,7 @@
         <v>1.85</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT8" t="n">
         <v>0.6899999999999999</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.92</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU13" t="n">
         <v>1.84</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT15" t="n">
         <v>1.85</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT16" t="n">
         <v>1.46</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT18" t="n">
         <v>0.92</v>
@@ -4354,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU19" t="n">
         <v>1.46</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT21" t="n">
         <v>0.54</v>
@@ -5369,7 +5369,7 @@
         <v>1.69</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU24" t="n">
         <v>1.79</v>
@@ -5572,7 +5572,7 @@
         <v>1.85</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU25" t="n">
         <v>1.99</v>
@@ -5978,7 +5978,7 @@
         <v>1.46</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU27" t="n">
         <v>1.71</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT28" t="n">
         <v>1.85</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT29" t="n">
         <v>1.46</v>
@@ -6587,7 +6587,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU30" t="n">
         <v>1.26</v>
@@ -6787,10 +6787,10 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU31" t="n">
         <v>1.37</v>
@@ -6993,7 +6993,7 @@
         <v>1.85</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU32" t="n">
         <v>1.86</v>
@@ -7193,7 +7193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT33" t="n">
         <v>0.6899999999999999</v>
@@ -7399,7 +7399,7 @@
         <v>0.85</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.38</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT35" t="n">
         <v>0.85</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU37" t="n">
         <v>1.36</v>
@@ -8211,7 +8211,7 @@
         <v>0.92</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU38" t="n">
         <v>1.23</v>
@@ -8411,7 +8411,7 @@
         <v>2</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT39" t="n">
         <v>1.38</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT40" t="n">
         <v>0.54</v>
@@ -8820,7 +8820,7 @@
         <v>1.69</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU41" t="n">
         <v>1.93</v>
@@ -9020,7 +9020,7 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT42" t="n">
         <v>0.6899999999999999</v>
@@ -9223,7 +9223,7 @@
         <v>0.33</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT43" t="n">
         <v>1.08</v>
@@ -9835,7 +9835,7 @@
         <v>1.46</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU46" t="n">
         <v>1.65</v>
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU47" t="n">
         <v>1.31</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT48" t="n">
         <v>1.46</v>
@@ -10444,7 +10444,7 @@
         <v>1.85</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU49" t="n">
         <v>1.53</v>
@@ -10647,7 +10647,7 @@
         <v>0.92</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU50" t="n">
         <v>1.41</v>
@@ -11053,7 +11053,7 @@
         <v>1.69</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.65</v>
@@ -11256,7 +11256,7 @@
         <v>0.85</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU53" t="n">
         <v>1.35</v>
@@ -11456,10 +11456,10 @@
         <v>2</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>2.13</v>
@@ -11659,10 +11659,10 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU55" t="n">
         <v>2.15</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT56" t="n">
         <v>1.38</v>
@@ -12065,7 +12065,7 @@
         <v>1.33</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT57" t="n">
         <v>0.92</v>
@@ -12474,7 +12474,7 @@
         <v>2</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU59" t="n">
         <v>1.32</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT60" t="n">
         <v>0.54</v>
@@ -13286,7 +13286,7 @@
         <v>1.69</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU63" t="n">
         <v>1.69</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT64" t="n">
         <v>1.08</v>
@@ -13892,7 +13892,7 @@
         <v>2</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT66" t="n">
         <v>1.38</v>
@@ -14098,7 +14098,7 @@
         <v>0.85</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU67" t="n">
         <v>1.25</v>
@@ -14298,7 +14298,7 @@
         <v>0.5</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT68" t="n">
         <v>0.85</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.52</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU70" t="n">
         <v>1.18</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU71" t="n">
         <v>2.03</v>
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU72" t="n">
         <v>2.25</v>
@@ -15316,7 +15316,7 @@
         <v>0.92</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU73" t="n">
         <v>1.26</v>
@@ -15516,7 +15516,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT74" t="n">
         <v>0.92</v>
@@ -16331,7 +16331,7 @@
         <v>0.85</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU78" t="n">
         <v>1.27</v>
@@ -16937,10 +16937,10 @@
         <v>0.5</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU81" t="n">
         <v>1.38</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU82" t="n">
         <v>2.17</v>
@@ -17343,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU83" t="n">
         <v>1.72</v>
@@ -17549,7 +17549,7 @@
         <v>0.92</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.29</v>
@@ -17749,10 +17749,10 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -17952,7 +17952,7 @@
         <v>0.4</v>
       </c>
       <c r="AS86" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT86" t="n">
         <v>0.85</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19982,10 +19982,10 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU96" t="n">
         <v>2.1</v>
@@ -20185,10 +20185,10 @@
         <v>1.33</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU97" t="n">
         <v>2.15</v>
@@ -20388,10 +20388,10 @@
         <v>1.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU98" t="n">
         <v>2.14</v>
@@ -20594,7 +20594,7 @@
         <v>1</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -20794,10 +20794,10 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU100" t="n">
         <v>1.59</v>
@@ -20997,10 +20997,10 @@
         <v>0.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU101" t="n">
         <v>1.49</v>
@@ -21200,10 +21200,10 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU102" t="n">
         <v>1.47</v>
@@ -21406,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU103" t="n">
         <v>1.39</v>
@@ -21609,7 +21609,7 @@
         <v>2</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU104" t="n">
         <v>1.78</v>
@@ -21809,7 +21809,7 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT105" t="n">
         <v>1.46</v>
@@ -23433,10 +23433,10 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU113" t="n">
         <v>2.29</v>
@@ -23636,10 +23636,10 @@
         <v>0.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU114" t="n">
         <v>1.61</v>
@@ -23839,10 +23839,10 @@
         <v>1.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU115" t="n">
         <v>1.66</v>
@@ -24042,10 +24042,10 @@
         <v>0.33</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU116" t="n">
         <v>2.07</v>
@@ -24245,10 +24245,10 @@
         <v>0.83</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU117" t="n">
         <v>1.48</v>
@@ -24451,7 +24451,7 @@
         <v>1.92</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU118" t="n">
         <v>1.59</v>
@@ -24854,10 +24854,10 @@
         <v>1</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU120" t="n">
         <v>1.52</v>
@@ -25057,10 +25057,10 @@
         <v>0.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU121" t="n">
         <v>2.29</v>
@@ -25260,10 +25260,10 @@
         <v>1.29</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU122" t="n">
         <v>1.57</v>
@@ -25463,10 +25463,10 @@
         <v>0.29</v>
       </c>
       <c r="AS123" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU123" t="n">
         <v>2.11</v>
@@ -25669,7 +25669,7 @@
         <v>2</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU124" t="n">
         <v>1.54</v>
@@ -25872,7 +25872,7 @@
         <v>1.92</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU125" t="n">
         <v>1.56</v>
@@ -26072,10 +26072,10 @@
         <v>0.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU126" t="n">
         <v>1.43</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT127" t="n">
         <v>1.85</v>
@@ -26478,10 +26478,10 @@
         <v>0.86</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU128" t="n">
         <v>1.67</v>
@@ -26884,7 +26884,7 @@
         <v>1</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT130" t="n">
         <v>1.08</v>
@@ -27087,7 +27087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT131" t="n">
         <v>0.54</v>
@@ -27699,7 +27699,7 @@
         <v>2</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.32</v>
@@ -27902,7 +27902,7 @@
         <v>1.85</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU135" t="n">
         <v>1.61</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.25</v>
@@ -28511,7 +28511,7 @@
         <v>2</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU138" t="n">
         <v>1.47</v>
@@ -28714,7 +28714,7 @@
         <v>1.46</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU139" t="n">
         <v>1.56</v>
@@ -28914,10 +28914,10 @@
         <v>0.75</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU140" t="n">
         <v>2.13</v>
@@ -29117,7 +29117,7 @@
         <v>0.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT141" t="n">
         <v>0.6899999999999999</v>
@@ -29323,7 +29323,7 @@
         <v>1.92</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU142" t="n">
         <v>1.51</v>
@@ -29523,10 +29523,10 @@
         <v>1.25</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU143" t="n">
         <v>1.46</v>
@@ -29726,7 +29726,7 @@
         <v>1.75</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT144" t="n">
         <v>1.85</v>
@@ -29929,7 +29929,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT145" t="n">
         <v>1.46</v>
@@ -30135,7 +30135,7 @@
         <v>1.69</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU146" t="n">
         <v>1.76</v>
@@ -30338,7 +30338,7 @@
         <v>2</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU147" t="n">
         <v>1.39</v>
@@ -30741,7 +30741,7 @@
         <v>1.89</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT149" t="n">
         <v>1.38</v>
@@ -30944,10 +30944,10 @@
         <v>0.89</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT150" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU150" t="n">
         <v>1.49</v>
@@ -31150,7 +31150,7 @@
         <v>0.85</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU151" t="n">
         <v>1.42</v>
@@ -31350,7 +31350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT152" t="n">
         <v>0.92</v>
@@ -31759,7 +31759,7 @@
         <v>2</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU154" t="n">
         <v>1.41</v>
@@ -31959,7 +31959,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT155" t="n">
         <v>0.6899999999999999</v>
@@ -32162,7 +32162,7 @@
         <v>1.89</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT156" t="n">
         <v>1.85</v>
@@ -32368,7 +32368,7 @@
         <v>1.92</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU157" t="n">
         <v>1.44</v>
@@ -32571,7 +32571,7 @@
         <v>1.85</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU158" t="n">
         <v>1.62</v>
@@ -32774,7 +32774,7 @@
         <v>1.46</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU159" t="n">
         <v>1.56</v>
@@ -32974,7 +32974,7 @@
         <v>1.44</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT160" t="n">
         <v>1.46</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33383,7 +33383,7 @@
         <v>0.92</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU162" t="n">
         <v>1.37</v>
@@ -33583,7 +33583,7 @@
         <v>0.9</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT163" t="n">
         <v>0.85</v>
@@ -33786,10 +33786,10 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -33989,10 +33989,10 @@
         <v>0.8</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU165" t="n">
         <v>1.51</v>
@@ -34195,7 +34195,7 @@
         <v>1.69</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU166" t="n">
         <v>1.81</v>
@@ -34395,7 +34395,7 @@
         <v>1.2</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT167" t="n">
         <v>0.92</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT168" t="n">
         <v>0.6899999999999999</v>
@@ -35210,7 +35210,7 @@
         <v>1.85</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -35413,7 +35413,7 @@
         <v>2</v>
       </c>
       <c r="AT172" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU172" t="n">
         <v>1.36</v>
@@ -35613,7 +35613,7 @@
         <v>1.1</v>
       </c>
       <c r="AS173" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT173" t="n">
         <v>1.08</v>
@@ -35816,7 +35816,7 @@
         <v>0.7</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT174" t="n">
         <v>0.54</v>
@@ -36022,7 +36022,7 @@
         <v>2</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU175" t="n">
         <v>1.44</v>
@@ -36225,7 +36225,7 @@
         <v>0.85</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU176" t="n">
         <v>1.4</v>
@@ -36428,7 +36428,7 @@
         <v>0.92</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU177" t="n">
         <v>1.36</v>
@@ -36628,10 +36628,10 @@
         <v>1.73</v>
       </c>
       <c r="AS178" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU178" t="n">
         <v>2.26</v>
@@ -36831,7 +36831,7 @@
         <v>0.82</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT179" t="n">
         <v>0.85</v>
@@ -37034,10 +37034,10 @@
         <v>0.82</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU180" t="n">
         <v>1.57</v>
@@ -37237,10 +37237,10 @@
         <v>0.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU181" t="n">
         <v>1.94</v>
@@ -37443,7 +37443,7 @@
         <v>0.85</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU182" t="n">
         <v>1.35</v>
@@ -37646,7 +37646,7 @@
         <v>1</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.2</v>
@@ -37846,7 +37846,7 @@
         <v>1.7</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT184" t="n">
         <v>1.38</v>
@@ -38255,7 +38255,7 @@
         <v>2</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU186" t="n">
         <v>1.43</v>
@@ -38455,7 +38455,7 @@
         <v>0.64</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT187" t="n">
         <v>0.54</v>
@@ -38864,7 +38864,7 @@
         <v>1.69</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU189" t="n">
         <v>1.76</v>
@@ -39064,7 +39064,7 @@
         <v>1.09</v>
       </c>
       <c r="AS190" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT190" t="n">
         <v>0.92</v>
@@ -39876,10 +39876,10 @@
         <v>0.58</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU194" t="n">
         <v>1.87</v>
@@ -40082,7 +40082,7 @@
         <v>0.92</v>
       </c>
       <c r="AT195" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU195" t="n">
         <v>1.33</v>
@@ -40282,10 +40282,10 @@
         <v>0.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="AU196" t="n">
         <v>1.54</v>
@@ -40485,10 +40485,10 @@
         <v>0.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU197" t="n">
         <v>2.06</v>
@@ -40688,10 +40688,10 @@
         <v>1.58</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -40894,7 +40894,7 @@
         <v>1</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU199" t="n">
         <v>1.3</v>
@@ -41094,10 +41094,10 @@
         <v>0.75</v>
       </c>
       <c r="AS200" t="n">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU200" t="n">
         <v>2.27</v>
@@ -41297,7 +41297,7 @@
         <v>0.83</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT201" t="n">
         <v>0.85</v>
@@ -41706,7 +41706,7 @@
         <v>2</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU203" t="n">
         <v>1.39</v>
@@ -42921,7 +42921,7 @@
         <v>1.5</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT209" t="n">
         <v>1.38</v>
@@ -42976,6 +42976,1630 @@
       </c>
       <c r="BK209" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2449605</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Grafičar</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Radnički Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>8</v>
+      </c>
+      <c r="R210" t="n">
+        <v>4</v>
+      </c>
+      <c r="S210" t="n">
+        <v>12</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V210" t="n">
+        <v>5</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2665881</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Jedinstvo Ub</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Inđija</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>3</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['55', '58', '79']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>15</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2</v>
+      </c>
+      <c r="S211" t="n">
+        <v>17</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U211" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2449610</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Rad Beograd</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>2</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>4</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['7', '37']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['58', '84']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>4</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>7</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V212" t="n">
+        <v>7</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2449604</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Sloboda Užice</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>OFK Vršac</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2</v>
+      </c>
+      <c r="S213" t="n">
+        <v>5</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V213" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2449606</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Trajal Krusevac</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Metalac GM</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>6</v>
+      </c>
+      <c r="R214" t="n">
+        <v>3</v>
+      </c>
+      <c r="S214" t="n">
+        <v>9</v>
+      </c>
+      <c r="T214" t="n">
+        <v>3</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2449607</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Novi Sad</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Radnički Sr. Mitrovica</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3</v>
+      </c>
+      <c r="K215" t="n">
+        <v>4</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>4</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['4', '28', '43', '83']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>5</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1</v>
+      </c>
+      <c r="S215" t="n">
+        <v>6</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U215" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V215" t="n">
+        <v>4</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2449608</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Zlatibor Čajetina</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Mačva Šabac</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>6</v>
+      </c>
+      <c r="R216" t="n">
+        <v>6</v>
+      </c>
+      <c r="S216" t="n">
+        <v>12</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2449609</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Loznica</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2</v>
+      </c>
+      <c r="L217" t="n">
+        <v>5</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>5</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['12', '29', '73', '67', '80']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V217" t="n">
+        <v>10</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT2" t="n">
         <v>0.71</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.21</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT5" t="n">
         <v>0.64</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.36</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.07</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>0.57</v>
@@ -3542,7 +3542,7 @@
         <v>1.86</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.79</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2.21</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU18" t="n">
         <v>2.27</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT19" t="n">
         <v>1.43</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU20" t="n">
         <v>1.58</v>
@@ -4760,7 +4760,7 @@
         <v>2.36</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU21" t="n">
         <v>3.02</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.75</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT24" t="n">
         <v>0.64</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT25" t="n">
         <v>0.71</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT27" t="n">
         <v>0.79</v>
@@ -6181,7 +6181,7 @@
         <v>1.86</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU28" t="n">
         <v>1.89</v>
@@ -6384,7 +6384,7 @@
         <v>1.79</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU29" t="n">
         <v>0.93</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.93</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT32" t="n">
         <v>1.07</v>
@@ -7196,7 +7196,7 @@
         <v>1.86</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU33" t="n">
         <v>1.31</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.43</v>
@@ -7602,7 +7602,7 @@
         <v>2.21</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU35" t="n">
         <v>2.5</v>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.43</v>
@@ -8005,7 +8005,7 @@
         <v>1.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT37" t="n">
         <v>0.71</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT38" t="n">
         <v>0.64</v>
@@ -8414,7 +8414,7 @@
         <v>2.36</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>3.02</v>
@@ -8617,7 +8617,7 @@
         <v>1.79</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU40" t="n">
         <v>0.82</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT41" t="n">
         <v>0.57</v>
@@ -9023,7 +9023,7 @@
         <v>1.86</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU42" t="n">
         <v>1.73</v>
@@ -9226,7 +9226,7 @@
         <v>1.79</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU43" t="n">
         <v>1.71</v>
@@ -9426,10 +9426,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU44" t="n">
         <v>1.37</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU45" t="n">
         <v>1.44</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT46" t="n">
         <v>0.79</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT47" t="n">
         <v>0.79</v>
@@ -10241,7 +10241,7 @@
         <v>1.79</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.59</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT49" t="n">
         <v>0.93</v>
@@ -10644,7 +10644,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT50" t="n">
         <v>0.57</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU51" t="n">
         <v>1.27</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT52" t="n">
         <v>0.71</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT53" t="n">
         <v>1.07</v>
@@ -11865,7 +11865,7 @@
         <v>1.79</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>1.47</v>
@@ -12068,7 +12068,7 @@
         <v>1.86</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU57" t="n">
         <v>1.65</v>
@@ -12268,10 +12268,10 @@
         <v>0.75</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.37</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT59" t="n">
         <v>0.79</v>
@@ -12677,7 +12677,7 @@
         <v>1.86</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU60" t="n">
         <v>2.04</v>
@@ -12877,10 +12877,10 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.72</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU62" t="n">
         <v>1.68</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT63" t="n">
         <v>0.93</v>
@@ -13489,7 +13489,7 @@
         <v>1.79</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU64" t="n">
         <v>1.6</v>
@@ -13689,10 +13689,10 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.6</v>
@@ -13895,7 +13895,7 @@
         <v>1.79</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.74</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT67" t="n">
         <v>0.71</v>
@@ -14301,7 +14301,7 @@
         <v>1.86</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU68" t="n">
         <v>1.67</v>
@@ -15313,7 +15313,7 @@
         <v>0</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT73" t="n">
         <v>0.79</v>
@@ -15519,7 +15519,7 @@
         <v>1.79</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU74" t="n">
         <v>1.43</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU75" t="n">
         <v>1.3</v>
@@ -15922,10 +15922,10 @@
         <v>0.6</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU76" t="n">
         <v>1.65</v>
@@ -16125,10 +16125,10 @@
         <v>0.4</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU77" t="n">
         <v>1.55</v>
@@ -16328,7 +16328,7 @@
         <v>0.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
         <v>0.79</v>
@@ -16531,10 +16531,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU79" t="n">
         <v>1.64</v>
@@ -16734,10 +16734,10 @@
         <v>2.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU80" t="n">
         <v>1.76</v>
@@ -17546,7 +17546,7 @@
         <v>1.4</v>
       </c>
       <c r="AS84" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17955,7 +17955,7 @@
         <v>1.86</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU86" t="n">
         <v>2.18</v>
@@ -18155,10 +18155,10 @@
         <v>1.6</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU87" t="n">
         <v>1.42</v>
@@ -18358,10 +18358,10 @@
         <v>1.5</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU88" t="n">
         <v>1.54</v>
@@ -18561,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU89" t="n">
         <v>1.22</v>
@@ -18764,10 +18764,10 @@
         <v>0.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU90" t="n">
         <v>1.67</v>
@@ -18967,10 +18967,10 @@
         <v>2.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.68</v>
@@ -19170,10 +19170,10 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU92" t="n">
         <v>1.85</v>
@@ -19373,10 +19373,10 @@
         <v>0.83</v>
       </c>
       <c r="AS93" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU93" t="n">
         <v>1.3</v>
@@ -19576,10 +19576,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.64</v>
@@ -21606,7 +21606,7 @@
         <v>0.14</v>
       </c>
       <c r="AS104" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT104" t="n">
         <v>0.64</v>
@@ -21812,7 +21812,7 @@
         <v>2.21</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU105" t="n">
         <v>2.16</v>
@@ -22012,10 +22012,10 @@
         <v>0.71</v>
       </c>
       <c r="AS106" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU106" t="n">
         <v>1.25</v>
@@ -22215,10 +22215,10 @@
         <v>1.83</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.6</v>
@@ -22418,10 +22418,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.42</v>
@@ -22621,10 +22621,10 @@
         <v>0.86</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU109" t="n">
         <v>1.52</v>
@@ -22824,10 +22824,10 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU110" t="n">
         <v>1.71</v>
@@ -23027,10 +23027,10 @@
         <v>1.29</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU111" t="n">
         <v>1.29</v>
@@ -23230,10 +23230,10 @@
         <v>2</v>
       </c>
       <c r="AS112" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.76</v>
@@ -24448,7 +24448,7 @@
         <v>1.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT118" t="n">
         <v>1.43</v>
@@ -24654,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU119" t="n">
         <v>1.35</v>
@@ -25666,7 +25666,7 @@
         <v>1.86</v>
       </c>
       <c r="AS124" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT124" t="n">
         <v>1.43</v>
@@ -25869,7 +25869,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT125" t="n">
         <v>0.57</v>
@@ -26278,7 +26278,7 @@
         <v>1.79</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU127" t="n">
         <v>1.49</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.25</v>
@@ -26887,7 +26887,7 @@
         <v>2.36</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU130" t="n">
         <v>2.23</v>
@@ -27090,7 +27090,7 @@
         <v>2.21</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU131" t="n">
         <v>2.1</v>
@@ -27290,10 +27290,10 @@
         <v>2.13</v>
       </c>
       <c r="AS132" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.45</v>
@@ -27493,10 +27493,10 @@
         <v>1.13</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU133" t="n">
         <v>1.39</v>
@@ -27696,7 +27696,7 @@
         <v>0.13</v>
       </c>
       <c r="AS134" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT134" t="n">
         <v>0.64</v>
@@ -27899,7 +27899,7 @@
         <v>1.75</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT135" t="n">
         <v>1.43</v>
@@ -28305,10 +28305,10 @@
         <v>0.88</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU137" t="n">
         <v>1.75</v>
@@ -28508,7 +28508,7 @@
         <v>0.63</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT138" t="n">
         <v>0.57</v>
@@ -28711,7 +28711,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT139" t="n">
         <v>1.07</v>
@@ -29120,7 +29120,7 @@
         <v>1.79</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.43</v>
@@ -29320,7 +29320,7 @@
         <v>0.25</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>0.79</v>
@@ -29729,7 +29729,7 @@
         <v>1.79</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU144" t="n">
         <v>1.61</v>
@@ -29932,7 +29932,7 @@
         <v>1.86</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU145" t="n">
         <v>1.63</v>
@@ -30132,7 +30132,7 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT146" t="n">
         <v>1.43</v>
@@ -30335,7 +30335,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT147" t="n">
         <v>0.57</v>
@@ -30538,10 +30538,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU148" t="n">
         <v>1.41</v>
@@ -30744,7 +30744,7 @@
         <v>2.21</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU149" t="n">
         <v>2.02</v>
@@ -31147,7 +31147,7 @@
         <v>0.11</v>
       </c>
       <c r="AS151" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT151" t="n">
         <v>0.64</v>
@@ -31353,7 +31353,7 @@
         <v>2.36</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU152" t="n">
         <v>2.21</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU153" t="n">
         <v>1.25</v>
@@ -31756,7 +31756,7 @@
         <v>0.78</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT154" t="n">
         <v>1.07</v>
@@ -31962,7 +31962,7 @@
         <v>1.79</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU155" t="n">
         <v>1.53</v>
@@ -32165,7 +32165,7 @@
         <v>1.79</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU156" t="n">
         <v>1.45</v>
@@ -32365,7 +32365,7 @@
         <v>0.67</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>0.79</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT158" t="n">
         <v>0.79</v>
@@ -32771,7 +32771,7 @@
         <v>1.22</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT159" t="n">
         <v>0.93</v>
@@ -32977,7 +32977,7 @@
         <v>1.86</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU160" t="n">
         <v>2.17</v>
@@ -33180,7 +33180,7 @@
         <v>1.86</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU161" t="n">
         <v>1.58</v>
@@ -33380,7 +33380,7 @@
         <v>1.6</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT162" t="n">
         <v>1.43</v>
@@ -33586,7 +33586,7 @@
         <v>2.36</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU163" t="n">
         <v>2.13</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT166" t="n">
         <v>1.07</v>
@@ -34398,7 +34398,7 @@
         <v>1.79</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU167" t="n">
         <v>1.46</v>
@@ -34601,7 +34601,7 @@
         <v>1.79</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU168" t="n">
         <v>1.48</v>
@@ -34801,10 +34801,10 @@
         <v>1.6</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU169" t="n">
         <v>1.45</v>
@@ -35004,10 +35004,10 @@
         <v>2</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU170" t="n">
         <v>1.57</v>
@@ -35207,7 +35207,7 @@
         <v>0.6</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT171" t="n">
         <v>0.79</v>
@@ -35410,7 +35410,7 @@
         <v>1.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT172" t="n">
         <v>0.93</v>
@@ -35616,7 +35616,7 @@
         <v>1.86</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU173" t="n">
         <v>2.09</v>
@@ -35819,7 +35819,7 @@
         <v>1.79</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU174" t="n">
         <v>1.55</v>
@@ -36019,7 +36019,7 @@
         <v>0.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT175" t="n">
         <v>0.79</v>
@@ -36222,7 +36222,7 @@
         <v>0.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT176" t="n">
         <v>0.57</v>
@@ -36425,7 +36425,7 @@
         <v>0.73</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT177" t="n">
         <v>1.07</v>
@@ -36834,7 +36834,7 @@
         <v>1.79</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU179" t="n">
         <v>1.53</v>
@@ -37440,7 +37440,7 @@
         <v>0.55</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT182" t="n">
         <v>0.79</v>
@@ -37849,7 +37849,7 @@
         <v>1.86</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU184" t="n">
         <v>1.46</v>
@@ -38052,7 +38052,7 @@
         <v>1</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.21</v>
@@ -38252,7 +38252,7 @@
         <v>1.09</v>
       </c>
       <c r="AS186" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT186" t="n">
         <v>0.93</v>
@@ -38458,7 +38458,7 @@
         <v>1.79</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU187" t="n">
         <v>1.48</v>
@@ -38658,10 +38658,10 @@
         <v>1.27</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU188" t="n">
         <v>1.45</v>
@@ -38861,7 +38861,7 @@
         <v>0.55</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT189" t="n">
         <v>0.79</v>
@@ -39067,7 +39067,7 @@
         <v>1.86</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU190" t="n">
         <v>2.09</v>
@@ -39267,10 +39267,10 @@
         <v>0.45</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU191" t="n">
         <v>1.58</v>
@@ -39470,10 +39470,10 @@
         <v>1.73</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU192" t="n">
         <v>1.58</v>
@@ -39673,10 +39673,10 @@
         <v>2.09</v>
       </c>
       <c r="AS193" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU193" t="n">
         <v>1.41</v>
@@ -40079,7 +40079,7 @@
         <v>1</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AT195" t="n">
         <v>0.93</v>
@@ -41300,7 +41300,7 @@
         <v>1.79</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU201" t="n">
         <v>1.6</v>
@@ -41500,10 +41500,10 @@
         <v>1</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AU202" t="n">
         <v>1.4</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT203" t="n">
         <v>0.79</v>
@@ -41906,10 +41906,10 @@
         <v>0.5</v>
       </c>
       <c r="AS204" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU204" t="n">
         <v>1.4</v>
@@ -42109,10 +42109,10 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU205" t="n">
         <v>1.58</v>
@@ -42312,10 +42312,10 @@
         <v>0.58</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU206" t="n">
         <v>1.61</v>
@@ -42515,10 +42515,10 @@
         <v>1.92</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AU207" t="n">
         <v>1.35</v>
@@ -42718,10 +42718,10 @@
         <v>1.58</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU208" t="n">
         <v>1.79</v>
@@ -42924,7 +42924,7 @@
         <v>1.79</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU209" t="n">
         <v>1.48</v>
@@ -44600,6 +44600,1630 @@
       </c>
       <c r="BK217" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2449616</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>28</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Inđija</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Grafičar</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>5</v>
+      </c>
+      <c r="R218" t="n">
+        <v>4</v>
+      </c>
+      <c r="S218" t="n">
+        <v>9</v>
+      </c>
+      <c r="T218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2449613</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>28</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Loznica</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Zlatibor Čajetina</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>2</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['54', '73']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>5</v>
+      </c>
+      <c r="S219" t="n">
+        <v>8</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2449614</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>28</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Mačva Šabac</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Novi Sad</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T220" t="n">
+        <v>3</v>
+      </c>
+      <c r="U220" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2449615</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>28</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Radnički Sr. Mitrovica</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Trajal Krusevac</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" t="n">
+        <v>4</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U221" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2449617</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>28</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Radnički Novi Beograd</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Sloboda Užice</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>4</v>
+      </c>
+      <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
+        <v>9</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V222" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2449611</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>28</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>OFK Vršac</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>11</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2</v>
+      </c>
+      <c r="S223" t="n">
+        <v>13</v>
+      </c>
+      <c r="T223" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>2665882</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>28</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Metalac GM</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Jedinstvo Ub</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>5</v>
+      </c>
+      <c r="R224" t="n">
+        <v>6</v>
+      </c>
+      <c r="S224" t="n">
+        <v>11</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U224" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V224" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2449612</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Serbia Prva Liga</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>28</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Rad Beograd</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Železničar Pančevo</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>8</v>
+      </c>
+      <c r="S225" t="n">
+        <v>10</v>
+      </c>
+      <c r="T225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia Prva Liga_20222023.xlsx
@@ -45070,13 +45070,13 @@
         </is>
       </c>
       <c r="Q220" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R220" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T220" t="n">
         <v>3</v>
